--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga4_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga4_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>861</v>
+        <v>25416</v>
       </c>
       <c r="B2">
-        <v>215.25</v>
+        <v>254.16</v>
       </c>
       <c r="C2">
         <v>255</v>
@@ -465,22 +465,22 @@
         <v>255</v>
       </c>
       <c r="E2">
-        <v>6320.25</v>
+        <v>3.73171717171717</v>
       </c>
       <c r="F2">
-        <v>79.5</v>
+        <v>1.931765299335603</v>
       </c>
       <c r="G2">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="I2">
         <v>255</v>
       </c>
       <c r="J2">
-        <v>215.25</v>
+        <v>255</v>
       </c>
       <c r="K2">
         <v>255</v>
@@ -491,37 +491,37 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>840</v>
+        <v>25288</v>
       </c>
       <c r="B3">
-        <v>210</v>
+        <v>252.88</v>
       </c>
       <c r="C3">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>255</v>
       </c>
       <c r="E3">
-        <v>2742.666666666667</v>
+        <v>37.19757575757576</v>
       </c>
       <c r="F3">
-        <v>52.37047514264756</v>
+        <v>6.098981534451122</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="I3">
         <v>255</v>
       </c>
       <c r="J3">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="K3">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="L3">
         <v>255</v>
@@ -529,77 +529,3725 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>777</v>
+        <v>24535</v>
       </c>
       <c r="B4">
-        <v>194.25</v>
+        <v>245.35</v>
       </c>
       <c r="C4">
-        <v>201.5</v>
+        <v>255</v>
       </c>
       <c r="D4">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="E4">
-        <v>4990.25</v>
+        <v>866.1893939393931</v>
       </c>
       <c r="F4">
-        <v>70.64170156501045</v>
+        <v>29.43109569722801</v>
       </c>
       <c r="G4">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H4">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I4">
         <v>255</v>
       </c>
       <c r="J4">
-        <v>141.5</v>
+        <v>254</v>
       </c>
       <c r="K4">
-        <v>201.5</v>
+        <v>255</v>
       </c>
       <c r="L4">
-        <v>254.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>884</v>
+        <v>23592</v>
       </c>
       <c r="B5">
+        <v>235.92</v>
+      </c>
+      <c r="C5">
+        <v>255</v>
+      </c>
+      <c r="D5">
+        <v>255</v>
+      </c>
+      <c r="E5">
+        <v>2081.205656565654</v>
+      </c>
+      <c r="F5">
+        <v>45.62023297360125</v>
+      </c>
+      <c r="G5">
+        <v>164</v>
+      </c>
+      <c r="H5">
+        <v>91</v>
+      </c>
+      <c r="I5">
+        <v>255</v>
+      </c>
+      <c r="J5">
+        <v>252.75</v>
+      </c>
+      <c r="K5">
+        <v>255</v>
+      </c>
+      <c r="L5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>22694</v>
+      </c>
+      <c r="B6">
+        <v>226.94</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>255</v>
+      </c>
+      <c r="E6">
+        <v>3225.774141414137</v>
+      </c>
+      <c r="F6">
+        <v>56.795898984118</v>
+      </c>
+      <c r="G6">
+        <v>192</v>
+      </c>
+      <c r="H6">
+        <v>63</v>
+      </c>
+      <c r="I6">
+        <v>255</v>
+      </c>
+      <c r="J6">
+        <v>251</v>
+      </c>
+      <c r="K6">
+        <v>255</v>
+      </c>
+      <c r="L6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>22044</v>
+      </c>
+      <c r="B7">
+        <v>220.44</v>
+      </c>
+      <c r="C7">
+        <v>255</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
+      </c>
+      <c r="E7">
+        <v>4125.92565656566</v>
+      </c>
+      <c r="F7">
+        <v>64.23336871568904</v>
+      </c>
+      <c r="G7">
+        <v>191</v>
+      </c>
+      <c r="H7">
+        <v>64</v>
+      </c>
+      <c r="I7">
+        <v>255</v>
+      </c>
+      <c r="J7">
+        <v>243.75</v>
+      </c>
+      <c r="K7">
+        <v>255</v>
+      </c>
+      <c r="L7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>21732</v>
+      </c>
+      <c r="B8">
+        <v>217.32</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
+      </c>
+      <c r="E8">
+        <v>4581.027878787886</v>
+      </c>
+      <c r="F8">
+        <v>67.68329098668212</v>
+      </c>
+      <c r="G8">
+        <v>198</v>
+      </c>
+      <c r="H8">
+        <v>57</v>
+      </c>
+      <c r="I8">
+        <v>255</v>
+      </c>
+      <c r="J8">
+        <v>233.5</v>
+      </c>
+      <c r="K8">
+        <v>255</v>
+      </c>
+      <c r="L8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>21405</v>
+      </c>
+      <c r="B9">
+        <v>214.05</v>
+      </c>
+      <c r="C9">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>255</v>
+      </c>
+      <c r="E9">
+        <v>5000.613636363643</v>
+      </c>
+      <c r="F9">
+        <v>70.71501704987169</v>
+      </c>
+      <c r="G9">
+        <v>196</v>
+      </c>
+      <c r="H9">
+        <v>59</v>
+      </c>
+      <c r="I9">
+        <v>255</v>
+      </c>
+      <c r="J9">
+        <v>218</v>
+      </c>
+      <c r="K9">
+        <v>255</v>
+      </c>
+      <c r="L9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>21195</v>
+      </c>
+      <c r="B10">
+        <v>211.95</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>255</v>
+      </c>
+      <c r="E10">
+        <v>5102.815656565655</v>
+      </c>
+      <c r="F10">
+        <v>71.43399510433149</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10">
+        <v>55</v>
+      </c>
+      <c r="I10">
+        <v>255</v>
+      </c>
+      <c r="J10">
+        <v>156.75</v>
+      </c>
+      <c r="K10">
+        <v>255</v>
+      </c>
+      <c r="L10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>20894</v>
+      </c>
+      <c r="B11">
+        <v>208.94</v>
+      </c>
+      <c r="C11">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>255</v>
+      </c>
+      <c r="E11">
+        <v>5410.743838383839</v>
+      </c>
+      <c r="F11">
+        <v>73.55775851930127</v>
+      </c>
+      <c r="G11">
+        <v>203</v>
+      </c>
+      <c r="H11">
+        <v>52</v>
+      </c>
+      <c r="I11">
+        <v>255</v>
+      </c>
+      <c r="J11">
+        <v>110.25</v>
+      </c>
+      <c r="K11">
+        <v>255</v>
+      </c>
+      <c r="L11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>20649</v>
+      </c>
+      <c r="B12">
+        <v>206.49</v>
+      </c>
+      <c r="C12">
+        <v>255</v>
+      </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <v>5629.525151515158</v>
+      </c>
+      <c r="F12">
+        <v>75.03016161194881</v>
+      </c>
+      <c r="G12">
+        <v>197</v>
+      </c>
+      <c r="H12">
+        <v>58</v>
+      </c>
+      <c r="I12">
+        <v>255</v>
+      </c>
+      <c r="J12">
+        <v>102.5</v>
+      </c>
+      <c r="K12">
+        <v>255</v>
+      </c>
+      <c r="L12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>20835</v>
+      </c>
+      <c r="B13">
+        <v>208.35</v>
+      </c>
+      <c r="C13">
+        <v>254</v>
+      </c>
+      <c r="D13">
+        <v>255</v>
+      </c>
+      <c r="E13">
+        <v>4824.573232323227</v>
+      </c>
+      <c r="F13">
+        <v>69.45914793836178</v>
+      </c>
+      <c r="G13">
+        <v>178</v>
+      </c>
+      <c r="H13">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>255</v>
+      </c>
+      <c r="J13">
+        <v>139.25</v>
+      </c>
+      <c r="K13">
+        <v>254</v>
+      </c>
+      <c r="L13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>21217</v>
+      </c>
+      <c r="B14">
+        <v>212.17</v>
+      </c>
+      <c r="C14">
+        <v>255</v>
+      </c>
+      <c r="D14">
+        <v>255</v>
+      </c>
+      <c r="E14">
+        <v>4393.859696969692</v>
+      </c>
+      <c r="F14">
+        <v>66.28619537256375</v>
+      </c>
+      <c r="G14">
+        <v>179</v>
+      </c>
+      <c r="H14">
+        <v>76</v>
+      </c>
+      <c r="I14">
+        <v>255</v>
+      </c>
+      <c r="J14">
+        <v>139.75</v>
+      </c>
+      <c r="K14">
+        <v>255</v>
+      </c>
+      <c r="L14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>21350</v>
+      </c>
+      <c r="B15">
+        <v>213.5</v>
+      </c>
+      <c r="C15">
+        <v>255</v>
+      </c>
+      <c r="D15">
+        <v>255</v>
+      </c>
+      <c r="E15">
+        <v>4148.252525252526</v>
+      </c>
+      <c r="F15">
+        <v>64.40692917111113</v>
+      </c>
+      <c r="G15">
+        <v>176</v>
+      </c>
+      <c r="H15">
+        <v>79</v>
+      </c>
+      <c r="I15">
+        <v>255</v>
+      </c>
+      <c r="J15">
+        <v>141</v>
+      </c>
+      <c r="K15">
+        <v>255</v>
+      </c>
+      <c r="L15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>21437</v>
+      </c>
+      <c r="B16">
+        <v>214.37</v>
+      </c>
+      <c r="C16">
+        <v>255</v>
+      </c>
+      <c r="D16">
+        <v>255</v>
+      </c>
+      <c r="E16">
+        <v>3978.094040404044</v>
+      </c>
+      <c r="F16">
+        <v>63.0721336281249</v>
+      </c>
+      <c r="G16">
+        <v>185</v>
+      </c>
+      <c r="H16">
+        <v>70</v>
+      </c>
+      <c r="I16">
+        <v>255</v>
+      </c>
+      <c r="J16">
+        <v>145</v>
+      </c>
+      <c r="K16">
+        <v>255</v>
+      </c>
+      <c r="L16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>21521</v>
+      </c>
+      <c r="B17">
+        <v>215.21</v>
+      </c>
+      <c r="C17">
+        <v>255</v>
+      </c>
+      <c r="D17">
+        <v>255</v>
+      </c>
+      <c r="E17">
+        <v>3784.551414141417</v>
+      </c>
+      <c r="F17">
+        <v>61.51870783868446</v>
+      </c>
+      <c r="G17">
+        <v>175</v>
+      </c>
+      <c r="H17">
+        <v>80</v>
+      </c>
+      <c r="I17">
+        <v>255</v>
+      </c>
+      <c r="J17">
+        <v>150</v>
+      </c>
+      <c r="K17">
+        <v>255</v>
+      </c>
+      <c r="L17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>21671</v>
+      </c>
+      <c r="B18">
+        <v>216.71</v>
+      </c>
+      <c r="C18">
+        <v>254</v>
+      </c>
+      <c r="D18">
+        <v>255</v>
+      </c>
+      <c r="E18">
+        <v>3373.783737373741</v>
+      </c>
+      <c r="F18">
+        <v>58.08428132785789</v>
+      </c>
+      <c r="G18">
+        <v>180</v>
+      </c>
+      <c r="H18">
+        <v>75</v>
+      </c>
+      <c r="I18">
+        <v>255</v>
+      </c>
+      <c r="J18">
+        <v>159.5</v>
+      </c>
+      <c r="K18">
+        <v>254</v>
+      </c>
+      <c r="L18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>21319</v>
+      </c>
+      <c r="B19">
+        <v>213.19</v>
+      </c>
+      <c r="C19">
+        <v>254</v>
+      </c>
+      <c r="D19">
+        <v>255</v>
+      </c>
+      <c r="E19">
+        <v>3373.751414141415</v>
+      </c>
+      <c r="F19">
+        <v>58.08400308296093</v>
+      </c>
+      <c r="G19">
+        <v>171</v>
+      </c>
+      <c r="H19">
+        <v>84</v>
+      </c>
+      <c r="I19">
+        <v>255</v>
+      </c>
+      <c r="J19">
+        <v>156.75</v>
+      </c>
+      <c r="K19">
+        <v>254</v>
+      </c>
+      <c r="L19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>21213</v>
+      </c>
+      <c r="B20">
+        <v>212.13</v>
+      </c>
+      <c r="C20">
+        <v>255</v>
+      </c>
+      <c r="D20">
+        <v>255</v>
+      </c>
+      <c r="E20">
+        <v>3435.689999999998</v>
+      </c>
+      <c r="F20">
+        <v>58.61475923348998</v>
+      </c>
+      <c r="G20">
+        <v>172</v>
+      </c>
+      <c r="H20">
+        <v>83</v>
+      </c>
+      <c r="I20">
+        <v>255</v>
+      </c>
+      <c r="J20">
+        <v>158</v>
+      </c>
+      <c r="K20">
+        <v>255</v>
+      </c>
+      <c r="L20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>20598</v>
+      </c>
+      <c r="B21">
+        <v>205.98</v>
+      </c>
+      <c r="C21">
+        <v>248</v>
+      </c>
+      <c r="D21">
+        <v>255</v>
+      </c>
+      <c r="E21">
+        <v>3336.100606060602</v>
+      </c>
+      <c r="F21">
+        <v>57.75898723195034</v>
+      </c>
+      <c r="G21">
+        <v>180</v>
+      </c>
+      <c r="H21">
+        <v>75</v>
+      </c>
+      <c r="I21">
+        <v>255</v>
+      </c>
+      <c r="J21">
+        <v>153.75</v>
+      </c>
+      <c r="K21">
+        <v>248</v>
+      </c>
+      <c r="L21">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>20577</v>
+      </c>
+      <c r="B22">
+        <v>205.77</v>
+      </c>
+      <c r="C22">
+        <v>249.5</v>
+      </c>
+      <c r="D22">
+        <v>255</v>
+      </c>
+      <c r="E22">
+        <v>3263.3102020202</v>
+      </c>
+      <c r="F22">
+        <v>57.1253901695227</v>
+      </c>
+      <c r="G22">
+        <v>179</v>
+      </c>
+      <c r="H22">
+        <v>76</v>
+      </c>
+      <c r="I22">
+        <v>255</v>
+      </c>
+      <c r="J22">
+        <v>162.25</v>
+      </c>
+      <c r="K22">
+        <v>249.5</v>
+      </c>
+      <c r="L22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>20714</v>
+      </c>
+      <c r="B23">
+        <v>207.14</v>
+      </c>
+      <c r="C23">
+        <v>247</v>
+      </c>
+      <c r="D23">
+        <v>255</v>
+      </c>
+      <c r="E23">
+        <v>3676.808484848483</v>
+      </c>
+      <c r="F23">
+        <v>60.63669256191735</v>
+      </c>
+      <c r="G23">
+        <v>185</v>
+      </c>
+      <c r="H23">
+        <v>70</v>
+      </c>
+      <c r="I23">
+        <v>255</v>
+      </c>
+      <c r="J23">
+        <v>169.5</v>
+      </c>
+      <c r="K23">
+        <v>247</v>
+      </c>
+      <c r="L23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>20508</v>
+      </c>
+      <c r="B24">
+        <v>205.08</v>
+      </c>
+      <c r="C24">
+        <v>250.5</v>
+      </c>
+      <c r="D24">
+        <v>255</v>
+      </c>
+      <c r="E24">
+        <v>4576.518787878789</v>
+      </c>
+      <c r="F24">
+        <v>67.64997256376967</v>
+      </c>
+      <c r="G24">
+        <v>202</v>
+      </c>
+      <c r="H24">
+        <v>53</v>
+      </c>
+      <c r="I24">
+        <v>255</v>
+      </c>
+      <c r="J24">
+        <v>163.5</v>
+      </c>
+      <c r="K24">
+        <v>250.5</v>
+      </c>
+      <c r="L24">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>20513</v>
+      </c>
+      <c r="B25">
+        <v>205.13</v>
+      </c>
+      <c r="C25">
+        <v>253.5</v>
+      </c>
+      <c r="D25">
+        <v>255</v>
+      </c>
+      <c r="E25">
+        <v>4372.498080808078</v>
+      </c>
+      <c r="F25">
+        <v>66.12486734057073</v>
+      </c>
+      <c r="G25">
+        <v>195</v>
+      </c>
+      <c r="H25">
+        <v>60</v>
+      </c>
+      <c r="I25">
+        <v>255</v>
+      </c>
+      <c r="J25">
+        <v>153.75</v>
+      </c>
+      <c r="K25">
+        <v>253.5</v>
+      </c>
+      <c r="L25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>22384</v>
+      </c>
+      <c r="B26">
+        <v>223.84</v>
+      </c>
+      <c r="C26">
+        <v>251.5</v>
+      </c>
+      <c r="D26">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>1634.034747474748</v>
+      </c>
+      <c r="F26">
+        <v>40.42319566133718</v>
+      </c>
+      <c r="G26">
+        <v>150</v>
+      </c>
+      <c r="H26">
+        <v>105</v>
+      </c>
+      <c r="I26">
+        <v>255</v>
+      </c>
+      <c r="J26">
+        <v>193</v>
+      </c>
+      <c r="K26">
+        <v>251.5</v>
+      </c>
+      <c r="L26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>23253</v>
+      </c>
+      <c r="B27">
+        <v>232.53</v>
+      </c>
+      <c r="C27">
+        <v>253</v>
+      </c>
+      <c r="D27">
+        <v>255</v>
+      </c>
+      <c r="E27">
+        <v>1015.524343434343</v>
+      </c>
+      <c r="F27">
+        <v>31.86729269069374</v>
+      </c>
+      <c r="G27">
+        <v>114</v>
+      </c>
+      <c r="H27">
+        <v>141</v>
+      </c>
+      <c r="I27">
+        <v>255</v>
+      </c>
+      <c r="J27">
+        <v>212.75</v>
+      </c>
+      <c r="K27">
+        <v>253</v>
+      </c>
+      <c r="L27">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>22616</v>
+      </c>
+      <c r="B28">
+        <v>226.16</v>
+      </c>
+      <c r="C28">
+        <v>252</v>
+      </c>
+      <c r="D28">
+        <v>255</v>
+      </c>
+      <c r="E28">
+        <v>1296.600404040403</v>
+      </c>
+      <c r="F28">
+        <v>36.00833797942364</v>
+      </c>
+      <c r="G28">
+        <v>141</v>
+      </c>
+      <c r="H28">
+        <v>114</v>
+      </c>
+      <c r="I28">
+        <v>255</v>
+      </c>
+      <c r="J28">
+        <v>191.75</v>
+      </c>
+      <c r="K28">
+        <v>252</v>
+      </c>
+      <c r="L28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>22918</v>
+      </c>
+      <c r="B29">
+        <v>229.18</v>
+      </c>
+      <c r="C29">
+        <v>253</v>
+      </c>
+      <c r="D29">
+        <v>255</v>
+      </c>
+      <c r="E29">
+        <v>1206.654141414141</v>
+      </c>
+      <c r="F29">
+        <v>34.7369276334874</v>
+      </c>
+      <c r="G29">
+        <v>149</v>
+      </c>
+      <c r="H29">
+        <v>106</v>
+      </c>
+      <c r="I29">
+        <v>255</v>
+      </c>
+      <c r="J29">
+        <v>203.5</v>
+      </c>
+      <c r="K29">
+        <v>253</v>
+      </c>
+      <c r="L29">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>23154</v>
+      </c>
+      <c r="B30">
+        <v>231.54</v>
+      </c>
+      <c r="C30">
+        <v>255</v>
+      </c>
+      <c r="D30">
+        <v>255</v>
+      </c>
+      <c r="E30">
+        <v>1299.402424242424</v>
+      </c>
+      <c r="F30">
+        <v>36.04722491735561</v>
+      </c>
+      <c r="G30">
+        <v>153</v>
+      </c>
+      <c r="H30">
+        <v>102</v>
+      </c>
+      <c r="I30">
+        <v>255</v>
+      </c>
+      <c r="J30">
+        <v>207.5</v>
+      </c>
+      <c r="K30">
+        <v>255</v>
+      </c>
+      <c r="L30">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>23196</v>
+      </c>
+      <c r="B31">
+        <v>231.96</v>
+      </c>
+      <c r="C31">
+        <v>253</v>
+      </c>
+      <c r="D31">
+        <v>255</v>
+      </c>
+      <c r="E31">
+        <v>1377.957979797978</v>
+      </c>
+      <c r="F31">
+        <v>37.1208563990377</v>
+      </c>
+      <c r="G31">
+        <v>153</v>
+      </c>
+      <c r="H31">
+        <v>102</v>
+      </c>
+      <c r="I31">
+        <v>255</v>
+      </c>
+      <c r="J31">
+        <v>224</v>
+      </c>
+      <c r="K31">
+        <v>253</v>
+      </c>
+      <c r="L31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>23244</v>
+      </c>
+      <c r="B32">
+        <v>232.44</v>
+      </c>
+      <c r="C32">
+        <v>252</v>
+      </c>
+      <c r="D32">
+        <v>255</v>
+      </c>
+      <c r="E32">
+        <v>1382.390303030303</v>
+      </c>
+      <c r="F32">
+        <v>37.18050971988285</v>
+      </c>
+      <c r="G32">
+        <v>166</v>
+      </c>
+      <c r="H32">
+        <v>89</v>
+      </c>
+      <c r="I32">
+        <v>255</v>
+      </c>
+      <c r="J32">
+        <v>238</v>
+      </c>
+      <c r="K32">
+        <v>252</v>
+      </c>
+      <c r="L32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>22993</v>
+      </c>
+      <c r="B33">
+        <v>229.93</v>
+      </c>
+      <c r="C33">
+        <v>250.5</v>
+      </c>
+      <c r="D33">
+        <v>255</v>
+      </c>
+      <c r="E33">
+        <v>1595.560707070706</v>
+      </c>
+      <c r="F33">
+        <v>39.94447029403076</v>
+      </c>
+      <c r="G33">
+        <v>189</v>
+      </c>
+      <c r="H33">
+        <v>66</v>
+      </c>
+      <c r="I33">
+        <v>255</v>
+      </c>
+      <c r="J33">
+        <v>224.75</v>
+      </c>
+      <c r="K33">
+        <v>250.5</v>
+      </c>
+      <c r="L33">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>22735</v>
+      </c>
+      <c r="B34">
+        <v>227.35</v>
+      </c>
+      <c r="C34">
+        <v>248.5</v>
+      </c>
+      <c r="D34">
+        <v>255</v>
+      </c>
+      <c r="E34">
+        <v>1613.765151515149</v>
+      </c>
+      <c r="F34">
+        <v>40.17169590041164</v>
+      </c>
+      <c r="G34">
+        <v>149</v>
+      </c>
+      <c r="H34">
+        <v>106</v>
+      </c>
+      <c r="I34">
+        <v>255</v>
+      </c>
+      <c r="J34">
+        <v>201.25</v>
+      </c>
+      <c r="K34">
+        <v>248.5</v>
+      </c>
+      <c r="L34">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>22543</v>
+      </c>
+      <c r="B35">
+        <v>225.43</v>
+      </c>
+      <c r="C35">
+        <v>248</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
+      </c>
+      <c r="E35">
+        <v>1806.510202020203</v>
+      </c>
+      <c r="F35">
+        <v>42.50306108999919</v>
+      </c>
+      <c r="G35">
+        <v>158</v>
+      </c>
+      <c r="H35">
+        <v>97</v>
+      </c>
+      <c r="I35">
+        <v>255</v>
+      </c>
+      <c r="J35">
+        <v>201</v>
+      </c>
+      <c r="K35">
+        <v>248</v>
+      </c>
+      <c r="L35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>22124</v>
+      </c>
+      <c r="B36">
+        <v>221.24</v>
+      </c>
+      <c r="C36">
+        <v>246.5</v>
+      </c>
+      <c r="D36">
+        <v>255</v>
+      </c>
+      <c r="E36">
+        <v>1978.507474747473</v>
+      </c>
+      <c r="F36">
+        <v>44.48041675555068</v>
+      </c>
+      <c r="G36">
+        <v>159</v>
+      </c>
+      <c r="H36">
+        <v>96</v>
+      </c>
+      <c r="I36">
+        <v>255</v>
+      </c>
+      <c r="J36">
+        <v>185.5</v>
+      </c>
+      <c r="K36">
+        <v>246.5</v>
+      </c>
+      <c r="L36">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>21676</v>
+      </c>
+      <c r="B37">
+        <v>216.76</v>
+      </c>
+      <c r="C37">
+        <v>244.5</v>
+      </c>
+      <c r="D37">
+        <v>255</v>
+      </c>
+      <c r="E37">
+        <v>2307.861010101008</v>
+      </c>
+      <c r="F37">
+        <v>48.04020201977723</v>
+      </c>
+      <c r="G37">
+        <v>200</v>
+      </c>
+      <c r="H37">
+        <v>55</v>
+      </c>
+      <c r="I37">
+        <v>255</v>
+      </c>
+      <c r="J37">
+        <v>180.75</v>
+      </c>
+      <c r="K37">
+        <v>244.5</v>
+      </c>
+      <c r="L37">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>21222</v>
+      </c>
+      <c r="B38">
+        <v>212.22</v>
+      </c>
+      <c r="C38">
+        <v>226.5</v>
+      </c>
+      <c r="D38">
+        <v>255</v>
+      </c>
+      <c r="E38">
+        <v>2309.526868686865</v>
+      </c>
+      <c r="F38">
+        <v>48.05753706430309</v>
+      </c>
+      <c r="G38">
+        <v>160</v>
+      </c>
+      <c r="H38">
+        <v>95</v>
+      </c>
+      <c r="I38">
+        <v>255</v>
+      </c>
+      <c r="J38">
+        <v>173.75</v>
+      </c>
+      <c r="K38">
+        <v>226.5</v>
+      </c>
+      <c r="L38">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>20686</v>
+      </c>
+      <c r="B39">
+        <v>206.86</v>
+      </c>
+      <c r="C39">
+        <v>206</v>
+      </c>
+      <c r="D39">
+        <v>255</v>
+      </c>
+      <c r="E39">
+        <v>2535.798383838385</v>
+      </c>
+      <c r="F39">
+        <v>50.35671140809718</v>
+      </c>
+      <c r="G39">
+        <v>177</v>
+      </c>
+      <c r="H39">
+        <v>78</v>
+      </c>
+      <c r="I39">
+        <v>255</v>
+      </c>
+      <c r="J39">
+        <v>168.5</v>
+      </c>
+      <c r="K39">
+        <v>206</v>
+      </c>
+      <c r="L39">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>20403</v>
+      </c>
+      <c r="B40">
+        <v>204.03</v>
+      </c>
+      <c r="C40">
+        <v>199</v>
+      </c>
+      <c r="D40">
+        <v>255</v>
+      </c>
+      <c r="E40">
+        <v>2643.403131313127</v>
+      </c>
+      <c r="F40">
+        <v>51.41403632582378</v>
+      </c>
+      <c r="G40">
+        <v>187</v>
+      </c>
+      <c r="H40">
+        <v>68</v>
+      </c>
+      <c r="I40">
+        <v>255</v>
+      </c>
+      <c r="J40">
+        <v>168</v>
+      </c>
+      <c r="K40">
+        <v>199</v>
+      </c>
+      <c r="L40">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>20116</v>
+      </c>
+      <c r="B41">
+        <v>201.16</v>
+      </c>
+      <c r="C41">
+        <v>187.5</v>
+      </c>
+      <c r="D41">
+        <v>255</v>
+      </c>
+      <c r="E41">
+        <v>2758.883232323231</v>
+      </c>
+      <c r="F41">
+        <v>52.52507241616361</v>
+      </c>
+      <c r="G41">
+        <v>169</v>
+      </c>
+      <c r="H41">
+        <v>86</v>
+      </c>
+      <c r="I41">
+        <v>255</v>
+      </c>
+      <c r="J41">
+        <v>163.5</v>
+      </c>
+      <c r="K41">
+        <v>187.5</v>
+      </c>
+      <c r="L41">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>19875</v>
+      </c>
+      <c r="B42">
+        <v>198.75</v>
+      </c>
+      <c r="C42">
+        <v>188</v>
+      </c>
+      <c r="D42">
+        <v>255</v>
+      </c>
+      <c r="E42">
+        <v>2986.896464646465</v>
+      </c>
+      <c r="F42">
+        <v>54.65250648091508</v>
+      </c>
+      <c r="G42">
+        <v>175</v>
+      </c>
+      <c r="H42">
+        <v>80</v>
+      </c>
+      <c r="I42">
+        <v>255</v>
+      </c>
+      <c r="J42">
+        <v>155.75</v>
+      </c>
+      <c r="K42">
+        <v>188</v>
+      </c>
+      <c r="L42">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>19733</v>
+      </c>
+      <c r="B43">
+        <v>197.33</v>
+      </c>
+      <c r="C43">
+        <v>194</v>
+      </c>
+      <c r="D43">
+        <v>255</v>
+      </c>
+      <c r="E43">
+        <v>3196.607171717176</v>
+      </c>
+      <c r="F43">
+        <v>56.53854589319729</v>
+      </c>
+      <c r="G43">
+        <v>201</v>
+      </c>
+      <c r="H43">
+        <v>54</v>
+      </c>
+      <c r="I43">
+        <v>255</v>
+      </c>
+      <c r="J43">
+        <v>149</v>
+      </c>
+      <c r="K43">
+        <v>194</v>
+      </c>
+      <c r="L43">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>19484</v>
+      </c>
+      <c r="B44">
+        <v>194.84</v>
+      </c>
+      <c r="C44">
+        <v>187.5</v>
+      </c>
+      <c r="D44">
+        <v>255</v>
+      </c>
+      <c r="E44">
+        <v>3305.347878787879</v>
+      </c>
+      <c r="F44">
+        <v>57.49215493254605</v>
+      </c>
+      <c r="G44">
+        <v>198</v>
+      </c>
+      <c r="H44">
+        <v>57</v>
+      </c>
+      <c r="I44">
+        <v>255</v>
+      </c>
+      <c r="J44">
+        <v>152.5</v>
+      </c>
+      <c r="K44">
+        <v>187.5</v>
+      </c>
+      <c r="L44">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>19370</v>
+      </c>
+      <c r="B45">
+        <v>193.7</v>
+      </c>
+      <c r="C45">
+        <v>185</v>
+      </c>
+      <c r="D45">
+        <v>255</v>
+      </c>
+      <c r="E45">
+        <v>3392.252525252526</v>
+      </c>
+      <c r="F45">
+        <v>58.24304701209</v>
+      </c>
+      <c r="G45">
+        <v>187</v>
+      </c>
+      <c r="H45">
+        <v>68</v>
+      </c>
+      <c r="I45">
+        <v>255</v>
+      </c>
+      <c r="J45">
+        <v>148.75</v>
+      </c>
+      <c r="K45">
+        <v>185</v>
+      </c>
+      <c r="L45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>19177</v>
+      </c>
+      <c r="B46">
+        <v>191.77</v>
+      </c>
+      <c r="C46">
+        <v>188</v>
+      </c>
+      <c r="D46">
+        <v>255</v>
+      </c>
+      <c r="E46">
+        <v>3536.865757575756</v>
+      </c>
+      <c r="F46">
+        <v>59.47155418833239</v>
+      </c>
+      <c r="G46">
+        <v>174</v>
+      </c>
+      <c r="H46">
+        <v>81</v>
+      </c>
+      <c r="I46">
+        <v>255</v>
+      </c>
+      <c r="J46">
+        <v>135</v>
+      </c>
+      <c r="K46">
+        <v>188</v>
+      </c>
+      <c r="L46">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>19018</v>
+      </c>
+      <c r="B47">
+        <v>190.18</v>
+      </c>
+      <c r="C47">
+        <v>190.5</v>
+      </c>
+      <c r="D47">
+        <v>255</v>
+      </c>
+      <c r="E47">
+        <v>3744.169292929293</v>
+      </c>
+      <c r="F47">
+        <v>61.18961752560064</v>
+      </c>
+      <c r="G47">
+        <v>175</v>
+      </c>
+      <c r="H47">
+        <v>80</v>
+      </c>
+      <c r="I47">
+        <v>255</v>
+      </c>
+      <c r="J47">
+        <v>129.75</v>
+      </c>
+      <c r="K47">
+        <v>190.5</v>
+      </c>
+      <c r="L47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>18969</v>
+      </c>
+      <c r="B48">
+        <v>189.69</v>
+      </c>
+      <c r="C48">
+        <v>194.5</v>
+      </c>
+      <c r="D48">
+        <v>255</v>
+      </c>
+      <c r="E48">
+        <v>3805.630202020206</v>
+      </c>
+      <c r="F48">
+        <v>61.68979009544615</v>
+      </c>
+      <c r="G48">
+        <v>179</v>
+      </c>
+      <c r="H48">
+        <v>76</v>
+      </c>
+      <c r="I48">
+        <v>255</v>
+      </c>
+      <c r="J48">
+        <v>129.75</v>
+      </c>
+      <c r="K48">
+        <v>194.5</v>
+      </c>
+      <c r="L48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>18767</v>
+      </c>
+      <c r="B49">
+        <v>187.67</v>
+      </c>
+      <c r="C49">
+        <v>185.5</v>
+      </c>
+      <c r="D49">
+        <v>255</v>
+      </c>
+      <c r="E49">
+        <v>3997.253636363641</v>
+      </c>
+      <c r="F49">
+        <v>63.22383756435259</v>
+      </c>
+      <c r="G49">
+        <v>179</v>
+      </c>
+      <c r="H49">
+        <v>76</v>
+      </c>
+      <c r="I49">
+        <v>255</v>
+      </c>
+      <c r="J49">
+        <v>125</v>
+      </c>
+      <c r="K49">
+        <v>185.5</v>
+      </c>
+      <c r="L49">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>18577</v>
+      </c>
+      <c r="B50">
+        <v>185.77</v>
+      </c>
+      <c r="C50">
+        <v>179.5</v>
+      </c>
+      <c r="D50">
+        <v>255</v>
+      </c>
+      <c r="E50">
+        <v>4141.734444444447</v>
+      </c>
+      <c r="F50">
+        <v>64.3563085054173</v>
+      </c>
+      <c r="G50">
+        <v>202</v>
+      </c>
+      <c r="H50">
+        <v>53</v>
+      </c>
+      <c r="I50">
+        <v>255</v>
+      </c>
+      <c r="J50">
+        <v>122</v>
+      </c>
+      <c r="K50">
+        <v>179.5</v>
+      </c>
+      <c r="L50">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>18472</v>
+      </c>
+      <c r="B51">
+        <v>184.72</v>
+      </c>
+      <c r="C51">
+        <v>179</v>
+      </c>
+      <c r="D51">
+        <v>255</v>
+      </c>
+      <c r="E51">
+        <v>4191.577373737376</v>
+      </c>
+      <c r="F51">
+        <v>64.74239240047726</v>
+      </c>
+      <c r="G51">
+        <v>196</v>
+      </c>
+      <c r="H51">
+        <v>59</v>
+      </c>
+      <c r="I51">
+        <v>255</v>
+      </c>
+      <c r="J51">
+        <v>120</v>
+      </c>
+      <c r="K51">
+        <v>179</v>
+      </c>
+      <c r="L51">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>18377</v>
+      </c>
+      <c r="B52">
+        <v>183.77</v>
+      </c>
+      <c r="C52">
+        <v>178</v>
+      </c>
+      <c r="D52">
+        <v>255</v>
+      </c>
+      <c r="E52">
+        <v>4236.784949494948</v>
+      </c>
+      <c r="F52">
+        <v>65.09059032990059</v>
+      </c>
+      <c r="G52">
+        <v>193</v>
+      </c>
+      <c r="H52">
+        <v>62</v>
+      </c>
+      <c r="I52">
+        <v>255</v>
+      </c>
+      <c r="J52">
+        <v>120</v>
+      </c>
+      <c r="K52">
+        <v>178</v>
+      </c>
+      <c r="L52">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>18323</v>
+      </c>
+      <c r="B53">
+        <v>183.23</v>
+      </c>
+      <c r="C53">
+        <v>168</v>
+      </c>
+      <c r="D53">
+        <v>255</v>
+      </c>
+      <c r="E53">
+        <v>4230.663737373742</v>
+      </c>
+      <c r="F53">
+        <v>65.04355261956209</v>
+      </c>
+      <c r="G53">
+        <v>194</v>
+      </c>
+      <c r="H53">
+        <v>61</v>
+      </c>
+      <c r="I53">
+        <v>255</v>
+      </c>
+      <c r="J53">
+        <v>120</v>
+      </c>
+      <c r="K53">
+        <v>168</v>
+      </c>
+      <c r="L53">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>18191</v>
+      </c>
+      <c r="B54">
+        <v>181.91</v>
+      </c>
+      <c r="C54">
+        <v>166</v>
+      </c>
+      <c r="D54">
+        <v>255</v>
+      </c>
+      <c r="E54">
+        <v>4326.062525252523</v>
+      </c>
+      <c r="F54">
+        <v>65.77280992364948</v>
+      </c>
+      <c r="G54">
+        <v>196</v>
+      </c>
+      <c r="H54">
+        <v>59</v>
+      </c>
+      <c r="I54">
+        <v>255</v>
+      </c>
+      <c r="J54">
+        <v>119</v>
+      </c>
+      <c r="K54">
+        <v>166</v>
+      </c>
+      <c r="L54">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>18046</v>
+      </c>
+      <c r="B55">
+        <v>180.46</v>
+      </c>
+      <c r="C55">
+        <v>159.5</v>
+      </c>
+      <c r="D55">
+        <v>255</v>
+      </c>
+      <c r="E55">
+        <v>4444.675151515149</v>
+      </c>
+      <c r="F55">
+        <v>66.66839694724293</v>
+      </c>
+      <c r="G55">
+        <v>196</v>
+      </c>
+      <c r="H55">
+        <v>59</v>
+      </c>
+      <c r="I55">
+        <v>255</v>
+      </c>
+      <c r="J55">
+        <v>118.5</v>
+      </c>
+      <c r="K55">
+        <v>159.5</v>
+      </c>
+      <c r="L55">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>17909</v>
+      </c>
+      <c r="B56">
+        <v>179.09</v>
+      </c>
+      <c r="C56">
+        <v>153</v>
+      </c>
+      <c r="D56">
+        <v>255</v>
+      </c>
+      <c r="E56">
+        <v>4529.274646464643</v>
+      </c>
+      <c r="F56">
+        <v>67.29988593203292</v>
+      </c>
+      <c r="G56">
+        <v>196</v>
+      </c>
+      <c r="H56">
+        <v>59</v>
+      </c>
+      <c r="I56">
+        <v>255</v>
+      </c>
+      <c r="J56">
+        <v>115.75</v>
+      </c>
+      <c r="K56">
+        <v>153</v>
+      </c>
+      <c r="L56">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>17930</v>
+      </c>
+      <c r="B57">
+        <v>179.3</v>
+      </c>
+      <c r="C57">
+        <v>153.5</v>
+      </c>
+      <c r="D57">
+        <v>255</v>
+      </c>
+      <c r="E57">
+        <v>4538.030303030301</v>
+      </c>
+      <c r="F57">
+        <v>67.36490408981743</v>
+      </c>
+      <c r="G57">
+        <v>194</v>
+      </c>
+      <c r="H57">
+        <v>61</v>
+      </c>
+      <c r="I57">
+        <v>255</v>
+      </c>
+      <c r="J57">
+        <v>117.5</v>
+      </c>
+      <c r="K57">
+        <v>153.5</v>
+      </c>
+      <c r="L57">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>17968</v>
+      </c>
+      <c r="B58">
+        <v>179.68</v>
+      </c>
+      <c r="C58">
+        <v>153.5</v>
+      </c>
+      <c r="D58">
+        <v>255</v>
+      </c>
+      <c r="E58">
+        <v>4510.906666666659</v>
+      </c>
+      <c r="F58">
+        <v>67.16328362034319</v>
+      </c>
+      <c r="G58">
+        <v>190</v>
+      </c>
+      <c r="H58">
+        <v>65</v>
+      </c>
+      <c r="I58">
+        <v>255</v>
+      </c>
+      <c r="J58">
+        <v>119</v>
+      </c>
+      <c r="K58">
+        <v>153.5</v>
+      </c>
+      <c r="L58">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>18043</v>
+      </c>
+      <c r="B59">
+        <v>180.43</v>
+      </c>
+      <c r="C59">
+        <v>151.5</v>
+      </c>
+      <c r="D59">
+        <v>255</v>
+      </c>
+      <c r="E59">
+        <v>4414.530404040401</v>
+      </c>
+      <c r="F59">
+        <v>66.44193257304005</v>
+      </c>
+      <c r="G59">
+        <v>179</v>
+      </c>
+      <c r="H59">
+        <v>76</v>
+      </c>
+      <c r="I59">
+        <v>255</v>
+      </c>
+      <c r="J59">
+        <v>120</v>
+      </c>
+      <c r="K59">
+        <v>151.5</v>
+      </c>
+      <c r="L59">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>18134</v>
+      </c>
+      <c r="B60">
+        <v>181.34</v>
+      </c>
+      <c r="C60">
+        <v>147</v>
+      </c>
+      <c r="D60">
+        <v>255</v>
+      </c>
+      <c r="E60">
+        <v>4258.226666666671</v>
+      </c>
+      <c r="F60">
+        <v>65.2550892012774</v>
+      </c>
+      <c r="G60">
+        <v>168</v>
+      </c>
+      <c r="H60">
+        <v>87</v>
+      </c>
+      <c r="I60">
+        <v>255</v>
+      </c>
+      <c r="J60">
+        <v>122.75</v>
+      </c>
+      <c r="K60">
+        <v>147</v>
+      </c>
+      <c r="L60">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>18225</v>
+      </c>
+      <c r="B61">
+        <v>182.25</v>
+      </c>
+      <c r="C61">
+        <v>146</v>
+      </c>
+      <c r="D61">
+        <v>255</v>
+      </c>
+      <c r="E61">
+        <v>4167.037878787879</v>
+      </c>
+      <c r="F61">
+        <v>64.55259776947693</v>
+      </c>
+      <c r="G61">
+        <v>173</v>
+      </c>
+      <c r="H61">
+        <v>82</v>
+      </c>
+      <c r="I61">
+        <v>255</v>
+      </c>
+      <c r="J61">
+        <v>124</v>
+      </c>
+      <c r="K61">
+        <v>146</v>
+      </c>
+      <c r="L61">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>18363</v>
+      </c>
+      <c r="B62">
+        <v>183.63</v>
+      </c>
+      <c r="C62">
+        <v>146</v>
+      </c>
+      <c r="D62">
+        <v>255</v>
+      </c>
+      <c r="E62">
+        <v>4036.073838383842</v>
+      </c>
+      <c r="F62">
+        <v>63.53010182884837</v>
+      </c>
+      <c r="G62">
+        <v>176</v>
+      </c>
+      <c r="H62">
+        <v>79</v>
+      </c>
+      <c r="I62">
+        <v>255</v>
+      </c>
+      <c r="J62">
+        <v>124.75</v>
+      </c>
+      <c r="K62">
+        <v>146</v>
+      </c>
+      <c r="L62">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>18507</v>
+      </c>
+      <c r="B63">
+        <v>185.07</v>
+      </c>
+      <c r="C63">
+        <v>148.5</v>
+      </c>
+      <c r="D63">
+        <v>255</v>
+      </c>
+      <c r="E63">
+        <v>3912.671818181821</v>
+      </c>
+      <c r="F63">
+        <v>62.55135344804156</v>
+      </c>
+      <c r="G63">
+        <v>170</v>
+      </c>
+      <c r="H63">
+        <v>85</v>
+      </c>
+      <c r="I63">
+        <v>255</v>
+      </c>
+      <c r="J63">
+        <v>126.75</v>
+      </c>
+      <c r="K63">
+        <v>148.5</v>
+      </c>
+      <c r="L63">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>18665</v>
+      </c>
+      <c r="B64">
+        <v>186.65</v>
+      </c>
+      <c r="C64">
+        <v>150</v>
+      </c>
+      <c r="D64">
+        <v>255</v>
+      </c>
+      <c r="E64">
+        <v>3832.068181818175</v>
+      </c>
+      <c r="F64">
+        <v>61.90370087335793</v>
+      </c>
+      <c r="G64">
+        <v>170</v>
+      </c>
+      <c r="H64">
+        <v>85</v>
+      </c>
+      <c r="I64">
+        <v>255</v>
+      </c>
+      <c r="J64">
+        <v>129.75</v>
+      </c>
+      <c r="K64">
+        <v>150</v>
+      </c>
+      <c r="L64">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>18965</v>
+      </c>
+      <c r="B65">
+        <v>189.65</v>
+      </c>
+      <c r="C65">
+        <v>156</v>
+      </c>
+      <c r="D65">
+        <v>255</v>
+      </c>
+      <c r="E65">
+        <v>3568.95707070707</v>
+      </c>
+      <c r="F65">
+        <v>59.74074882948045</v>
+      </c>
+      <c r="G65">
+        <v>149</v>
+      </c>
+      <c r="H65">
+        <v>106</v>
+      </c>
+      <c r="I65">
+        <v>255</v>
+      </c>
+      <c r="J65">
+        <v>135.5</v>
+      </c>
+      <c r="K65">
+        <v>156</v>
+      </c>
+      <c r="L65">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>19273</v>
+      </c>
+      <c r="B66">
+        <v>192.73</v>
+      </c>
+      <c r="C66">
+        <v>162.5</v>
+      </c>
+      <c r="D66">
+        <v>255</v>
+      </c>
+      <c r="E66">
+        <v>3341.734444444448</v>
+      </c>
+      <c r="F66">
+        <v>57.80773689087343</v>
+      </c>
+      <c r="G66">
+        <v>137</v>
+      </c>
+      <c r="H66">
+        <v>118</v>
+      </c>
+      <c r="I66">
+        <v>255</v>
+      </c>
+      <c r="J66">
+        <v>138.75</v>
+      </c>
+      <c r="K66">
+        <v>162.5</v>
+      </c>
+      <c r="L66">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>19559</v>
+      </c>
+      <c r="B67">
+        <v>195.59</v>
+      </c>
+      <c r="C67">
+        <v>165.5</v>
+      </c>
+      <c r="D67">
+        <v>255</v>
+      </c>
+      <c r="E67">
+        <v>3107.214040404041</v>
+      </c>
+      <c r="F67">
+        <v>55.74238997750312</v>
+      </c>
+      <c r="G67">
+        <v>133</v>
+      </c>
+      <c r="H67">
+        <v>122</v>
+      </c>
+      <c r="I67">
+        <v>255</v>
+      </c>
+      <c r="J67">
+        <v>144.75</v>
+      </c>
+      <c r="K67">
+        <v>165.5</v>
+      </c>
+      <c r="L67">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>19777</v>
+      </c>
+      <c r="B68">
+        <v>197.77</v>
+      </c>
+      <c r="C68">
+        <v>172.5</v>
+      </c>
+      <c r="D68">
+        <v>255</v>
+      </c>
+      <c r="E68">
+        <v>2960.48191919192</v>
+      </c>
+      <c r="F68">
+        <v>54.41031078014461</v>
+      </c>
+      <c r="G68">
+        <v>127</v>
+      </c>
+      <c r="H68">
+        <v>128</v>
+      </c>
+      <c r="I68">
+        <v>255</v>
+      </c>
+      <c r="J68">
+        <v>144</v>
+      </c>
+      <c r="K68">
+        <v>172.5</v>
+      </c>
+      <c r="L68">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>20003</v>
+      </c>
+      <c r="B69">
+        <v>200.03</v>
+      </c>
+      <c r="C69">
+        <v>178</v>
+      </c>
+      <c r="D69">
+        <v>255</v>
+      </c>
+      <c r="E69">
+        <v>2803.988989898989</v>
+      </c>
+      <c r="F69">
+        <v>52.95270521794887</v>
+      </c>
+      <c r="G69">
+        <v>126</v>
+      </c>
+      <c r="H69">
+        <v>129</v>
+      </c>
+      <c r="I69">
+        <v>255</v>
+      </c>
+      <c r="J69">
+        <v>149</v>
+      </c>
+      <c r="K69">
+        <v>178</v>
+      </c>
+      <c r="L69">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>20183</v>
+      </c>
+      <c r="B70">
+        <v>201.83</v>
+      </c>
+      <c r="C70">
+        <v>186</v>
+      </c>
+      <c r="D70">
+        <v>255</v>
+      </c>
+      <c r="E70">
+        <v>2699.132424242423</v>
+      </c>
+      <c r="F70">
+        <v>51.95317530471475</v>
+      </c>
+      <c r="G70">
+        <v>127</v>
+      </c>
+      <c r="H70">
+        <v>128</v>
+      </c>
+      <c r="I70">
+        <v>255</v>
+      </c>
+      <c r="J70">
+        <v>148</v>
+      </c>
+      <c r="K70">
+        <v>186</v>
+      </c>
+      <c r="L70">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>20350</v>
+      </c>
+      <c r="B71">
+        <v>203.5</v>
+      </c>
+      <c r="C71">
+        <v>196</v>
+      </c>
+      <c r="D71">
+        <v>255</v>
+      </c>
+      <c r="E71">
+        <v>2586.414141414141</v>
+      </c>
+      <c r="F71">
+        <v>50.85680034581551</v>
+      </c>
+      <c r="G71">
+        <v>123</v>
+      </c>
+      <c r="H71">
+        <v>132</v>
+      </c>
+      <c r="I71">
+        <v>255</v>
+      </c>
+      <c r="J71">
+        <v>151</v>
+      </c>
+      <c r="K71">
+        <v>196</v>
+      </c>
+      <c r="L71">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>20498</v>
+      </c>
+      <c r="B72">
+        <v>204.98</v>
+      </c>
+      <c r="C72">
+        <v>206.5</v>
+      </c>
+      <c r="D72">
+        <v>255</v>
+      </c>
+      <c r="E72">
+        <v>2496.120808080806</v>
+      </c>
+      <c r="F72">
+        <v>49.96119302099186</v>
+      </c>
+      <c r="G72">
+        <v>117</v>
+      </c>
+      <c r="H72">
+        <v>138</v>
+      </c>
+      <c r="I72">
+        <v>255</v>
+      </c>
+      <c r="J72">
+        <v>153</v>
+      </c>
+      <c r="K72">
+        <v>206.5</v>
+      </c>
+      <c r="L72">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>20725</v>
+      </c>
+      <c r="B73">
+        <v>207.25</v>
+      </c>
+      <c r="C73">
+        <v>220</v>
+      </c>
+      <c r="D73">
+        <v>255</v>
+      </c>
+      <c r="E73">
+        <v>2328.815656565656</v>
+      </c>
+      <c r="F73">
+        <v>48.25780410012101</v>
+      </c>
+      <c r="G73">
+        <v>112</v>
+      </c>
+      <c r="H73">
+        <v>143</v>
+      </c>
+      <c r="I73">
+        <v>255</v>
+      </c>
+      <c r="J73">
+        <v>156</v>
+      </c>
+      <c r="K73">
+        <v>220</v>
+      </c>
+      <c r="L73">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>20852</v>
+      </c>
+      <c r="B74">
+        <v>208.52</v>
+      </c>
+      <c r="C74">
+        <v>226</v>
+      </c>
+      <c r="D74">
+        <v>255</v>
+      </c>
+      <c r="E74">
+        <v>2260.110707070708</v>
+      </c>
+      <c r="F74">
+        <v>47.54062165212723</v>
+      </c>
+      <c r="G74">
+        <v>111</v>
+      </c>
+      <c r="H74">
+        <v>144</v>
+      </c>
+      <c r="I74">
+        <v>255</v>
+      </c>
+      <c r="J74">
+        <v>156</v>
+      </c>
+      <c r="K74">
+        <v>226</v>
+      </c>
+      <c r="L74">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>21063</v>
+      </c>
+      <c r="B75">
+        <v>210.63</v>
+      </c>
+      <c r="C75">
+        <v>238.5</v>
+      </c>
+      <c r="D75">
+        <v>255</v>
+      </c>
+      <c r="E75">
+        <v>2126.720303030305</v>
+      </c>
+      <c r="F75">
+        <v>46.11637781775912</v>
+      </c>
+      <c r="G75">
+        <v>115</v>
+      </c>
+      <c r="H75">
+        <v>140</v>
+      </c>
+      <c r="I75">
+        <v>255</v>
+      </c>
+      <c r="J75">
+        <v>163</v>
+      </c>
+      <c r="K75">
+        <v>238.5</v>
+      </c>
+      <c r="L75">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>21216</v>
+      </c>
+      <c r="B76">
+        <v>212.16</v>
+      </c>
+      <c r="C76">
+        <v>250</v>
+      </c>
+      <c r="D76">
+        <v>255</v>
+      </c>
+      <c r="E76">
+        <v>2060.943838383841</v>
+      </c>
+      <c r="F76">
+        <v>45.397619303041</v>
+      </c>
+      <c r="G76">
+        <v>114</v>
+      </c>
+      <c r="H76">
+        <v>141</v>
+      </c>
+      <c r="I76">
+        <v>255</v>
+      </c>
+      <c r="J76">
+        <v>165</v>
+      </c>
+      <c r="K76">
+        <v>250</v>
+      </c>
+      <c r="L76">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>21243</v>
+      </c>
+      <c r="B77">
+        <v>212.43</v>
+      </c>
+      <c r="C77">
+        <v>251.5</v>
+      </c>
+      <c r="D77">
+        <v>255</v>
+      </c>
+      <c r="E77">
+        <v>2046.95464646465</v>
+      </c>
+      <c r="F77">
+        <v>45.24328288779065</v>
+      </c>
+      <c r="G77">
+        <v>115</v>
+      </c>
+      <c r="H77">
+        <v>140</v>
+      </c>
+      <c r="I77">
+        <v>255</v>
+      </c>
+      <c r="J77">
+        <v>166.75</v>
+      </c>
+      <c r="K77">
+        <v>251.5</v>
+      </c>
+      <c r="L77">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>21333</v>
+      </c>
+      <c r="B78">
+        <v>213.33</v>
+      </c>
+      <c r="C78">
+        <v>251</v>
+      </c>
+      <c r="D78">
+        <v>255</v>
+      </c>
+      <c r="E78">
+        <v>2040.445555555553</v>
+      </c>
+      <c r="F78">
+        <v>45.1712912761585</v>
+      </c>
+      <c r="G78">
+        <v>117</v>
+      </c>
+      <c r="H78">
+        <v>138</v>
+      </c>
+      <c r="I78">
+        <v>255</v>
+      </c>
+      <c r="J78">
+        <v>167.75</v>
+      </c>
+      <c r="K78">
+        <v>251</v>
+      </c>
+      <c r="L78">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>21439</v>
+      </c>
+      <c r="B79">
+        <v>214.39</v>
+      </c>
+      <c r="C79">
+        <v>251</v>
+      </c>
+      <c r="D79">
+        <v>255</v>
+      </c>
+      <c r="E79">
+        <v>2071.553434343433</v>
+      </c>
+      <c r="F79">
+        <v>45.51432120051263</v>
+      </c>
+      <c r="G79">
+        <v>120</v>
+      </c>
+      <c r="H79">
+        <v>135</v>
+      </c>
+      <c r="I79">
+        <v>255</v>
+      </c>
+      <c r="J79">
+        <v>168.75</v>
+      </c>
+      <c r="K79">
+        <v>251</v>
+      </c>
+      <c r="L79">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>21537</v>
+      </c>
+      <c r="B80">
+        <v>215.37</v>
+      </c>
+      <c r="C80">
+        <v>254</v>
+      </c>
+      <c r="D80">
+        <v>255</v>
+      </c>
+      <c r="E80">
+        <v>2021.245555555558</v>
+      </c>
+      <c r="F80">
+        <v>44.95826459679642</v>
+      </c>
+      <c r="G80">
+        <v>122</v>
+      </c>
+      <c r="H80">
+        <v>133</v>
+      </c>
+      <c r="I80">
+        <v>255</v>
+      </c>
+      <c r="J80">
+        <v>172.75</v>
+      </c>
+      <c r="K80">
+        <v>254</v>
+      </c>
+      <c r="L80">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>21706</v>
+      </c>
+      <c r="B81">
+        <v>217.06</v>
+      </c>
+      <c r="C81">
+        <v>253</v>
+      </c>
+      <c r="D81">
+        <v>255</v>
+      </c>
+      <c r="E81">
+        <v>1963.47111111111</v>
+      </c>
+      <c r="F81">
+        <v>44.31107210518733</v>
+      </c>
+      <c r="G81">
+        <v>121</v>
+      </c>
+      <c r="H81">
+        <v>134</v>
+      </c>
+      <c r="I81">
+        <v>255</v>
+      </c>
+      <c r="J81">
+        <v>174.5</v>
+      </c>
+      <c r="K81">
+        <v>253</v>
+      </c>
+      <c r="L81">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>21733</v>
+      </c>
+      <c r="B82">
+        <v>217.33</v>
+      </c>
+      <c r="C82">
+        <v>253</v>
+      </c>
+      <c r="D82">
+        <v>255</v>
+      </c>
+      <c r="E82">
+        <v>2001.17282828283</v>
+      </c>
+      <c r="F82">
+        <v>44.73447024703467</v>
+      </c>
+      <c r="G82">
+        <v>126</v>
+      </c>
+      <c r="H82">
+        <v>129</v>
+      </c>
+      <c r="I82">
+        <v>255</v>
+      </c>
+      <c r="J82">
+        <v>178</v>
+      </c>
+      <c r="K82">
+        <v>253</v>
+      </c>
+      <c r="L82">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>21794</v>
+      </c>
+      <c r="B83">
+        <v>217.94</v>
+      </c>
+      <c r="C83">
+        <v>253</v>
+      </c>
+      <c r="D83">
+        <v>255</v>
+      </c>
+      <c r="E83">
+        <v>2025.087272727272</v>
+      </c>
+      <c r="F83">
+        <v>45.000969686522</v>
+      </c>
+      <c r="G83">
+        <v>145</v>
+      </c>
+      <c r="H83">
+        <v>110</v>
+      </c>
+      <c r="I83">
+        <v>255</v>
+      </c>
+      <c r="J83">
+        <v>176.75</v>
+      </c>
+      <c r="K83">
+        <v>253</v>
+      </c>
+      <c r="L83">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>21736</v>
+      </c>
+      <c r="B84">
+        <v>217.36</v>
+      </c>
+      <c r="C84">
+        <v>252</v>
+      </c>
+      <c r="D84">
+        <v>255</v>
+      </c>
+      <c r="E84">
+        <v>2091.06101010101</v>
+      </c>
+      <c r="F84">
+        <v>45.72812056165233</v>
+      </c>
+      <c r="G84">
+        <v>140</v>
+      </c>
+      <c r="H84">
+        <v>115</v>
+      </c>
+      <c r="I84">
+        <v>255</v>
+      </c>
+      <c r="J84">
+        <v>178.75</v>
+      </c>
+      <c r="K84">
+        <v>252</v>
+      </c>
+      <c r="L84">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>21704</v>
+      </c>
+      <c r="B85">
+        <v>217.04</v>
+      </c>
+      <c r="C85">
+        <v>250.5</v>
+      </c>
+      <c r="D85">
+        <v>255</v>
+      </c>
+      <c r="E85">
+        <v>2153.392323232326</v>
+      </c>
+      <c r="F85">
+        <v>46.40465842167493</v>
+      </c>
+      <c r="G85">
+        <v>157</v>
+      </c>
+      <c r="H85">
+        <v>98</v>
+      </c>
+      <c r="I85">
+        <v>255</v>
+      </c>
+      <c r="J85">
+        <v>179</v>
+      </c>
+      <c r="K85">
+        <v>250.5</v>
+      </c>
+      <c r="L85">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>21733</v>
+      </c>
+      <c r="B86">
+        <v>217.33</v>
+      </c>
+      <c r="C86">
+        <v>248.5</v>
+      </c>
+      <c r="D86">
+        <v>255</v>
+      </c>
+      <c r="E86">
+        <v>2209.435454545457</v>
+      </c>
+      <c r="F86">
+        <v>47.00463226688894</v>
+      </c>
+      <c r="G86">
+        <v>163</v>
+      </c>
+      <c r="H86">
+        <v>92</v>
+      </c>
+      <c r="I86">
+        <v>255</v>
+      </c>
+      <c r="J86">
+        <v>181.25</v>
+      </c>
+      <c r="K86">
+        <v>248.5</v>
+      </c>
+      <c r="L86">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>21600</v>
+      </c>
+      <c r="B87">
+        <v>216</v>
+      </c>
+      <c r="C87">
+        <v>247.5</v>
+      </c>
+      <c r="D87">
+        <v>255</v>
+      </c>
+      <c r="E87">
+        <v>2338.484848484848</v>
+      </c>
+      <c r="F87">
+        <v>48.35788300251416</v>
+      </c>
+      <c r="G87">
+        <v>164</v>
+      </c>
+      <c r="H87">
+        <v>91</v>
+      </c>
+      <c r="I87">
+        <v>255</v>
+      </c>
+      <c r="J87">
+        <v>175.75</v>
+      </c>
+      <c r="K87">
+        <v>247.5</v>
+      </c>
+      <c r="L87">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>21421</v>
+      </c>
+      <c r="B88">
+        <v>214.21</v>
+      </c>
+      <c r="C88">
+        <v>245.5</v>
+      </c>
+      <c r="D88">
+        <v>255</v>
+      </c>
+      <c r="E88">
+        <v>2584.854444444445</v>
+      </c>
+      <c r="F88">
+        <v>50.84146383066133</v>
+      </c>
+      <c r="G88">
+        <v>162</v>
+      </c>
+      <c r="H88">
+        <v>93</v>
+      </c>
+      <c r="I88">
+        <v>255</v>
+      </c>
+      <c r="J88">
+        <v>170.75</v>
+      </c>
+      <c r="K88">
+        <v>245.5</v>
+      </c>
+      <c r="L88">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>21210</v>
+      </c>
+      <c r="B89">
+        <v>212.1</v>
+      </c>
+      <c r="C89">
+        <v>245</v>
+      </c>
+      <c r="D89">
+        <v>255</v>
+      </c>
+      <c r="E89">
+        <v>2899.303030303026</v>
+      </c>
+      <c r="F89">
+        <v>53.84517648130635</v>
+      </c>
+      <c r="G89">
+        <v>171</v>
+      </c>
+      <c r="H89">
+        <v>84</v>
+      </c>
+      <c r="I89">
+        <v>255</v>
+      </c>
+      <c r="J89">
+        <v>169.75</v>
+      </c>
+      <c r="K89">
+        <v>245</v>
+      </c>
+      <c r="L89">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>20927</v>
+      </c>
+      <c r="B90">
+        <v>209.27</v>
+      </c>
+      <c r="C90">
+        <v>244.5</v>
+      </c>
+      <c r="D90">
+        <v>255</v>
+      </c>
+      <c r="E90">
+        <v>3225.613232323234</v>
+      </c>
+      <c r="F90">
+        <v>56.7944824109106</v>
+      </c>
+      <c r="G90">
+        <v>179</v>
+      </c>
+      <c r="H90">
+        <v>76</v>
+      </c>
+      <c r="I90">
+        <v>255</v>
+      </c>
+      <c r="J90">
+        <v>173</v>
+      </c>
+      <c r="K90">
+        <v>244.5</v>
+      </c>
+      <c r="L90">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>20535</v>
+      </c>
+      <c r="B91">
+        <v>205.35</v>
+      </c>
+      <c r="C91">
+        <v>246</v>
+      </c>
+      <c r="D91">
+        <v>255</v>
+      </c>
+      <c r="E91">
+        <v>3667.744949494949</v>
+      </c>
+      <c r="F91">
+        <v>60.56191005487648</v>
+      </c>
+      <c r="G91">
+        <v>182</v>
+      </c>
+      <c r="H91">
+        <v>73</v>
+      </c>
+      <c r="I91">
+        <v>255</v>
+      </c>
+      <c r="J91">
+        <v>166.75</v>
+      </c>
+      <c r="K91">
+        <v>246</v>
+      </c>
+      <c r="L91">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>20246</v>
+      </c>
+      <c r="B92">
+        <v>202.46</v>
+      </c>
+      <c r="C92">
+        <v>248.5</v>
+      </c>
+      <c r="D92">
+        <v>255</v>
+      </c>
+      <c r="E92">
+        <v>4076.412525252516</v>
+      </c>
+      <c r="F92">
+        <v>63.84678946707122</v>
+      </c>
+      <c r="G92">
+        <v>184</v>
+      </c>
+      <c r="H92">
+        <v>71</v>
+      </c>
+      <c r="I92">
+        <v>255</v>
+      </c>
+      <c r="J92">
+        <v>163.75</v>
+      </c>
+      <c r="K92">
+        <v>248.5</v>
+      </c>
+      <c r="L92">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>20039</v>
+      </c>
+      <c r="B93">
+        <v>200.39</v>
+      </c>
+      <c r="C93">
+        <v>251</v>
+      </c>
+      <c r="D93">
+        <v>255</v>
+      </c>
+      <c r="E93">
+        <v>4415.209999999995</v>
+      </c>
+      <c r="F93">
+        <v>66.44704658598451</v>
+      </c>
+      <c r="G93">
+        <v>182</v>
+      </c>
+      <c r="H93">
+        <v>73</v>
+      </c>
+      <c r="I93">
+        <v>255</v>
+      </c>
+      <c r="J93">
+        <v>150.75</v>
+      </c>
+      <c r="K93">
+        <v>251</v>
+      </c>
+      <c r="L93">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>19934</v>
+      </c>
+      <c r="B94">
+        <v>199.34</v>
+      </c>
+      <c r="C94">
+        <v>252</v>
+      </c>
+      <c r="D94">
+        <v>255</v>
+      </c>
+      <c r="E94">
+        <v>4686.24686868687</v>
+      </c>
+      <c r="F94">
+        <v>68.45616749926094</v>
+      </c>
+      <c r="G94">
+        <v>182</v>
+      </c>
+      <c r="H94">
+        <v>73</v>
+      </c>
+      <c r="I94">
+        <v>255</v>
+      </c>
+      <c r="J94">
+        <v>132.75</v>
+      </c>
+      <c r="K94">
+        <v>252</v>
+      </c>
+      <c r="L94">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>19878</v>
+      </c>
+      <c r="B95">
+        <v>198.78</v>
+      </c>
+      <c r="C95">
+        <v>253</v>
+      </c>
+      <c r="D95">
+        <v>255</v>
+      </c>
+      <c r="E95">
+        <v>5047.648080808076</v>
+      </c>
+      <c r="F95">
+        <v>71.04680204490612</v>
+      </c>
+      <c r="G95">
+        <v>181</v>
+      </c>
+      <c r="H95">
+        <v>74</v>
+      </c>
+      <c r="I95">
+        <v>255</v>
+      </c>
+      <c r="J95">
+        <v>116.75</v>
+      </c>
+      <c r="K95">
+        <v>253</v>
+      </c>
+      <c r="L95">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>20284</v>
+      </c>
+      <c r="B96">
+        <v>202.84</v>
+      </c>
+      <c r="C96">
+        <v>253.5</v>
+      </c>
+      <c r="D96">
+        <v>255</v>
+      </c>
+      <c r="E96">
+        <v>4900.560000000004</v>
+      </c>
+      <c r="F96">
+        <v>70.00399988572084</v>
+      </c>
+      <c r="G96">
+        <v>179</v>
+      </c>
+      <c r="H96">
+        <v>76</v>
+      </c>
+      <c r="I96">
+        <v>255</v>
+      </c>
+      <c r="J96">
+        <v>117.5</v>
+      </c>
+      <c r="K96">
+        <v>253.5</v>
+      </c>
+      <c r="L96">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>21027</v>
+      </c>
+      <c r="B97">
+        <v>210.27</v>
+      </c>
+      <c r="C97">
+        <v>254</v>
+      </c>
+      <c r="D97">
+        <v>255</v>
+      </c>
+      <c r="E97">
+        <v>4211.956666666663</v>
+      </c>
+      <c r="F97">
+        <v>64.89958911015279</v>
+      </c>
+      <c r="G97">
+        <v>171</v>
+      </c>
+      <c r="H97">
+        <v>84</v>
+      </c>
+      <c r="I97">
+        <v>255</v>
+      </c>
+      <c r="J97">
+        <v>156</v>
+      </c>
+      <c r="K97">
+        <v>254</v>
+      </c>
+      <c r="L97">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>21923</v>
+      </c>
+      <c r="B98">
+        <v>219.23</v>
+      </c>
+      <c r="C98">
+        <v>254</v>
+      </c>
+      <c r="D98">
+        <v>255</v>
+      </c>
+      <c r="E98">
+        <v>3187.188989898993</v>
+      </c>
+      <c r="F98">
+        <v>56.45519453424099</v>
+      </c>
+      <c r="G98">
+        <v>163</v>
+      </c>
+      <c r="H98">
+        <v>92</v>
+      </c>
+      <c r="I98">
+        <v>255</v>
+      </c>
+      <c r="J98">
+        <v>193</v>
+      </c>
+      <c r="K98">
+        <v>254</v>
+      </c>
+      <c r="L98">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>23316</v>
+      </c>
+      <c r="B99">
+        <v>233.16</v>
+      </c>
+      <c r="C99">
+        <v>255</v>
+      </c>
+      <c r="D99">
+        <v>255</v>
+      </c>
+      <c r="E99">
+        <v>1401.73171717172</v>
+      </c>
+      <c r="F99">
+        <v>37.43970776023392</v>
+      </c>
+      <c r="G99">
+        <v>128</v>
+      </c>
+      <c r="H99">
+        <v>127</v>
+      </c>
+      <c r="I99">
+        <v>255</v>
+      </c>
+      <c r="J99">
+        <v>229</v>
+      </c>
+      <c r="K99">
+        <v>255</v>
+      </c>
+      <c r="L99">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>24434</v>
+      </c>
+      <c r="B100">
+        <v>244.34</v>
+      </c>
+      <c r="C100">
+        <v>255</v>
+      </c>
+      <c r="D100">
+        <v>255</v>
+      </c>
+      <c r="E100">
+        <v>346.7317171717178</v>
+      </c>
+      <c r="F100">
+        <v>18.62073352936768</v>
+      </c>
+      <c r="G100">
+        <v>59</v>
+      </c>
+      <c r="H100">
+        <v>196</v>
+      </c>
+      <c r="I100">
+        <v>255</v>
+      </c>
+      <c r="J100">
+        <v>242.75</v>
+      </c>
+      <c r="K100">
+        <v>255</v>
+      </c>
+      <c r="L100">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>25025</v>
+      </c>
+      <c r="B101">
+        <v>250.25</v>
+      </c>
+      <c r="C101">
+        <v>255</v>
+      </c>
+      <c r="D101">
+        <v>255</v>
+      </c>
+      <c r="E101">
+        <v>82.75505050505051</v>
+      </c>
+      <c r="F101">
+        <v>9.096980295958133</v>
+      </c>
+      <c r="G101">
+        <v>34</v>
+      </c>
+      <c r="H101">
         <v>221</v>
       </c>
-      <c r="C5">
-        <v>239</v>
-      </c>
-      <c r="D5">
-        <v>255</v>
-      </c>
-      <c r="E5">
-        <v>2405.333333333333</v>
-      </c>
-      <c r="F5">
-        <v>49.04419775399872</v>
-      </c>
-      <c r="G5">
-        <v>104</v>
-      </c>
-      <c r="H5">
-        <v>151</v>
-      </c>
-      <c r="I5">
-        <v>255</v>
-      </c>
-      <c r="J5">
-        <v>205</v>
-      </c>
-      <c r="K5">
-        <v>239</v>
-      </c>
-      <c r="L5">
+      <c r="I101">
+        <v>255</v>
+      </c>
+      <c r="J101">
+        <v>250</v>
+      </c>
+      <c r="K101">
+        <v>255</v>
+      </c>
+      <c r="L101">
         <v>255</v>
       </c>
     </row>

--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga4_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga4_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>25416</v>
+        <v>50829</v>
       </c>
       <c r="B2">
-        <v>254.16</v>
+        <v>254.145</v>
       </c>
       <c r="C2">
         <v>255</v>
@@ -465,16 +465,16 @@
         <v>255</v>
       </c>
       <c r="E2">
-        <v>3.73171717171717</v>
+        <v>4.43615577889445</v>
       </c>
       <c r="F2">
-        <v>1.931765299335603</v>
+        <v>2.106218359737292</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I2">
         <v>255</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>25288</v>
+        <v>50805</v>
       </c>
       <c r="B3">
-        <v>252.88</v>
+        <v>254.025</v>
       </c>
       <c r="C3">
         <v>255</v>
@@ -503,22 +503,22 @@
         <v>255</v>
       </c>
       <c r="E3">
-        <v>37.19757575757576</v>
+        <v>4.73806532663315</v>
       </c>
       <c r="F3">
-        <v>6.098981534451122</v>
+        <v>2.176709747906953</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="I3">
         <v>255</v>
       </c>
       <c r="J3">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K3">
         <v>255</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>24535</v>
+        <v>50691</v>
       </c>
       <c r="B4">
-        <v>245.35</v>
+        <v>253.455</v>
       </c>
       <c r="C4">
         <v>255</v>
@@ -541,16 +541,16 @@
         <v>255</v>
       </c>
       <c r="E4">
-        <v>866.1893939393931</v>
+        <v>14.14871859296483</v>
       </c>
       <c r="F4">
-        <v>29.43109569722801</v>
+        <v>3.761478245712027</v>
       </c>
       <c r="G4">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H4">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="I4">
         <v>255</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>23592</v>
+        <v>50394</v>
       </c>
       <c r="B5">
-        <v>235.92</v>
+        <v>251.97</v>
       </c>
       <c r="C5">
         <v>255</v>
@@ -579,22 +579,22 @@
         <v>255</v>
       </c>
       <c r="E5">
-        <v>2081.205656565654</v>
+        <v>93.5970854271355</v>
       </c>
       <c r="F5">
-        <v>45.62023297360125</v>
+        <v>9.674558668339115</v>
       </c>
       <c r="G5">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="H5">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="I5">
         <v>255</v>
       </c>
       <c r="J5">
-        <v>252.75</v>
+        <v>255</v>
       </c>
       <c r="K5">
         <v>255</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>22694</v>
+        <v>49564</v>
       </c>
       <c r="B6">
-        <v>226.94</v>
+        <v>247.82</v>
       </c>
       <c r="C6">
         <v>255</v>
@@ -617,22 +617,22 @@
         <v>255</v>
       </c>
       <c r="E6">
-        <v>3225.774141414137</v>
+        <v>583.3644221105527</v>
       </c>
       <c r="F6">
-        <v>56.795898984118</v>
+        <v>24.1529381672407</v>
       </c>
       <c r="G6">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="H6">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="I6">
         <v>255</v>
       </c>
       <c r="J6">
-        <v>251</v>
+        <v>254.75</v>
       </c>
       <c r="K6">
         <v>255</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>22044</v>
+        <v>48485</v>
       </c>
       <c r="B7">
-        <v>220.44</v>
+        <v>242.425</v>
       </c>
       <c r="C7">
         <v>255</v>
@@ -655,22 +655,22 @@
         <v>255</v>
       </c>
       <c r="E7">
-        <v>4125.92565656566</v>
+        <v>1199.773241206028</v>
       </c>
       <c r="F7">
-        <v>64.23336871568904</v>
+        <v>34.63774301547414</v>
       </c>
       <c r="G7">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="I7">
         <v>255</v>
       </c>
       <c r="J7">
-        <v>243.75</v>
+        <v>254</v>
       </c>
       <c r="K7">
         <v>255</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>21732</v>
+        <v>47526</v>
       </c>
       <c r="B8">
-        <v>217.32</v>
+        <v>237.63</v>
       </c>
       <c r="C8">
         <v>255</v>
@@ -693,22 +693,22 @@
         <v>255</v>
       </c>
       <c r="E8">
-        <v>4581.027878787886</v>
+        <v>1875.148844221106</v>
       </c>
       <c r="F8">
-        <v>67.68329098668212</v>
+        <v>43.3029888601365</v>
       </c>
       <c r="G8">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="H8">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="I8">
         <v>255</v>
       </c>
       <c r="J8">
-        <v>233.5</v>
+        <v>252.75</v>
       </c>
       <c r="K8">
         <v>255</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>21405</v>
+        <v>46810</v>
       </c>
       <c r="B9">
-        <v>214.05</v>
+        <v>234.05</v>
       </c>
       <c r="C9">
         <v>255</v>
@@ -731,22 +731,22 @@
         <v>255</v>
       </c>
       <c r="E9">
-        <v>5000.613636363643</v>
+        <v>2313.806532663325</v>
       </c>
       <c r="F9">
-        <v>70.71501704987169</v>
+        <v>48.1020429156946</v>
       </c>
       <c r="G9">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I9">
         <v>255</v>
       </c>
       <c r="J9">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="K9">
         <v>255</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>21195</v>
+        <v>45813</v>
       </c>
       <c r="B10">
-        <v>211.95</v>
+        <v>229.065</v>
       </c>
       <c r="C10">
         <v>255</v>
@@ -769,22 +769,22 @@
         <v>255</v>
       </c>
       <c r="E10">
-        <v>5102.815656565655</v>
+        <v>2911.759572864332</v>
       </c>
       <c r="F10">
-        <v>71.43399510433149</v>
+        <v>53.96072250131879</v>
       </c>
       <c r="G10">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H10">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>255</v>
       </c>
       <c r="J10">
-        <v>156.75</v>
+        <v>252</v>
       </c>
       <c r="K10">
         <v>255</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>20894</v>
+        <v>45035</v>
       </c>
       <c r="B11">
-        <v>208.94</v>
+        <v>225.175</v>
       </c>
       <c r="C11">
         <v>255</v>
@@ -807,22 +807,22 @@
         <v>255</v>
       </c>
       <c r="E11">
-        <v>5410.743838383839</v>
+        <v>3467.441582914573</v>
       </c>
       <c r="F11">
-        <v>73.55775851930127</v>
+        <v>58.88498605684282</v>
       </c>
       <c r="G11">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I11">
         <v>255</v>
       </c>
       <c r="J11">
-        <v>110.25</v>
+        <v>248.75</v>
       </c>
       <c r="K11">
         <v>255</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>20649</v>
+        <v>44390</v>
       </c>
       <c r="B12">
-        <v>206.49</v>
+        <v>221.95</v>
       </c>
       <c r="C12">
         <v>255</v>
@@ -845,22 +845,22 @@
         <v>255</v>
       </c>
       <c r="E12">
-        <v>5629.525151515158</v>
+        <v>3959.183417085425</v>
       </c>
       <c r="F12">
-        <v>75.03016161194881</v>
+        <v>62.92204237852921</v>
       </c>
       <c r="G12">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H12">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I12">
         <v>255</v>
       </c>
       <c r="J12">
-        <v>102.5</v>
+        <v>246.75</v>
       </c>
       <c r="K12">
         <v>255</v>
@@ -871,37 +871,37 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>20835</v>
+        <v>43808</v>
       </c>
       <c r="B13">
-        <v>208.35</v>
+        <v>219.04</v>
       </c>
       <c r="C13">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D13">
         <v>255</v>
       </c>
       <c r="E13">
-        <v>4824.573232323227</v>
+        <v>4413.07376884421</v>
       </c>
       <c r="F13">
-        <v>69.45914793836178</v>
+        <v>66.43096995260727</v>
       </c>
       <c r="G13">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="H13">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="I13">
         <v>255</v>
       </c>
       <c r="J13">
-        <v>139.25</v>
+        <v>244.75</v>
       </c>
       <c r="K13">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L13">
         <v>255</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>21217</v>
+        <v>43595</v>
       </c>
       <c r="B14">
-        <v>212.17</v>
+        <v>217.975</v>
       </c>
       <c r="C14">
         <v>255</v>
@@ -921,22 +921,22 @@
         <v>255</v>
       </c>
       <c r="E14">
-        <v>4393.859696969692</v>
+        <v>4448.516959798987</v>
       </c>
       <c r="F14">
-        <v>66.28619537256375</v>
+        <v>66.69720353807188</v>
       </c>
       <c r="G14">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="H14">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I14">
         <v>255</v>
       </c>
       <c r="J14">
-        <v>139.75</v>
+        <v>240.75</v>
       </c>
       <c r="K14">
         <v>255</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>21350</v>
+        <v>43285</v>
       </c>
       <c r="B15">
-        <v>213.5</v>
+        <v>216.425</v>
       </c>
       <c r="C15">
         <v>255</v>
@@ -959,22 +959,22 @@
         <v>255</v>
       </c>
       <c r="E15">
-        <v>4148.252525252526</v>
+        <v>4667.451633165831</v>
       </c>
       <c r="F15">
-        <v>64.40692917111113</v>
+        <v>68.31875023129325</v>
       </c>
       <c r="G15">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="H15">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I15">
         <v>255</v>
       </c>
       <c r="J15">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="K15">
         <v>255</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>21437</v>
+        <v>42952</v>
       </c>
       <c r="B16">
-        <v>214.37</v>
+        <v>214.76</v>
       </c>
       <c r="C16">
         <v>255</v>
@@ -997,22 +997,22 @@
         <v>255</v>
       </c>
       <c r="E16">
-        <v>3978.094040404044</v>
+        <v>4935.409447236183</v>
       </c>
       <c r="F16">
-        <v>63.0721336281249</v>
+        <v>70.25246933194721</v>
       </c>
       <c r="G16">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="H16">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I16">
         <v>255</v>
       </c>
       <c r="J16">
-        <v>145</v>
+        <v>223.75</v>
       </c>
       <c r="K16">
         <v>255</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>21521</v>
+        <v>42674</v>
       </c>
       <c r="B17">
-        <v>215.21</v>
+        <v>213.37</v>
       </c>
       <c r="C17">
         <v>255</v>
@@ -1035,22 +1035,22 @@
         <v>255</v>
       </c>
       <c r="E17">
-        <v>3784.551414141417</v>
+        <v>5086.927738693458</v>
       </c>
       <c r="F17">
-        <v>61.51870783868446</v>
+        <v>71.32270142593772</v>
       </c>
       <c r="G17">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="H17">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I17">
         <v>255</v>
       </c>
       <c r="J17">
-        <v>150</v>
+        <v>190.25</v>
       </c>
       <c r="K17">
         <v>255</v>
@@ -1061,37 +1061,37 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>21671</v>
+        <v>42519</v>
       </c>
       <c r="B18">
-        <v>216.71</v>
+        <v>212.595</v>
       </c>
       <c r="C18">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D18">
         <v>255</v>
       </c>
       <c r="E18">
-        <v>3373.783737373741</v>
+        <v>5066.483391959789</v>
       </c>
       <c r="F18">
-        <v>58.08428132785789</v>
+        <v>71.1792342748908</v>
       </c>
       <c r="G18">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="H18">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I18">
         <v>255</v>
       </c>
       <c r="J18">
-        <v>159.5</v>
+        <v>164.5</v>
       </c>
       <c r="K18">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L18">
         <v>255</v>
@@ -1099,37 +1099,37 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>21319</v>
+        <v>42264</v>
       </c>
       <c r="B19">
-        <v>213.19</v>
+        <v>211.32</v>
       </c>
       <c r="C19">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D19">
         <v>255</v>
       </c>
       <c r="E19">
-        <v>3373.751414141415</v>
+        <v>5175.706130653279</v>
       </c>
       <c r="F19">
-        <v>58.08400308296093</v>
+        <v>71.94238062959329</v>
       </c>
       <c r="G19">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="H19">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="I19">
         <v>255</v>
       </c>
       <c r="J19">
-        <v>156.75</v>
+        <v>118.75</v>
       </c>
       <c r="K19">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L19">
         <v>255</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>21213</v>
+        <v>41941</v>
       </c>
       <c r="B20">
-        <v>212.13</v>
+        <v>209.705</v>
       </c>
       <c r="C20">
         <v>255</v>
@@ -1149,22 +1149,22 @@
         <v>255</v>
       </c>
       <c r="E20">
-        <v>3435.689999999998</v>
+        <v>5356.399974874366</v>
       </c>
       <c r="F20">
-        <v>58.61475923348998</v>
+        <v>73.18743044317355</v>
       </c>
       <c r="G20">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="H20">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I20">
         <v>255</v>
       </c>
       <c r="J20">
-        <v>158</v>
+        <v>114.5</v>
       </c>
       <c r="K20">
         <v>255</v>
@@ -1175,37 +1175,37 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>20598</v>
+        <v>41629</v>
       </c>
       <c r="B21">
-        <v>205.98</v>
+        <v>208.145</v>
       </c>
       <c r="C21">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D21">
         <v>255</v>
       </c>
       <c r="E21">
-        <v>3336.100606060602</v>
+        <v>5532.436155778899</v>
       </c>
       <c r="F21">
-        <v>57.75898723195034</v>
+        <v>74.3803479138065</v>
       </c>
       <c r="G21">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="H21">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I21">
         <v>255</v>
       </c>
       <c r="J21">
-        <v>153.75</v>
+        <v>106.5</v>
       </c>
       <c r="K21">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L21">
         <v>255</v>
@@ -1213,37 +1213,37 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>20577</v>
+        <v>41395</v>
       </c>
       <c r="B22">
-        <v>205.77</v>
+        <v>206.975</v>
       </c>
       <c r="C22">
-        <v>249.5</v>
+        <v>255</v>
       </c>
       <c r="D22">
         <v>255</v>
       </c>
       <c r="E22">
-        <v>3263.3102020202</v>
+        <v>5603.562185929651</v>
       </c>
       <c r="F22">
-        <v>57.1253901695227</v>
+        <v>74.85694480761055</v>
       </c>
       <c r="G22">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="H22">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I22">
         <v>255</v>
       </c>
       <c r="J22">
-        <v>162.25</v>
+        <v>104</v>
       </c>
       <c r="K22">
-        <v>249.5</v>
+        <v>255</v>
       </c>
       <c r="L22">
         <v>255</v>
@@ -1251,37 +1251,37 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>20714</v>
+        <v>41378</v>
       </c>
       <c r="B23">
-        <v>207.14</v>
+        <v>206.89</v>
       </c>
       <c r="C23">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D23">
         <v>255</v>
       </c>
       <c r="E23">
-        <v>3676.808484848483</v>
+        <v>5300.249145728641</v>
       </c>
       <c r="F23">
-        <v>60.63669256191735</v>
+        <v>72.80281001258565</v>
       </c>
       <c r="G23">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H23">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I23">
         <v>255</v>
       </c>
       <c r="J23">
-        <v>169.5</v>
+        <v>115.75</v>
       </c>
       <c r="K23">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L23">
         <v>255</v>
@@ -1289,37 +1289,37 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>20508</v>
+        <v>41549</v>
       </c>
       <c r="B24">
-        <v>205.08</v>
+        <v>207.745</v>
       </c>
       <c r="C24">
-        <v>250.5</v>
+        <v>254</v>
       </c>
       <c r="D24">
         <v>255</v>
       </c>
       <c r="E24">
-        <v>4576.518787878789</v>
+        <v>4961.53766331658</v>
       </c>
       <c r="F24">
-        <v>67.64997256376967</v>
+        <v>70.43818327666168</v>
       </c>
       <c r="G24">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H24">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I24">
         <v>255</v>
       </c>
       <c r="J24">
-        <v>163.5</v>
+        <v>146</v>
       </c>
       <c r="K24">
-        <v>250.5</v>
+        <v>254</v>
       </c>
       <c r="L24">
         <v>255</v>
@@ -1327,37 +1327,37 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>20513</v>
+        <v>41779</v>
       </c>
       <c r="B25">
-        <v>205.13</v>
+        <v>208.895</v>
       </c>
       <c r="C25">
-        <v>253.5</v>
+        <v>254</v>
       </c>
       <c r="D25">
         <v>255</v>
       </c>
       <c r="E25">
-        <v>4372.498080808078</v>
+        <v>4809.742688442221</v>
       </c>
       <c r="F25">
-        <v>66.12486734057073</v>
+        <v>69.35230845791811</v>
       </c>
       <c r="G25">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H25">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I25">
         <v>255</v>
       </c>
       <c r="J25">
-        <v>153.75</v>
+        <v>143.75</v>
       </c>
       <c r="K25">
-        <v>253.5</v>
+        <v>254</v>
       </c>
       <c r="L25">
         <v>255</v>
@@ -1365,37 +1365,37 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>22384</v>
+        <v>42187</v>
       </c>
       <c r="B26">
-        <v>223.84</v>
+        <v>210.935</v>
       </c>
       <c r="C26">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="D26">
         <v>255</v>
       </c>
       <c r="E26">
-        <v>1634.034747474748</v>
+        <v>4531.63896984925</v>
       </c>
       <c r="F26">
-        <v>40.42319566133718</v>
+        <v>67.31744922268854</v>
       </c>
       <c r="G26">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="H26">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="I26">
         <v>255</v>
       </c>
       <c r="J26">
-        <v>193</v>
+        <v>139.75</v>
       </c>
       <c r="K26">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="L26">
         <v>255</v>
@@ -1403,37 +1403,37 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>23253</v>
+        <v>42495</v>
       </c>
       <c r="B27">
-        <v>232.53</v>
+        <v>212.475</v>
       </c>
       <c r="C27">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D27">
         <v>255</v>
       </c>
       <c r="E27">
-        <v>1015.524343434343</v>
+        <v>4360.95414572864</v>
       </c>
       <c r="F27">
-        <v>31.86729269069374</v>
+        <v>66.03752074183767</v>
       </c>
       <c r="G27">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="H27">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="I27">
         <v>255</v>
       </c>
       <c r="J27">
-        <v>212.75</v>
+        <v>140.75</v>
       </c>
       <c r="K27">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L27">
         <v>255</v>
@@ -1441,37 +1441,37 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>22616</v>
+        <v>42649</v>
       </c>
       <c r="B28">
-        <v>226.16</v>
+        <v>213.245</v>
       </c>
       <c r="C28">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D28">
         <v>255</v>
       </c>
       <c r="E28">
-        <v>1296.600404040403</v>
+        <v>4258.175854271369</v>
       </c>
       <c r="F28">
-        <v>36.00833797942364</v>
+        <v>65.2546998634686</v>
       </c>
       <c r="G28">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="H28">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="I28">
         <v>255</v>
       </c>
       <c r="J28">
-        <v>191.75</v>
+        <v>142</v>
       </c>
       <c r="K28">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L28">
         <v>255</v>
@@ -1479,37 +1479,37 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>22918</v>
+        <v>42756</v>
       </c>
       <c r="B29">
-        <v>229.18</v>
+        <v>213.78</v>
       </c>
       <c r="C29">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D29">
         <v>255</v>
       </c>
       <c r="E29">
-        <v>1206.654141414141</v>
+        <v>4166.815678391958</v>
       </c>
       <c r="F29">
-        <v>34.7369276334874</v>
+        <v>64.55087666633163</v>
       </c>
       <c r="G29">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="H29">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="I29">
         <v>255</v>
       </c>
       <c r="J29">
-        <v>203.5</v>
+        <v>150.5</v>
       </c>
       <c r="K29">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L29">
         <v>255</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>23154</v>
+        <v>42836</v>
       </c>
       <c r="B30">
-        <v>231.54</v>
+        <v>214.18</v>
       </c>
       <c r="C30">
         <v>255</v>
@@ -1529,22 +1529,22 @@
         <v>255</v>
       </c>
       <c r="E30">
-        <v>1299.402424242424</v>
+        <v>4100.65085427136</v>
       </c>
       <c r="F30">
-        <v>36.04722491735561</v>
+        <v>64.03632449064641</v>
       </c>
       <c r="G30">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="H30">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="I30">
         <v>255</v>
       </c>
       <c r="J30">
-        <v>207.5</v>
+        <v>146.5</v>
       </c>
       <c r="K30">
         <v>255</v>
@@ -1555,37 +1555,37 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>23196</v>
+        <v>42902</v>
       </c>
       <c r="B31">
-        <v>231.96</v>
+        <v>214.51</v>
       </c>
       <c r="C31">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D31">
         <v>255</v>
       </c>
       <c r="E31">
-        <v>1377.957979797978</v>
+        <v>4025.768743718595</v>
       </c>
       <c r="F31">
-        <v>37.1208563990377</v>
+        <v>63.44894596223482</v>
       </c>
       <c r="G31">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="H31">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="I31">
         <v>255</v>
       </c>
       <c r="J31">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="K31">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L31">
         <v>255</v>
@@ -1593,37 +1593,37 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>23244</v>
+        <v>42961</v>
       </c>
       <c r="B32">
-        <v>232.44</v>
+        <v>214.805</v>
       </c>
       <c r="C32">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D32">
         <v>255</v>
       </c>
       <c r="E32">
-        <v>1382.390303030303</v>
+        <v>3941.022085427133</v>
       </c>
       <c r="F32">
-        <v>37.18050971988285</v>
+        <v>62.77756036536569</v>
       </c>
       <c r="G32">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="H32">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="I32">
         <v>255</v>
       </c>
       <c r="J32">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="K32">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L32">
         <v>255</v>
@@ -1631,37 +1631,37 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>22993</v>
+        <v>43151</v>
       </c>
       <c r="B33">
-        <v>229.93</v>
+        <v>215.755</v>
       </c>
       <c r="C33">
-        <v>250.5</v>
+        <v>254.5</v>
       </c>
       <c r="D33">
         <v>255</v>
       </c>
       <c r="E33">
-        <v>1595.560707070706</v>
+        <v>3728.648216080402</v>
       </c>
       <c r="F33">
-        <v>39.94447029403076</v>
+        <v>61.06265811509029</v>
       </c>
       <c r="G33">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="H33">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I33">
         <v>255</v>
       </c>
       <c r="J33">
-        <v>224.75</v>
+        <v>152</v>
       </c>
       <c r="K33">
-        <v>250.5</v>
+        <v>254.5</v>
       </c>
       <c r="L33">
         <v>255</v>
@@ -1669,37 +1669,37 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>22735</v>
+        <v>43278</v>
       </c>
       <c r="B34">
-        <v>227.35</v>
+        <v>216.39</v>
       </c>
       <c r="C34">
-        <v>248.5</v>
+        <v>254</v>
       </c>
       <c r="D34">
         <v>255</v>
       </c>
       <c r="E34">
-        <v>1613.765151515149</v>
+        <v>3526.440100502517</v>
       </c>
       <c r="F34">
-        <v>40.17169590041164</v>
+        <v>59.38383703081603</v>
       </c>
       <c r="G34">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="H34">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="I34">
         <v>255</v>
       </c>
       <c r="J34">
-        <v>201.25</v>
+        <v>156</v>
       </c>
       <c r="K34">
-        <v>248.5</v>
+        <v>254</v>
       </c>
       <c r="L34">
         <v>255</v>
@@ -1707,37 +1707,37 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>22543</v>
+        <v>43209</v>
       </c>
       <c r="B35">
-        <v>225.43</v>
+        <v>216.045</v>
       </c>
       <c r="C35">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D35">
         <v>255</v>
       </c>
       <c r="E35">
-        <v>1806.510202020203</v>
+        <v>3371.219070351767</v>
       </c>
       <c r="F35">
-        <v>42.50306108999919</v>
+        <v>58.06220001301851</v>
       </c>
       <c r="G35">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="H35">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="I35">
         <v>255</v>
       </c>
       <c r="J35">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="K35">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L35">
         <v>255</v>
@@ -1745,37 +1745,37 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>22124</v>
+        <v>42896</v>
       </c>
       <c r="B36">
-        <v>221.24</v>
+        <v>214.48</v>
       </c>
       <c r="C36">
-        <v>246.5</v>
+        <v>254</v>
       </c>
       <c r="D36">
         <v>255</v>
       </c>
       <c r="E36">
-        <v>1978.507474747473</v>
+        <v>3334.150351758795</v>
       </c>
       <c r="F36">
-        <v>44.48041675555068</v>
+        <v>57.74210207256743</v>
       </c>
       <c r="G36">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="H36">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="I36">
         <v>255</v>
       </c>
       <c r="J36">
-        <v>185.5</v>
+        <v>158.75</v>
       </c>
       <c r="K36">
-        <v>246.5</v>
+        <v>254</v>
       </c>
       <c r="L36">
         <v>255</v>
@@ -1783,37 +1783,37 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>21676</v>
+        <v>42384</v>
       </c>
       <c r="B37">
-        <v>216.76</v>
+        <v>211.92</v>
       </c>
       <c r="C37">
-        <v>244.5</v>
+        <v>254</v>
       </c>
       <c r="D37">
         <v>255</v>
       </c>
       <c r="E37">
-        <v>2307.861010101008</v>
+        <v>3446.405628140695</v>
       </c>
       <c r="F37">
-        <v>48.04020201977723</v>
+        <v>58.70609532357517</v>
       </c>
       <c r="G37">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="H37">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I37">
         <v>255</v>
       </c>
       <c r="J37">
-        <v>180.75</v>
+        <v>153</v>
       </c>
       <c r="K37">
-        <v>244.5</v>
+        <v>254</v>
       </c>
       <c r="L37">
         <v>255</v>
@@ -1821,37 +1821,37 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>21222</v>
+        <v>42351</v>
       </c>
       <c r="B38">
-        <v>212.22</v>
+        <v>211.755</v>
       </c>
       <c r="C38">
-        <v>226.5</v>
+        <v>255</v>
       </c>
       <c r="D38">
         <v>255</v>
       </c>
       <c r="E38">
-        <v>2309.526868686865</v>
+        <v>3436.5778643216</v>
       </c>
       <c r="F38">
-        <v>48.05753706430309</v>
+        <v>58.62233247083913</v>
       </c>
       <c r="G38">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H38">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I38">
         <v>255</v>
       </c>
       <c r="J38">
-        <v>173.75</v>
+        <v>155.75</v>
       </c>
       <c r="K38">
-        <v>226.5</v>
+        <v>255</v>
       </c>
       <c r="L38">
         <v>255</v>
@@ -1859,37 +1859,37 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>20686</v>
+        <v>42259</v>
       </c>
       <c r="B39">
-        <v>206.86</v>
+        <v>211.295</v>
       </c>
       <c r="C39">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="D39">
         <v>255</v>
       </c>
       <c r="E39">
-        <v>2535.798383838385</v>
+        <v>3338.761783919608</v>
       </c>
       <c r="F39">
-        <v>50.35671140809718</v>
+        <v>57.78201955556423</v>
       </c>
       <c r="G39">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H39">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I39">
         <v>255</v>
       </c>
       <c r="J39">
-        <v>168.5</v>
+        <v>159</v>
       </c>
       <c r="K39">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="L39">
         <v>255</v>
@@ -1897,37 +1897,37 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>20403</v>
+        <v>41639</v>
       </c>
       <c r="B40">
-        <v>204.03</v>
+        <v>208.195</v>
       </c>
       <c r="C40">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="D40">
         <v>255</v>
       </c>
       <c r="E40">
-        <v>2643.403131313127</v>
+        <v>3484.921582914585</v>
       </c>
       <c r="F40">
-        <v>51.41403632582378</v>
+        <v>59.03322439876197</v>
       </c>
       <c r="G40">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H40">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I40">
         <v>255</v>
       </c>
       <c r="J40">
-        <v>168</v>
+        <v>156.75</v>
       </c>
       <c r="K40">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="L40">
         <v>255</v>
@@ -1935,37 +1935,37 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>20116</v>
+        <v>40795</v>
       </c>
       <c r="B41">
-        <v>201.16</v>
+        <v>203.975</v>
       </c>
       <c r="C41">
-        <v>187.5</v>
+        <v>250.5</v>
       </c>
       <c r="D41">
         <v>255</v>
       </c>
       <c r="E41">
-        <v>2758.883232323231</v>
+        <v>3417.984296482418</v>
       </c>
       <c r="F41">
-        <v>52.52507241616361</v>
+        <v>58.46352962730199</v>
       </c>
       <c r="G41">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H41">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I41">
         <v>255</v>
       </c>
       <c r="J41">
-        <v>163.5</v>
+        <v>150</v>
       </c>
       <c r="K41">
-        <v>187.5</v>
+        <v>250.5</v>
       </c>
       <c r="L41">
         <v>255</v>
@@ -1973,37 +1973,37 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>19875</v>
+        <v>40865</v>
       </c>
       <c r="B42">
-        <v>198.75</v>
+        <v>204.325</v>
       </c>
       <c r="C42">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="D42">
         <v>255</v>
       </c>
       <c r="E42">
-        <v>2986.896464646465</v>
+        <v>3335.516959798982</v>
       </c>
       <c r="F42">
-        <v>54.65250648091508</v>
+        <v>57.75393458284017</v>
       </c>
       <c r="G42">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H42">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I42">
         <v>255</v>
       </c>
       <c r="J42">
-        <v>155.75</v>
+        <v>153</v>
       </c>
       <c r="K42">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="L42">
         <v>255</v>
@@ -2011,37 +2011,37 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>19733</v>
+        <v>41338</v>
       </c>
       <c r="B43">
-        <v>197.33</v>
+        <v>206.69</v>
       </c>
       <c r="C43">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="D43">
         <v>255</v>
       </c>
       <c r="E43">
-        <v>3196.607171717176</v>
+        <v>3238.345628140699</v>
       </c>
       <c r="F43">
-        <v>56.53854589319729</v>
+        <v>56.90646385201508</v>
       </c>
       <c r="G43">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="H43">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="I43">
         <v>255</v>
       </c>
       <c r="J43">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="K43">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="L43">
         <v>255</v>
@@ -2049,37 +2049,37 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>19484</v>
+        <v>41451</v>
       </c>
       <c r="B44">
-        <v>194.84</v>
+        <v>207.255</v>
       </c>
       <c r="C44">
-        <v>187.5</v>
+        <v>246</v>
       </c>
       <c r="D44">
         <v>255</v>
       </c>
       <c r="E44">
-        <v>3305.347878787879</v>
+        <v>3537.13565326634</v>
       </c>
       <c r="F44">
-        <v>57.49215493254605</v>
+        <v>59.47382326087958</v>
       </c>
       <c r="G44">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H44">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I44">
         <v>255</v>
       </c>
       <c r="J44">
-        <v>152.5</v>
+        <v>170.75</v>
       </c>
       <c r="K44">
-        <v>187.5</v>
+        <v>246</v>
       </c>
       <c r="L44">
         <v>255</v>
@@ -2087,37 +2087,37 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>19370</v>
+        <v>41334</v>
       </c>
       <c r="B45">
-        <v>193.7</v>
+        <v>206.67</v>
       </c>
       <c r="C45">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="D45">
         <v>255</v>
       </c>
       <c r="E45">
-        <v>3392.252525252526</v>
+        <v>3917.377989949756</v>
       </c>
       <c r="F45">
-        <v>58.24304701209</v>
+        <v>62.5889606076803</v>
       </c>
       <c r="G45">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H45">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I45">
         <v>255</v>
       </c>
       <c r="J45">
-        <v>148.75</v>
+        <v>168.5</v>
       </c>
       <c r="K45">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="L45">
         <v>255</v>
@@ -2125,37 +2125,37 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>19177</v>
+        <v>41119</v>
       </c>
       <c r="B46">
-        <v>191.77</v>
+        <v>205.595</v>
       </c>
       <c r="C46">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="D46">
         <v>255</v>
       </c>
       <c r="E46">
-        <v>3536.865757575756</v>
+        <v>4352.624095477387</v>
       </c>
       <c r="F46">
-        <v>59.47155418833239</v>
+        <v>65.97442000864719</v>
       </c>
       <c r="G46">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="H46">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="I46">
         <v>255</v>
       </c>
       <c r="J46">
-        <v>135</v>
+        <v>169.75</v>
       </c>
       <c r="K46">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="L46">
         <v>255</v>
@@ -2163,37 +2163,37 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>19018</v>
+        <v>40843</v>
       </c>
       <c r="B47">
-        <v>190.18</v>
+        <v>204.215</v>
       </c>
       <c r="C47">
-        <v>190.5</v>
+        <v>247.5</v>
       </c>
       <c r="D47">
         <v>255</v>
       </c>
       <c r="E47">
-        <v>3744.169292929293</v>
+        <v>4697.466105527644</v>
       </c>
       <c r="F47">
-        <v>61.18961752560064</v>
+        <v>68.53806318774731</v>
       </c>
       <c r="G47">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="H47">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="I47">
         <v>255</v>
       </c>
       <c r="J47">
-        <v>129.75</v>
+        <v>159.25</v>
       </c>
       <c r="K47">
-        <v>190.5</v>
+        <v>247.5</v>
       </c>
       <c r="L47">
         <v>255</v>
@@ -2201,37 +2201,37 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>18969</v>
+        <v>40575</v>
       </c>
       <c r="B48">
-        <v>189.69</v>
+        <v>202.875</v>
       </c>
       <c r="C48">
-        <v>194.5</v>
+        <v>252.5</v>
       </c>
       <c r="D48">
         <v>255</v>
       </c>
       <c r="E48">
-        <v>3805.630202020206</v>
+        <v>5012.61243718593</v>
       </c>
       <c r="F48">
-        <v>61.68979009544615</v>
+        <v>70.79980534709068</v>
       </c>
       <c r="G48">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="H48">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I48">
         <v>255</v>
       </c>
       <c r="J48">
-        <v>129.75</v>
+        <v>144.25</v>
       </c>
       <c r="K48">
-        <v>194.5</v>
+        <v>252.5</v>
       </c>
       <c r="L48">
         <v>255</v>
@@ -2239,37 +2239,37 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>18767</v>
+        <v>41614</v>
       </c>
       <c r="B49">
-        <v>187.67</v>
+        <v>208.07</v>
       </c>
       <c r="C49">
-        <v>185.5</v>
+        <v>252.5</v>
       </c>
       <c r="D49">
         <v>255</v>
       </c>
       <c r="E49">
-        <v>3997.253636363641</v>
+        <v>3736.789045226127</v>
       </c>
       <c r="F49">
-        <v>63.22383756435259</v>
+        <v>61.1292814060997</v>
       </c>
       <c r="G49">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="H49">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I49">
         <v>255</v>
       </c>
       <c r="J49">
-        <v>125</v>
+        <v>156.5</v>
       </c>
       <c r="K49">
-        <v>185.5</v>
+        <v>252.5</v>
       </c>
       <c r="L49">
         <v>255</v>
@@ -2277,37 +2277,37 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>18577</v>
+        <v>43521</v>
       </c>
       <c r="B50">
-        <v>185.77</v>
+        <v>217.605</v>
       </c>
       <c r="C50">
-        <v>179.5</v>
+        <v>252</v>
       </c>
       <c r="D50">
         <v>255</v>
       </c>
       <c r="E50">
-        <v>4141.734444444447</v>
+        <v>2330.96379396985</v>
       </c>
       <c r="F50">
-        <v>64.3563085054173</v>
+        <v>48.28005586129587</v>
       </c>
       <c r="G50">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="H50">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I50">
         <v>255</v>
       </c>
       <c r="J50">
-        <v>122</v>
+        <v>178.75</v>
       </c>
       <c r="K50">
-        <v>179.5</v>
+        <v>252</v>
       </c>
       <c r="L50">
         <v>255</v>
@@ -2315,37 +2315,37 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>18472</v>
+        <v>45753</v>
       </c>
       <c r="B51">
-        <v>184.72</v>
+        <v>228.765</v>
       </c>
       <c r="C51">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="D51">
         <v>255</v>
       </c>
       <c r="E51">
-        <v>4191.577373737376</v>
+        <v>1295.92942211055</v>
       </c>
       <c r="F51">
-        <v>64.74239240047726</v>
+        <v>35.9990197381894</v>
       </c>
       <c r="G51">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="H51">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="I51">
         <v>255</v>
       </c>
       <c r="J51">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K51">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="L51">
         <v>255</v>
@@ -2353,37 +2353,37 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>18377</v>
+        <v>46624</v>
       </c>
       <c r="B52">
-        <v>183.77</v>
+        <v>233.12</v>
       </c>
       <c r="C52">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="D52">
         <v>255</v>
       </c>
       <c r="E52">
-        <v>4236.784949494948</v>
+        <v>1048.719195979898</v>
       </c>
       <c r="F52">
-        <v>65.09059032990059</v>
+        <v>32.38393422640149</v>
       </c>
       <c r="G52">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="H52">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="I52">
         <v>255</v>
       </c>
       <c r="J52">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="K52">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="L52">
         <v>255</v>
@@ -2391,37 +2391,37 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>18323</v>
+        <v>46071</v>
       </c>
       <c r="B53">
-        <v>183.23</v>
+        <v>230.355</v>
       </c>
       <c r="C53">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="D53">
         <v>255</v>
       </c>
       <c r="E53">
-        <v>4230.663737373742</v>
+        <v>1050.45123115578</v>
       </c>
       <c r="F53">
-        <v>65.04355261956209</v>
+        <v>32.41066539205544</v>
       </c>
       <c r="G53">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="H53">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="I53">
         <v>255</v>
       </c>
       <c r="J53">
-        <v>120</v>
+        <v>202.75</v>
       </c>
       <c r="K53">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="L53">
         <v>255</v>
@@ -2429,37 +2429,37 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>18191</v>
+        <v>45426</v>
       </c>
       <c r="B54">
-        <v>181.91</v>
+        <v>227.13</v>
       </c>
       <c r="C54">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="D54">
         <v>255</v>
       </c>
       <c r="E54">
-        <v>4326.062525252523</v>
+        <v>1209.792060301505</v>
       </c>
       <c r="F54">
-        <v>65.77280992364948</v>
+        <v>34.78206521041419</v>
       </c>
       <c r="G54">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="H54">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="I54">
         <v>255</v>
       </c>
       <c r="J54">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="K54">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="L54">
         <v>255</v>
@@ -2467,37 +2467,37 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>18046</v>
+        <v>45099</v>
       </c>
       <c r="B55">
-        <v>180.46</v>
+        <v>225.495</v>
       </c>
       <c r="C55">
-        <v>159.5</v>
+        <v>251.5</v>
       </c>
       <c r="D55">
         <v>255</v>
       </c>
       <c r="E55">
-        <v>4444.675151515149</v>
+        <v>1360.090427135678</v>
       </c>
       <c r="F55">
-        <v>66.66839694724293</v>
+        <v>36.87940383378883</v>
       </c>
       <c r="G55">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="H55">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="I55">
         <v>255</v>
       </c>
       <c r="J55">
-        <v>118.5</v>
+        <v>191.75</v>
       </c>
       <c r="K55">
-        <v>159.5</v>
+        <v>251.5</v>
       </c>
       <c r="L55">
         <v>255</v>
@@ -2505,37 +2505,37 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>17909</v>
+        <v>45584</v>
       </c>
       <c r="B56">
-        <v>179.09</v>
+        <v>227.92</v>
       </c>
       <c r="C56">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="D56">
         <v>255</v>
       </c>
       <c r="E56">
-        <v>4529.274646464643</v>
+        <v>1192.194572864319</v>
       </c>
       <c r="F56">
-        <v>67.29988593203292</v>
+        <v>34.5281707141331</v>
       </c>
       <c r="G56">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="H56">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="I56">
         <v>255</v>
       </c>
       <c r="J56">
-        <v>115.75</v>
+        <v>203.75</v>
       </c>
       <c r="K56">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="L56">
         <v>255</v>
@@ -2543,37 +2543,37 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>17930</v>
+        <v>45994</v>
       </c>
       <c r="B57">
-        <v>179.3</v>
+        <v>229.97</v>
       </c>
       <c r="C57">
-        <v>153.5</v>
+        <v>252.5</v>
       </c>
       <c r="D57">
         <v>255</v>
       </c>
       <c r="E57">
-        <v>4538.030303030301</v>
+        <v>1155.104623115581</v>
       </c>
       <c r="F57">
-        <v>67.36490408981743</v>
+        <v>33.98683014221216</v>
       </c>
       <c r="G57">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="H57">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="I57">
         <v>255</v>
       </c>
       <c r="J57">
-        <v>117.5</v>
+        <v>206.75</v>
       </c>
       <c r="K57">
-        <v>153.5</v>
+        <v>252.5</v>
       </c>
       <c r="L57">
         <v>255</v>
@@ -2581,37 +2581,37 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>17968</v>
+        <v>46254</v>
       </c>
       <c r="B58">
-        <v>179.68</v>
+        <v>231.27</v>
       </c>
       <c r="C58">
-        <v>153.5</v>
+        <v>255</v>
       </c>
       <c r="D58">
         <v>255</v>
       </c>
       <c r="E58">
-        <v>4510.906666666659</v>
+        <v>1215.132763819098</v>
       </c>
       <c r="F58">
-        <v>67.16328362034319</v>
+        <v>34.85875447888375</v>
       </c>
       <c r="G58">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="H58">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="I58">
         <v>255</v>
       </c>
       <c r="J58">
-        <v>119</v>
+        <v>203.75</v>
       </c>
       <c r="K58">
-        <v>153.5</v>
+        <v>255</v>
       </c>
       <c r="L58">
         <v>255</v>
@@ -2619,37 +2619,37 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>18043</v>
+        <v>46327</v>
       </c>
       <c r="B59">
-        <v>180.43</v>
+        <v>231.635</v>
       </c>
       <c r="C59">
-        <v>151.5</v>
+        <v>255</v>
       </c>
       <c r="D59">
         <v>255</v>
       </c>
       <c r="E59">
-        <v>4414.530404040401</v>
+        <v>1338.614849246231</v>
       </c>
       <c r="F59">
-        <v>66.44193257304005</v>
+        <v>36.58708582609759</v>
       </c>
       <c r="G59">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H59">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I59">
         <v>255</v>
       </c>
       <c r="J59">
-        <v>120</v>
+        <v>207.5</v>
       </c>
       <c r="K59">
-        <v>151.5</v>
+        <v>255</v>
       </c>
       <c r="L59">
         <v>255</v>
@@ -2657,37 +2657,37 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>18134</v>
+        <v>46364</v>
       </c>
       <c r="B60">
-        <v>181.34</v>
+        <v>231.82</v>
       </c>
       <c r="C60">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D60">
         <v>255</v>
       </c>
       <c r="E60">
-        <v>4258.226666666671</v>
+        <v>1322.168442211054</v>
       </c>
       <c r="F60">
-        <v>65.2550892012774</v>
+        <v>36.3616342071015</v>
       </c>
       <c r="G60">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H60">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>255</v>
       </c>
       <c r="J60">
-        <v>122.75</v>
+        <v>215</v>
       </c>
       <c r="K60">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="L60">
         <v>255</v>
@@ -2695,37 +2695,37 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>18225</v>
+        <v>46500</v>
       </c>
       <c r="B61">
-        <v>182.25</v>
+        <v>232.5</v>
       </c>
       <c r="C61">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="D61">
         <v>255</v>
       </c>
       <c r="E61">
-        <v>4167.037878787879</v>
+        <v>1317.778894472362</v>
       </c>
       <c r="F61">
-        <v>64.55259776947693</v>
+        <v>36.30122442111784</v>
       </c>
       <c r="G61">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H61">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I61">
         <v>255</v>
       </c>
       <c r="J61">
-        <v>124</v>
+        <v>229.5</v>
       </c>
       <c r="K61">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="L61">
         <v>255</v>
@@ -2733,37 +2733,37 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>18363</v>
+        <v>46579</v>
       </c>
       <c r="B62">
-        <v>183.63</v>
+        <v>232.895</v>
       </c>
       <c r="C62">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="D62">
         <v>255</v>
       </c>
       <c r="E62">
-        <v>4036.073838383842</v>
+        <v>1358.627110552766</v>
       </c>
       <c r="F62">
-        <v>63.53010182884837</v>
+        <v>36.85955928321398</v>
       </c>
       <c r="G62">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H62">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I62">
         <v>255</v>
       </c>
       <c r="J62">
-        <v>124.75</v>
+        <v>235.5</v>
       </c>
       <c r="K62">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="L62">
         <v>255</v>
@@ -2771,37 +2771,37 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>18507</v>
+        <v>46477</v>
       </c>
       <c r="B63">
-        <v>185.07</v>
+        <v>232.385</v>
       </c>
       <c r="C63">
-        <v>148.5</v>
+        <v>252</v>
       </c>
       <c r="D63">
         <v>255</v>
       </c>
       <c r="E63">
-        <v>3912.671818181821</v>
+        <v>1451.534447236178</v>
       </c>
       <c r="F63">
-        <v>62.55135344804156</v>
+        <v>38.0990084810114</v>
       </c>
       <c r="G63">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H63">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I63">
         <v>255</v>
       </c>
       <c r="J63">
-        <v>126.75</v>
+        <v>235</v>
       </c>
       <c r="K63">
-        <v>148.5</v>
+        <v>252</v>
       </c>
       <c r="L63">
         <v>255</v>
@@ -2809,37 +2809,37 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>18665</v>
+        <v>46168</v>
       </c>
       <c r="B64">
-        <v>186.65</v>
+        <v>230.84</v>
       </c>
       <c r="C64">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D64">
         <v>255</v>
       </c>
       <c r="E64">
-        <v>3832.068181818175</v>
+        <v>1509.471758793966</v>
       </c>
       <c r="F64">
-        <v>61.90370087335793</v>
+        <v>38.85192091511006</v>
       </c>
       <c r="G64">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H64">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I64">
         <v>255</v>
       </c>
       <c r="J64">
-        <v>129.75</v>
+        <v>227</v>
       </c>
       <c r="K64">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="L64">
         <v>255</v>
@@ -2847,37 +2847,37 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>18965</v>
+        <v>45895</v>
       </c>
       <c r="B65">
-        <v>189.65</v>
+        <v>229.475</v>
       </c>
       <c r="C65">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="D65">
         <v>255</v>
       </c>
       <c r="E65">
-        <v>3568.95707070707</v>
+        <v>1550.431532663318</v>
       </c>
       <c r="F65">
-        <v>59.74074882948045</v>
+        <v>39.37551945896484</v>
       </c>
       <c r="G65">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="H65">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="I65">
         <v>255</v>
       </c>
       <c r="J65">
-        <v>135.5</v>
+        <v>217.75</v>
       </c>
       <c r="K65">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="L65">
         <v>255</v>
@@ -2885,37 +2885,37 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>19273</v>
+        <v>45626</v>
       </c>
       <c r="B66">
-        <v>192.73</v>
+        <v>228.13</v>
       </c>
       <c r="C66">
-        <v>162.5</v>
+        <v>251</v>
       </c>
       <c r="D66">
         <v>255</v>
       </c>
       <c r="E66">
-        <v>3341.734444444448</v>
+        <v>1610.897587939706</v>
       </c>
       <c r="F66">
-        <v>57.80773689087343</v>
+        <v>40.13598868770652</v>
       </c>
       <c r="G66">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="H66">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="I66">
         <v>255</v>
       </c>
       <c r="J66">
-        <v>138.75</v>
+        <v>206</v>
       </c>
       <c r="K66">
-        <v>162.5</v>
+        <v>251</v>
       </c>
       <c r="L66">
         <v>255</v>
@@ -2923,37 +2923,37 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>19559</v>
+        <v>45299</v>
       </c>
       <c r="B67">
-        <v>195.59</v>
+        <v>226.495</v>
       </c>
       <c r="C67">
-        <v>165.5</v>
+        <v>249</v>
       </c>
       <c r="D67">
         <v>255</v>
       </c>
       <c r="E67">
-        <v>3107.214040404041</v>
+        <v>1681.18590452261</v>
       </c>
       <c r="F67">
-        <v>55.74238997750312</v>
+        <v>41.00226706564663</v>
       </c>
       <c r="G67">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="H67">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="I67">
         <v>255</v>
       </c>
       <c r="J67">
-        <v>144.75</v>
+        <v>198.25</v>
       </c>
       <c r="K67">
-        <v>165.5</v>
+        <v>249</v>
       </c>
       <c r="L67">
         <v>255</v>
@@ -2961,37 +2961,37 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>19777</v>
+        <v>45161</v>
       </c>
       <c r="B68">
-        <v>197.77</v>
+        <v>225.805</v>
       </c>
       <c r="C68">
-        <v>172.5</v>
+        <v>250</v>
       </c>
       <c r="D68">
         <v>255</v>
       </c>
       <c r="E68">
-        <v>2960.48191919192</v>
+        <v>1733.795954773873</v>
       </c>
       <c r="F68">
-        <v>54.41031078014461</v>
+        <v>41.63887552244744</v>
       </c>
       <c r="G68">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="H68">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="I68">
         <v>255</v>
       </c>
       <c r="J68">
-        <v>144</v>
+        <v>200.5</v>
       </c>
       <c r="K68">
-        <v>172.5</v>
+        <v>250</v>
       </c>
       <c r="L68">
         <v>255</v>
@@ -2999,37 +2999,37 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>20003</v>
+        <v>44915</v>
       </c>
       <c r="B69">
-        <v>200.03</v>
+        <v>224.575</v>
       </c>
       <c r="C69">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="D69">
         <v>255</v>
       </c>
       <c r="E69">
-        <v>2803.988989898989</v>
+        <v>1838.315954773865</v>
       </c>
       <c r="F69">
-        <v>52.95270521794887</v>
+        <v>42.875586932121</v>
       </c>
       <c r="G69">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H69">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="I69">
         <v>255</v>
       </c>
       <c r="J69">
-        <v>149</v>
+        <v>196.25</v>
       </c>
       <c r="K69">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="L69">
         <v>255</v>
@@ -3037,37 +3037,37 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>20183</v>
+        <v>44535</v>
       </c>
       <c r="B70">
-        <v>201.83</v>
+        <v>222.675</v>
       </c>
       <c r="C70">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="D70">
         <v>255</v>
       </c>
       <c r="E70">
-        <v>2699.132424242423</v>
+        <v>1964.150125628146</v>
       </c>
       <c r="F70">
-        <v>51.95317530471475</v>
+        <v>44.31873334864328</v>
       </c>
       <c r="G70">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H70">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="I70">
         <v>255</v>
       </c>
       <c r="J70">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="K70">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="L70">
         <v>255</v>
@@ -3075,37 +3075,37 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>20350</v>
+        <v>43967</v>
       </c>
       <c r="B71">
-        <v>203.5</v>
+        <v>219.835</v>
       </c>
       <c r="C71">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="D71">
         <v>255</v>
       </c>
       <c r="E71">
-        <v>2586.414141414141</v>
+        <v>2079.083190954778</v>
       </c>
       <c r="F71">
-        <v>50.85680034581551</v>
+        <v>45.5969647120812</v>
       </c>
       <c r="G71">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="H71">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="I71">
         <v>255</v>
       </c>
       <c r="J71">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="K71">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="L71">
         <v>255</v>
@@ -3113,37 +3113,37 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>20498</v>
+        <v>43582</v>
       </c>
       <c r="B72">
-        <v>204.98</v>
+        <v>217.91</v>
       </c>
       <c r="C72">
-        <v>206.5</v>
+        <v>245</v>
       </c>
       <c r="D72">
         <v>255</v>
       </c>
       <c r="E72">
-        <v>2496.120808080806</v>
+        <v>2165.006934673369</v>
       </c>
       <c r="F72">
-        <v>49.96119302099186</v>
+        <v>46.52963501547556</v>
       </c>
       <c r="G72">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="H72">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="I72">
         <v>255</v>
       </c>
       <c r="J72">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="K72">
-        <v>206.5</v>
+        <v>245</v>
       </c>
       <c r="L72">
         <v>255</v>
@@ -3151,37 +3151,37 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>20725</v>
+        <v>43193</v>
       </c>
       <c r="B73">
-        <v>207.25</v>
+        <v>215.965</v>
       </c>
       <c r="C73">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="D73">
         <v>255</v>
       </c>
       <c r="E73">
-        <v>2328.815656565656</v>
+        <v>2239.712336683418</v>
       </c>
       <c r="F73">
-        <v>48.25780410012101</v>
+        <v>47.32559916877353</v>
       </c>
       <c r="G73">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="H73">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="I73">
         <v>255</v>
       </c>
       <c r="J73">
-        <v>156</v>
+        <v>176.75</v>
       </c>
       <c r="K73">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="L73">
         <v>255</v>
@@ -3189,37 +3189,37 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>20852</v>
+        <v>42761</v>
       </c>
       <c r="B74">
-        <v>208.52</v>
+        <v>213.805</v>
       </c>
       <c r="C74">
-        <v>226</v>
+        <v>235.5</v>
       </c>
       <c r="D74">
         <v>255</v>
       </c>
       <c r="E74">
-        <v>2260.110707070708</v>
+        <v>2313.082386934675</v>
       </c>
       <c r="F74">
-        <v>47.54062165212723</v>
+        <v>48.09451514398159</v>
       </c>
       <c r="G74">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="H74">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="I74">
         <v>255</v>
       </c>
       <c r="J74">
-        <v>156</v>
+        <v>175.75</v>
       </c>
       <c r="K74">
-        <v>226</v>
+        <v>235.5</v>
       </c>
       <c r="L74">
         <v>255</v>
@@ -3227,37 +3227,37 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>21063</v>
+        <v>42182</v>
       </c>
       <c r="B75">
-        <v>210.63</v>
+        <v>210.91</v>
       </c>
       <c r="C75">
-        <v>238.5</v>
+        <v>219.5</v>
       </c>
       <c r="D75">
         <v>255</v>
       </c>
       <c r="E75">
-        <v>2126.720303030305</v>
+        <v>2388.866231155784</v>
       </c>
       <c r="F75">
-        <v>46.11637781775912</v>
+        <v>48.87602920814849</v>
       </c>
       <c r="G75">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="H75">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="I75">
         <v>255</v>
       </c>
       <c r="J75">
-        <v>163</v>
+        <v>172.75</v>
       </c>
       <c r="K75">
-        <v>238.5</v>
+        <v>219.5</v>
       </c>
       <c r="L75">
         <v>255</v>
@@ -3265,37 +3265,37 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>21216</v>
+        <v>41644</v>
       </c>
       <c r="B76">
-        <v>212.16</v>
+        <v>208.22</v>
       </c>
       <c r="C76">
-        <v>250</v>
+        <v>209.5</v>
       </c>
       <c r="D76">
         <v>255</v>
       </c>
       <c r="E76">
-        <v>2060.943838383841</v>
+        <v>2452.20261306532</v>
       </c>
       <c r="F76">
-        <v>45.397619303041</v>
+        <v>49.51971943645601</v>
       </c>
       <c r="G76">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="H76">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="I76">
         <v>255</v>
       </c>
       <c r="J76">
-        <v>165</v>
+        <v>170.75</v>
       </c>
       <c r="K76">
-        <v>250</v>
+        <v>209.5</v>
       </c>
       <c r="L76">
         <v>255</v>
@@ -3303,37 +3303,37 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>21243</v>
+        <v>41200</v>
       </c>
       <c r="B77">
-        <v>212.43</v>
+        <v>206</v>
       </c>
       <c r="C77">
-        <v>251.5</v>
+        <v>202.5</v>
       </c>
       <c r="D77">
         <v>255</v>
       </c>
       <c r="E77">
-        <v>2046.95464646465</v>
+        <v>2525.025125628141</v>
       </c>
       <c r="F77">
-        <v>45.24328288779065</v>
+        <v>50.24962811432678</v>
       </c>
       <c r="G77">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="H77">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="I77">
         <v>255</v>
       </c>
       <c r="J77">
-        <v>166.75</v>
+        <v>168</v>
       </c>
       <c r="K77">
-        <v>251.5</v>
+        <v>202.5</v>
       </c>
       <c r="L77">
         <v>255</v>
@@ -3341,37 +3341,37 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
-        <v>21333</v>
+        <v>40868</v>
       </c>
       <c r="B78">
-        <v>213.33</v>
+        <v>204.34</v>
       </c>
       <c r="C78">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="D78">
         <v>255</v>
       </c>
       <c r="E78">
-        <v>2040.445555555553</v>
+        <v>2620.114974874379</v>
       </c>
       <c r="F78">
-        <v>45.1712912761585</v>
+        <v>51.18705866597903</v>
       </c>
       <c r="G78">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="H78">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="I78">
         <v>255</v>
       </c>
       <c r="J78">
-        <v>167.75</v>
+        <v>167</v>
       </c>
       <c r="K78">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="L78">
         <v>255</v>
@@ -3379,37 +3379,37 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>21439</v>
+        <v>40769</v>
       </c>
       <c r="B79">
-        <v>214.39</v>
+        <v>203.845</v>
       </c>
       <c r="C79">
-        <v>251</v>
+        <v>195.5</v>
       </c>
       <c r="D79">
         <v>255</v>
       </c>
       <c r="E79">
-        <v>2071.553434343433</v>
+        <v>2654.583894472361</v>
       </c>
       <c r="F79">
-        <v>45.51432120051263</v>
+        <v>51.52265418699196</v>
       </c>
       <c r="G79">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="H79">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="I79">
         <v>255</v>
       </c>
       <c r="J79">
-        <v>168.75</v>
+        <v>168</v>
       </c>
       <c r="K79">
-        <v>251</v>
+        <v>195.5</v>
       </c>
       <c r="L79">
         <v>255</v>
@@ -3417,37 +3417,37 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
-        <v>21537</v>
+        <v>40434</v>
       </c>
       <c r="B80">
-        <v>215.37</v>
+        <v>202.17</v>
       </c>
       <c r="C80">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="D80">
         <v>255</v>
       </c>
       <c r="E80">
-        <v>2021.245555555558</v>
+        <v>2724.061407035181</v>
       </c>
       <c r="F80">
-        <v>44.95826459679642</v>
+        <v>52.19254168015945</v>
       </c>
       <c r="G80">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="H80">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="I80">
         <v>255</v>
       </c>
       <c r="J80">
-        <v>172.75</v>
+        <v>165.75</v>
       </c>
       <c r="K80">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="L80">
         <v>255</v>
@@ -3455,37 +3455,37 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>21706</v>
+        <v>40060</v>
       </c>
       <c r="B81">
-        <v>217.06</v>
+        <v>200.3</v>
       </c>
       <c r="C81">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="D81">
         <v>255</v>
       </c>
       <c r="E81">
-        <v>1963.47111111111</v>
+        <v>2834.371859296486</v>
       </c>
       <c r="F81">
-        <v>44.31107210518733</v>
+        <v>53.23881910125812</v>
       </c>
       <c r="G81">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="H81">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="I81">
         <v>255</v>
       </c>
       <c r="J81">
-        <v>174.5</v>
+        <v>160.75</v>
       </c>
       <c r="K81">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="L81">
         <v>255</v>
@@ -3493,37 +3493,37 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>21733</v>
+        <v>39764</v>
       </c>
       <c r="B82">
-        <v>217.33</v>
+        <v>198.82</v>
       </c>
       <c r="C82">
-        <v>253</v>
+        <v>184.5</v>
       </c>
       <c r="D82">
         <v>255</v>
       </c>
       <c r="E82">
-        <v>2001.17282828283</v>
+        <v>2958.30914572865</v>
       </c>
       <c r="F82">
-        <v>44.73447024703467</v>
+        <v>54.39034055536562</v>
       </c>
       <c r="G82">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="H82">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="I82">
         <v>255</v>
       </c>
       <c r="J82">
-        <v>178</v>
+        <v>157.75</v>
       </c>
       <c r="K82">
-        <v>253</v>
+        <v>184.5</v>
       </c>
       <c r="L82">
         <v>255</v>
@@ -3531,37 +3531,37 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>21794</v>
+        <v>39749</v>
       </c>
       <c r="B83">
-        <v>217.94</v>
+        <v>198.745</v>
       </c>
       <c r="C83">
-        <v>253</v>
+        <v>192.5</v>
       </c>
       <c r="D83">
         <v>255</v>
       </c>
       <c r="E83">
-        <v>2025.087272727272</v>
+        <v>3016.40198492462</v>
       </c>
       <c r="F83">
-        <v>45.000969686522</v>
+        <v>54.92178060591826</v>
       </c>
       <c r="G83">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="H83">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="I83">
         <v>255</v>
       </c>
       <c r="J83">
-        <v>176.75</v>
+        <v>154.75</v>
       </c>
       <c r="K83">
-        <v>253</v>
+        <v>192.5</v>
       </c>
       <c r="L83">
         <v>255</v>
@@ -3569,37 +3569,37 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>21736</v>
+        <v>39609</v>
       </c>
       <c r="B84">
-        <v>217.36</v>
+        <v>198.045</v>
       </c>
       <c r="C84">
-        <v>252</v>
+        <v>193.5</v>
       </c>
       <c r="D84">
         <v>255</v>
       </c>
       <c r="E84">
-        <v>2091.06101010101</v>
+        <v>3102.595954773873</v>
       </c>
       <c r="F84">
-        <v>45.72812056165233</v>
+        <v>55.70095111193231</v>
       </c>
       <c r="G84">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="H84">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="I84">
         <v>255</v>
       </c>
       <c r="J84">
-        <v>178.75</v>
+        <v>152.5</v>
       </c>
       <c r="K84">
-        <v>252</v>
+        <v>193.5</v>
       </c>
       <c r="L84">
         <v>255</v>
@@ -3607,37 +3607,37 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>21704</v>
+        <v>39362</v>
       </c>
       <c r="B85">
-        <v>217.04</v>
+        <v>196.81</v>
       </c>
       <c r="C85">
-        <v>250.5</v>
+        <v>190.5</v>
       </c>
       <c r="D85">
         <v>255</v>
       </c>
       <c r="E85">
-        <v>2153.392323232326</v>
+        <v>3193.410954773862</v>
       </c>
       <c r="F85">
-        <v>46.40465842167493</v>
+        <v>56.5102730021176</v>
       </c>
       <c r="G85">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="H85">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="I85">
         <v>255</v>
       </c>
       <c r="J85">
-        <v>179</v>
+        <v>152.75</v>
       </c>
       <c r="K85">
-        <v>250.5</v>
+        <v>190.5</v>
       </c>
       <c r="L85">
         <v>255</v>
@@ -3645,37 +3645,37 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>21733</v>
+        <v>39011</v>
       </c>
       <c r="B86">
-        <v>217.33</v>
+        <v>195.055</v>
       </c>
       <c r="C86">
-        <v>248.5</v>
+        <v>187.5</v>
       </c>
       <c r="D86">
         <v>255</v>
       </c>
       <c r="E86">
-        <v>2209.435454545457</v>
+        <v>3300.976859296484</v>
       </c>
       <c r="F86">
-        <v>47.00463226688894</v>
+        <v>57.45412830507903</v>
       </c>
       <c r="G86">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="H86">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I86">
         <v>255</v>
       </c>
       <c r="J86">
-        <v>181.25</v>
+        <v>147</v>
       </c>
       <c r="K86">
-        <v>248.5</v>
+        <v>187.5</v>
       </c>
       <c r="L86">
         <v>255</v>
@@ -3683,37 +3683,37 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>21600</v>
+        <v>38941</v>
       </c>
       <c r="B87">
-        <v>216</v>
+        <v>194.705</v>
       </c>
       <c r="C87">
-        <v>247.5</v>
+        <v>188</v>
       </c>
       <c r="D87">
         <v>255</v>
       </c>
       <c r="E87">
-        <v>2338.484848484848</v>
+        <v>3326.369824120609</v>
       </c>
       <c r="F87">
-        <v>48.35788300251416</v>
+        <v>57.67468963176663</v>
       </c>
       <c r="G87">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="H87">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="I87">
         <v>255</v>
       </c>
       <c r="J87">
-        <v>175.75</v>
+        <v>152</v>
       </c>
       <c r="K87">
-        <v>247.5</v>
+        <v>188</v>
       </c>
       <c r="L87">
         <v>255</v>
@@ -3721,37 +3721,37 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>21421</v>
+        <v>38791</v>
       </c>
       <c r="B88">
-        <v>214.21</v>
+        <v>193.955</v>
       </c>
       <c r="C88">
-        <v>245.5</v>
+        <v>186.5</v>
       </c>
       <c r="D88">
         <v>255</v>
       </c>
       <c r="E88">
-        <v>2584.854444444445</v>
+        <v>3376.96781407036</v>
       </c>
       <c r="F88">
-        <v>50.84146383066133</v>
+        <v>58.11168397207536</v>
       </c>
       <c r="G88">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="H88">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="I88">
         <v>255</v>
       </c>
       <c r="J88">
-        <v>170.75</v>
+        <v>150.75</v>
       </c>
       <c r="K88">
-        <v>245.5</v>
+        <v>186.5</v>
       </c>
       <c r="L88">
         <v>255</v>
@@ -3759,37 +3759,37 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>21210</v>
+        <v>38613</v>
       </c>
       <c r="B89">
-        <v>212.1</v>
+        <v>193.065</v>
       </c>
       <c r="C89">
-        <v>245</v>
+        <v>186.5</v>
       </c>
       <c r="D89">
         <v>255</v>
       </c>
       <c r="E89">
-        <v>2899.303030303026</v>
+        <v>3451.799773869343</v>
       </c>
       <c r="F89">
-        <v>53.84517648130635</v>
+        <v>58.75201931737617</v>
       </c>
       <c r="G89">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="H89">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I89">
         <v>255</v>
       </c>
       <c r="J89">
-        <v>169.75</v>
+        <v>142</v>
       </c>
       <c r="K89">
-        <v>245</v>
+        <v>186.5</v>
       </c>
       <c r="L89">
         <v>255</v>
@@ -3797,37 +3797,37 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
-        <v>20927</v>
+        <v>38439</v>
       </c>
       <c r="B90">
-        <v>209.27</v>
+        <v>192.195</v>
       </c>
       <c r="C90">
-        <v>244.5</v>
+        <v>186</v>
       </c>
       <c r="D90">
         <v>255</v>
       </c>
       <c r="E90">
-        <v>3225.613232323234</v>
+        <v>3505.383894472352</v>
       </c>
       <c r="F90">
-        <v>56.7944824109106</v>
+        <v>59.20628255913685</v>
       </c>
       <c r="G90">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H90">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I90">
         <v>255</v>
       </c>
       <c r="J90">
-        <v>173</v>
+        <v>135.75</v>
       </c>
       <c r="K90">
-        <v>244.5</v>
+        <v>186</v>
       </c>
       <c r="L90">
         <v>255</v>
@@ -3835,22 +3835,22 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>20535</v>
+        <v>38240</v>
       </c>
       <c r="B91">
-        <v>205.35</v>
+        <v>191.2</v>
       </c>
       <c r="C91">
-        <v>246</v>
+        <v>187.5</v>
       </c>
       <c r="D91">
         <v>255</v>
       </c>
       <c r="E91">
-        <v>3667.744949494949</v>
+        <v>3618.592964824108</v>
       </c>
       <c r="F91">
-        <v>60.56191005487648</v>
+        <v>60.15474183158056</v>
       </c>
       <c r="G91">
         <v>182</v>
@@ -3862,10 +3862,10 @@
         <v>255</v>
       </c>
       <c r="J91">
-        <v>166.75</v>
+        <v>133</v>
       </c>
       <c r="K91">
-        <v>246</v>
+        <v>187.5</v>
       </c>
       <c r="L91">
         <v>255</v>
@@ -3873,37 +3873,37 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>20246</v>
+        <v>38090</v>
       </c>
       <c r="B92">
-        <v>202.46</v>
+        <v>190.45</v>
       </c>
       <c r="C92">
-        <v>248.5</v>
+        <v>189</v>
       </c>
       <c r="D92">
         <v>255</v>
       </c>
       <c r="E92">
-        <v>4076.412525252516</v>
+        <v>3722.329145728649</v>
       </c>
       <c r="F92">
-        <v>63.84678946707122</v>
+        <v>61.01089366439938</v>
       </c>
       <c r="G92">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H92">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I92">
         <v>255</v>
       </c>
       <c r="J92">
-        <v>163.75</v>
+        <v>131</v>
       </c>
       <c r="K92">
-        <v>248.5</v>
+        <v>189</v>
       </c>
       <c r="L92">
         <v>255</v>
@@ -3911,37 +3911,37 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>20039</v>
+        <v>37999</v>
       </c>
       <c r="B93">
-        <v>200.39</v>
+        <v>189.995</v>
       </c>
       <c r="C93">
-        <v>251</v>
+        <v>190.5</v>
       </c>
       <c r="D93">
         <v>255</v>
       </c>
       <c r="E93">
-        <v>4415.209999999995</v>
+        <v>3784.718567839192</v>
       </c>
       <c r="F93">
-        <v>66.44704658598451</v>
+        <v>61.5200663835727</v>
       </c>
       <c r="G93">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H93">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I93">
         <v>255</v>
       </c>
       <c r="J93">
-        <v>150.75</v>
+        <v>130</v>
       </c>
       <c r="K93">
-        <v>251</v>
+        <v>190.5</v>
       </c>
       <c r="L93">
         <v>255</v>
@@ -3949,37 +3949,37 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>19934</v>
+        <v>37969</v>
       </c>
       <c r="B94">
-        <v>199.34</v>
+        <v>189.845</v>
       </c>
       <c r="C94">
-        <v>252</v>
+        <v>190.5</v>
       </c>
       <c r="D94">
         <v>255</v>
       </c>
       <c r="E94">
-        <v>4686.24686868687</v>
+        <v>3787.880376884411</v>
       </c>
       <c r="F94">
-        <v>68.45616749926094</v>
+        <v>61.54575839880772</v>
       </c>
       <c r="G94">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H94">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I94">
         <v>255</v>
       </c>
       <c r="J94">
-        <v>132.75</v>
+        <v>130</v>
       </c>
       <c r="K94">
-        <v>252</v>
+        <v>190.5</v>
       </c>
       <c r="L94">
         <v>255</v>
@@ -3987,37 +3987,37 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95">
-        <v>19878</v>
+        <v>37869</v>
       </c>
       <c r="B95">
-        <v>198.78</v>
+        <v>189.345</v>
       </c>
       <c r="C95">
-        <v>253</v>
+        <v>191.5</v>
       </c>
       <c r="D95">
         <v>255</v>
       </c>
       <c r="E95">
-        <v>5047.648080808076</v>
+        <v>3828.367814070348</v>
       </c>
       <c r="F95">
-        <v>71.04680204490612</v>
+        <v>61.87380555671639</v>
       </c>
       <c r="G95">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H95">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I95">
         <v>255</v>
       </c>
       <c r="J95">
-        <v>116.75</v>
+        <v>128</v>
       </c>
       <c r="K95">
-        <v>253</v>
+        <v>191.5</v>
       </c>
       <c r="L95">
         <v>255</v>
@@ -4025,37 +4025,37 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
-        <v>20284</v>
+        <v>37674</v>
       </c>
       <c r="B96">
-        <v>202.84</v>
+        <v>188.37</v>
       </c>
       <c r="C96">
-        <v>253.5</v>
+        <v>189.5</v>
       </c>
       <c r="D96">
         <v>255</v>
       </c>
       <c r="E96">
-        <v>4900.560000000004</v>
+        <v>3913.621206030143</v>
       </c>
       <c r="F96">
-        <v>70.00399988572084</v>
+        <v>62.55894185510288</v>
       </c>
       <c r="G96">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H96">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I96">
         <v>255</v>
       </c>
       <c r="J96">
-        <v>117.5</v>
+        <v>127</v>
       </c>
       <c r="K96">
-        <v>253.5</v>
+        <v>189.5</v>
       </c>
       <c r="L96">
         <v>255</v>
@@ -4063,37 +4063,37 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97">
-        <v>21027</v>
+        <v>37445</v>
       </c>
       <c r="B97">
-        <v>210.27</v>
+        <v>187.225</v>
       </c>
       <c r="C97">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="D97">
         <v>255</v>
       </c>
       <c r="E97">
-        <v>4211.956666666663</v>
+        <v>4027.491834170869</v>
       </c>
       <c r="F97">
-        <v>64.89958911015279</v>
+        <v>63.46252306811374</v>
       </c>
       <c r="G97">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="H97">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I97">
         <v>255</v>
       </c>
       <c r="J97">
-        <v>156</v>
+        <v>123.75</v>
       </c>
       <c r="K97">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="L97">
         <v>255</v>
@@ -4101,37 +4101,37 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98">
-        <v>21923</v>
+        <v>37233</v>
       </c>
       <c r="B98">
-        <v>219.23</v>
+        <v>186.165</v>
       </c>
       <c r="C98">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="D98">
         <v>255</v>
       </c>
       <c r="E98">
-        <v>3187.188989898993</v>
+        <v>4108.279170854258</v>
       </c>
       <c r="F98">
-        <v>56.45519453424099</v>
+        <v>64.09585923329415</v>
       </c>
       <c r="G98">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="H98">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I98">
         <v>255</v>
       </c>
       <c r="J98">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="K98">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="L98">
         <v>255</v>
@@ -4139,37 +4139,37 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99">
-        <v>23316</v>
+        <v>37163</v>
       </c>
       <c r="B99">
-        <v>233.16</v>
+        <v>185.815</v>
       </c>
       <c r="C99">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="D99">
         <v>255</v>
       </c>
       <c r="E99">
-        <v>1401.73171717172</v>
+        <v>4143.950527638185</v>
       </c>
       <c r="F99">
-        <v>37.43970776023392</v>
+        <v>64.37352349870392</v>
       </c>
       <c r="G99">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="H99">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="I99">
         <v>255</v>
       </c>
       <c r="J99">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="K99">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="L99">
         <v>255</v>
@@ -4177,37 +4177,37 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100">
-        <v>24434</v>
+        <v>37053</v>
       </c>
       <c r="B100">
-        <v>244.34</v>
+        <v>185.265</v>
       </c>
       <c r="C100">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="D100">
         <v>255</v>
       </c>
       <c r="E100">
-        <v>346.7317171717178</v>
+        <v>4182.075150753784</v>
       </c>
       <c r="F100">
-        <v>18.62073352936768</v>
+        <v>64.66896590137949</v>
       </c>
       <c r="G100">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="H100">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="I100">
         <v>255</v>
       </c>
       <c r="J100">
-        <v>242.75</v>
+        <v>120</v>
       </c>
       <c r="K100">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="L100">
         <v>255</v>
@@ -4215,39 +4215,3839 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101">
-        <v>25025</v>
+        <v>36909</v>
       </c>
       <c r="B101">
-        <v>250.25</v>
+        <v>184.545</v>
       </c>
       <c r="C101">
-        <v>255</v>
+        <v>178.5</v>
       </c>
       <c r="D101">
         <v>255</v>
       </c>
       <c r="E101">
-        <v>82.75505050505051</v>
+        <v>4198.791934673359</v>
       </c>
       <c r="F101">
-        <v>9.096980295958133</v>
+        <v>64.79808588741923</v>
       </c>
       <c r="G101">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="H101">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="I101">
         <v>255</v>
       </c>
       <c r="J101">
+        <v>121</v>
+      </c>
+      <c r="K101">
+        <v>178.5</v>
+      </c>
+      <c r="L101">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>36802</v>
+      </c>
+      <c r="B102">
+        <v>184.01</v>
+      </c>
+      <c r="C102">
+        <v>175.5</v>
+      </c>
+      <c r="D102">
+        <v>255</v>
+      </c>
+      <c r="E102">
+        <v>4233.698391959803</v>
+      </c>
+      <c r="F102">
+        <v>65.0668763039982</v>
+      </c>
+      <c r="G102">
+        <v>193</v>
+      </c>
+      <c r="H102">
+        <v>62</v>
+      </c>
+      <c r="I102">
+        <v>255</v>
+      </c>
+      <c r="J102">
+        <v>121</v>
+      </c>
+      <c r="K102">
+        <v>175.5</v>
+      </c>
+      <c r="L102">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>36759</v>
+      </c>
+      <c r="B103">
+        <v>183.795</v>
+      </c>
+      <c r="C103">
+        <v>175.5</v>
+      </c>
+      <c r="D103">
+        <v>255</v>
+      </c>
+      <c r="E103">
+        <v>4230.093442211046</v>
+      </c>
+      <c r="F103">
+        <v>65.03916852336786</v>
+      </c>
+      <c r="G103">
+        <v>194</v>
+      </c>
+      <c r="H103">
+        <v>61</v>
+      </c>
+      <c r="I103">
+        <v>255</v>
+      </c>
+      <c r="J103">
+        <v>121</v>
+      </c>
+      <c r="K103">
+        <v>175.5</v>
+      </c>
+      <c r="L103">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>36701</v>
+      </c>
+      <c r="B104">
+        <v>183.505</v>
+      </c>
+      <c r="C104">
+        <v>171</v>
+      </c>
+      <c r="D104">
+        <v>255</v>
+      </c>
+      <c r="E104">
+        <v>4227.437160804019</v>
+      </c>
+      <c r="F104">
+        <v>65.01874468800531</v>
+      </c>
+      <c r="G104">
+        <v>195</v>
+      </c>
+      <c r="H104">
+        <v>60</v>
+      </c>
+      <c r="I104">
+        <v>255</v>
+      </c>
+      <c r="J104">
+        <v>120.75</v>
+      </c>
+      <c r="K104">
+        <v>171</v>
+      </c>
+      <c r="L104">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>36607</v>
+      </c>
+      <c r="B105">
+        <v>183.035</v>
+      </c>
+      <c r="C105">
+        <v>166.5</v>
+      </c>
+      <c r="D105">
+        <v>255</v>
+      </c>
+      <c r="E105">
+        <v>4236.506306532657</v>
+      </c>
+      <c r="F105">
+        <v>65.08844987040833</v>
+      </c>
+      <c r="G105">
+        <v>195</v>
+      </c>
+      <c r="H105">
+        <v>60</v>
+      </c>
+      <c r="I105">
+        <v>255</v>
+      </c>
+      <c r="J105">
+        <v>120.75</v>
+      </c>
+      <c r="K105">
+        <v>166.5</v>
+      </c>
+      <c r="L105">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>36455</v>
+      </c>
+      <c r="B106">
+        <v>182.275</v>
+      </c>
+      <c r="C106">
+        <v>164.5</v>
+      </c>
+      <c r="D106">
+        <v>255</v>
+      </c>
+      <c r="E106">
+        <v>4294.451633165841</v>
+      </c>
+      <c r="F106">
+        <v>65.53206568669906</v>
+      </c>
+      <c r="G106">
+        <v>196</v>
+      </c>
+      <c r="H106">
+        <v>59</v>
+      </c>
+      <c r="I106">
+        <v>255</v>
+      </c>
+      <c r="J106">
+        <v>119</v>
+      </c>
+      <c r="K106">
+        <v>164.5</v>
+      </c>
+      <c r="L106">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>36315</v>
+      </c>
+      <c r="B107">
+        <v>181.575</v>
+      </c>
+      <c r="C107">
+        <v>166</v>
+      </c>
+      <c r="D107">
+        <v>255</v>
+      </c>
+      <c r="E107">
+        <v>4360.587311557778</v>
+      </c>
+      <c r="F107">
+        <v>66.03474321565714</v>
+      </c>
+      <c r="G107">
+        <v>196</v>
+      </c>
+      <c r="H107">
+        <v>59</v>
+      </c>
+      <c r="I107">
+        <v>255</v>
+      </c>
+      <c r="J107">
+        <v>118.75</v>
+      </c>
+      <c r="K107">
+        <v>166</v>
+      </c>
+      <c r="L107">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>36178</v>
+      </c>
+      <c r="B108">
+        <v>180.89</v>
+      </c>
+      <c r="C108">
+        <v>163.5</v>
+      </c>
+      <c r="D108">
+        <v>255</v>
+      </c>
+      <c r="E108">
+        <v>4414.460201005015</v>
+      </c>
+      <c r="F108">
+        <v>66.44140426725653</v>
+      </c>
+      <c r="G108">
+        <v>196</v>
+      </c>
+      <c r="H108">
+        <v>59</v>
+      </c>
+      <c r="I108">
+        <v>255</v>
+      </c>
+      <c r="J108">
+        <v>119</v>
+      </c>
+      <c r="K108">
+        <v>163.5</v>
+      </c>
+      <c r="L108">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>36039</v>
+      </c>
+      <c r="B109">
+        <v>180.195</v>
+      </c>
+      <c r="C109">
+        <v>160.5</v>
+      </c>
+      <c r="D109">
+        <v>255</v>
+      </c>
+      <c r="E109">
+        <v>4448.620075376887</v>
+      </c>
+      <c r="F109">
+        <v>66.69797654634574</v>
+      </c>
+      <c r="G109">
+        <v>195</v>
+      </c>
+      <c r="H109">
+        <v>60</v>
+      </c>
+      <c r="I109">
+        <v>255</v>
+      </c>
+      <c r="J109">
+        <v>117.75</v>
+      </c>
+      <c r="K109">
+        <v>160.5</v>
+      </c>
+      <c r="L109">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>35868</v>
+      </c>
+      <c r="B110">
+        <v>179.34</v>
+      </c>
+      <c r="C110">
+        <v>155.5</v>
+      </c>
+      <c r="D110">
+        <v>255</v>
+      </c>
+      <c r="E110">
+        <v>4492.908944723608</v>
+      </c>
+      <c r="F110">
+        <v>67.02916488159171</v>
+      </c>
+      <c r="G110">
+        <v>197</v>
+      </c>
+      <c r="H110">
+        <v>58</v>
+      </c>
+      <c r="I110">
+        <v>255</v>
+      </c>
+      <c r="J110">
+        <v>116</v>
+      </c>
+      <c r="K110">
+        <v>155.5</v>
+      </c>
+      <c r="L110">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>35827</v>
+      </c>
+      <c r="B111">
+        <v>179.135</v>
+      </c>
+      <c r="C111">
+        <v>154</v>
+      </c>
+      <c r="D111">
+        <v>255</v>
+      </c>
+      <c r="E111">
+        <v>4507.594748743712</v>
+      </c>
+      <c r="F111">
+        <v>67.13862337539929</v>
+      </c>
+      <c r="G111">
+        <v>195</v>
+      </c>
+      <c r="H111">
+        <v>60</v>
+      </c>
+      <c r="I111">
+        <v>255</v>
+      </c>
+      <c r="J111">
+        <v>116</v>
+      </c>
+      <c r="K111">
+        <v>154</v>
+      </c>
+      <c r="L111">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>35852</v>
+      </c>
+      <c r="B112">
+        <v>179.26</v>
+      </c>
+      <c r="C112">
+        <v>151.5</v>
+      </c>
+      <c r="D112">
+        <v>255</v>
+      </c>
+      <c r="E112">
+        <v>4503.379296482422</v>
+      </c>
+      <c r="F112">
+        <v>67.10722238688189</v>
+      </c>
+      <c r="G112">
+        <v>192</v>
+      </c>
+      <c r="H112">
+        <v>63</v>
+      </c>
+      <c r="I112">
+        <v>255</v>
+      </c>
+      <c r="J112">
+        <v>117.75</v>
+      </c>
+      <c r="K112">
+        <v>151.5</v>
+      </c>
+      <c r="L112">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>35884</v>
+      </c>
+      <c r="B113">
+        <v>179.42</v>
+      </c>
+      <c r="C113">
+        <v>153</v>
+      </c>
+      <c r="D113">
+        <v>255</v>
+      </c>
+      <c r="E113">
+        <v>4504.687035175886</v>
+      </c>
+      <c r="F113">
+        <v>67.11696533050258</v>
+      </c>
+      <c r="G113">
+        <v>189</v>
+      </c>
+      <c r="H113">
+        <v>66</v>
+      </c>
+      <c r="I113">
+        <v>255</v>
+      </c>
+      <c r="J113">
+        <v>118.75</v>
+      </c>
+      <c r="K113">
+        <v>153</v>
+      </c>
+      <c r="L113">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>35924</v>
+      </c>
+      <c r="B114">
+        <v>179.62</v>
+      </c>
+      <c r="C114">
+        <v>155</v>
+      </c>
+      <c r="D114">
+        <v>255</v>
+      </c>
+      <c r="E114">
+        <v>4480.809648241204</v>
+      </c>
+      <c r="F114">
+        <v>66.93885006661829</v>
+      </c>
+      <c r="G114">
+        <v>191</v>
+      </c>
+      <c r="H114">
+        <v>64</v>
+      </c>
+      <c r="I114">
+        <v>255</v>
+      </c>
+      <c r="J114">
+        <v>118</v>
+      </c>
+      <c r="K114">
+        <v>155</v>
+      </c>
+      <c r="L114">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>35964</v>
+      </c>
+      <c r="B115">
+        <v>179.82</v>
+      </c>
+      <c r="C115">
+        <v>152</v>
+      </c>
+      <c r="D115">
+        <v>255</v>
+      </c>
+      <c r="E115">
+        <v>4463.083015075381</v>
+      </c>
+      <c r="F115">
+        <v>66.8063096950833</v>
+      </c>
+      <c r="G115">
+        <v>193</v>
+      </c>
+      <c r="H115">
+        <v>62</v>
+      </c>
+      <c r="I115">
+        <v>255</v>
+      </c>
+      <c r="J115">
+        <v>118</v>
+      </c>
+      <c r="K115">
+        <v>152</v>
+      </c>
+      <c r="L115">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>36031</v>
+      </c>
+      <c r="B116">
+        <v>180.155</v>
+      </c>
+      <c r="C116">
+        <v>151.5</v>
+      </c>
+      <c r="D116">
+        <v>255</v>
+      </c>
+      <c r="E116">
+        <v>4431.026105527654</v>
+      </c>
+      <c r="F116">
+        <v>66.56595305054721</v>
+      </c>
+      <c r="G116">
+        <v>195</v>
+      </c>
+      <c r="H116">
+        <v>60</v>
+      </c>
+      <c r="I116">
+        <v>255</v>
+      </c>
+      <c r="J116">
+        <v>118.75</v>
+      </c>
+      <c r="K116">
+        <v>151.5</v>
+      </c>
+      <c r="L116">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>36130</v>
+      </c>
+      <c r="B117">
+        <v>180.65</v>
+      </c>
+      <c r="C117">
+        <v>152</v>
+      </c>
+      <c r="D117">
+        <v>255</v>
+      </c>
+      <c r="E117">
+        <v>4372.761306532657</v>
+      </c>
+      <c r="F117">
+        <v>66.12685767925659</v>
+      </c>
+      <c r="G117">
+        <v>193</v>
+      </c>
+      <c r="H117">
+        <v>62</v>
+      </c>
+      <c r="I117">
+        <v>255</v>
+      </c>
+      <c r="J117">
+        <v>120</v>
+      </c>
+      <c r="K117">
+        <v>152</v>
+      </c>
+      <c r="L117">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>36219</v>
+      </c>
+      <c r="B118">
+        <v>181.095</v>
+      </c>
+      <c r="C118">
+        <v>150.5</v>
+      </c>
+      <c r="D118">
+        <v>255</v>
+      </c>
+      <c r="E118">
+        <v>4316.52861809045</v>
+      </c>
+      <c r="F118">
+        <v>65.70029389653024</v>
+      </c>
+      <c r="G118">
+        <v>191</v>
+      </c>
+      <c r="H118">
+        <v>64</v>
+      </c>
+      <c r="I118">
+        <v>255</v>
+      </c>
+      <c r="J118">
+        <v>121</v>
+      </c>
+      <c r="K118">
+        <v>150.5</v>
+      </c>
+      <c r="L118">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>36328</v>
+      </c>
+      <c r="B119">
+        <v>181.64</v>
+      </c>
+      <c r="C119">
+        <v>147</v>
+      </c>
+      <c r="D119">
+        <v>255</v>
+      </c>
+      <c r="E119">
+        <v>4277.367236180916</v>
+      </c>
+      <c r="F119">
+        <v>65.40158435528085</v>
+      </c>
+      <c r="G119">
+        <v>189</v>
+      </c>
+      <c r="H119">
+        <v>66</v>
+      </c>
+      <c r="I119">
+        <v>255</v>
+      </c>
+      <c r="J119">
+        <v>123</v>
+      </c>
+      <c r="K119">
+        <v>147</v>
+      </c>
+      <c r="L119">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>36419</v>
+      </c>
+      <c r="B120">
+        <v>182.095</v>
+      </c>
+      <c r="C120">
+        <v>146.5</v>
+      </c>
+      <c r="D120">
+        <v>255</v>
+      </c>
+      <c r="E120">
+        <v>4236.397964824132</v>
+      </c>
+      <c r="F120">
+        <v>65.08761759984868</v>
+      </c>
+      <c r="G120">
+        <v>187</v>
+      </c>
+      <c r="H120">
+        <v>68</v>
+      </c>
+      <c r="I120">
+        <v>255</v>
+      </c>
+      <c r="J120">
+        <v>123</v>
+      </c>
+      <c r="K120">
+        <v>146.5</v>
+      </c>
+      <c r="L120">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <v>36498</v>
+      </c>
+      <c r="B121">
+        <v>182.49</v>
+      </c>
+      <c r="C121">
+        <v>147.5</v>
+      </c>
+      <c r="D121">
+        <v>255</v>
+      </c>
+      <c r="E121">
+        <v>4177.40693467337</v>
+      </c>
+      <c r="F121">
+        <v>64.63286265262718</v>
+      </c>
+      <c r="G121">
+        <v>186</v>
+      </c>
+      <c r="H121">
+        <v>69</v>
+      </c>
+      <c r="I121">
+        <v>255</v>
+      </c>
+      <c r="J121">
+        <v>125</v>
+      </c>
+      <c r="K121">
+        <v>147.5</v>
+      </c>
+      <c r="L121">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>36647</v>
+      </c>
+      <c r="B122">
+        <v>183.235</v>
+      </c>
+      <c r="C122">
+        <v>148.5</v>
+      </c>
+      <c r="D122">
+        <v>255</v>
+      </c>
+      <c r="E122">
+        <v>4093.688216080413</v>
+      </c>
+      <c r="F122">
+        <v>63.98193663902659</v>
+      </c>
+      <c r="G122">
+        <v>185</v>
+      </c>
+      <c r="H122">
+        <v>70</v>
+      </c>
+      <c r="I122">
+        <v>255</v>
+      </c>
+      <c r="J122">
+        <v>125.75</v>
+      </c>
+      <c r="K122">
+        <v>148.5</v>
+      </c>
+      <c r="L122">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>36806</v>
+      </c>
+      <c r="B123">
+        <v>184.03</v>
+      </c>
+      <c r="C123">
+        <v>148</v>
+      </c>
+      <c r="D123">
+        <v>255</v>
+      </c>
+      <c r="E123">
+        <v>4016.803115577885</v>
+      </c>
+      <c r="F123">
+        <v>63.37825427998064</v>
+      </c>
+      <c r="G123">
+        <v>181</v>
+      </c>
+      <c r="H123">
+        <v>74</v>
+      </c>
+      <c r="I123">
+        <v>255</v>
+      </c>
+      <c r="J123">
+        <v>125</v>
+      </c>
+      <c r="K123">
+        <v>148</v>
+      </c>
+      <c r="L123">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124">
+        <v>36950</v>
+      </c>
+      <c r="B124">
+        <v>184.75</v>
+      </c>
+      <c r="C124">
+        <v>149</v>
+      </c>
+      <c r="D124">
+        <v>255</v>
+      </c>
+      <c r="E124">
+        <v>3967.143216080402</v>
+      </c>
+      <c r="F124">
+        <v>62.98526189578322</v>
+      </c>
+      <c r="G124">
+        <v>177</v>
+      </c>
+      <c r="H124">
+        <v>78</v>
+      </c>
+      <c r="I124">
+        <v>255</v>
+      </c>
+      <c r="J124">
+        <v>125.75</v>
+      </c>
+      <c r="K124">
+        <v>149</v>
+      </c>
+      <c r="L124">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125">
+        <v>37047</v>
+      </c>
+      <c r="B125">
+        <v>185.235</v>
+      </c>
+      <c r="C125">
+        <v>149</v>
+      </c>
+      <c r="D125">
+        <v>255</v>
+      </c>
+      <c r="E125">
+        <v>3937.266105527636</v>
+      </c>
+      <c r="F125">
+        <v>62.74763824661161</v>
+      </c>
+      <c r="G125">
+        <v>174</v>
+      </c>
+      <c r="H125">
+        <v>81</v>
+      </c>
+      <c r="I125">
+        <v>255</v>
+      </c>
+      <c r="J125">
+        <v>126</v>
+      </c>
+      <c r="K125">
+        <v>149</v>
+      </c>
+      <c r="L125">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126">
+        <v>37217</v>
+      </c>
+      <c r="B126">
+        <v>186.085</v>
+      </c>
+      <c r="C126">
+        <v>150.5</v>
+      </c>
+      <c r="D126">
+        <v>255</v>
+      </c>
+      <c r="E126">
+        <v>3884.530427135671</v>
+      </c>
+      <c r="F126">
+        <v>62.32600121246085</v>
+      </c>
+      <c r="G126">
+        <v>175</v>
+      </c>
+      <c r="H126">
+        <v>80</v>
+      </c>
+      <c r="I126">
+        <v>255</v>
+      </c>
+      <c r="J126">
+        <v>127</v>
+      </c>
+      <c r="K126">
+        <v>150.5</v>
+      </c>
+      <c r="L126">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127">
+        <v>37445</v>
+      </c>
+      <c r="B127">
+        <v>187.225</v>
+      </c>
+      <c r="C127">
+        <v>151</v>
+      </c>
+      <c r="D127">
+        <v>255</v>
+      </c>
+      <c r="E127">
+        <v>3781.743090452275</v>
+      </c>
+      <c r="F127">
+        <v>61.49587864607087</v>
+      </c>
+      <c r="G127">
+        <v>175</v>
+      </c>
+      <c r="H127">
+        <v>80</v>
+      </c>
+      <c r="I127">
+        <v>255</v>
+      </c>
+      <c r="J127">
+        <v>129.75</v>
+      </c>
+      <c r="K127">
+        <v>151</v>
+      </c>
+      <c r="L127">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128">
+        <v>37754</v>
+      </c>
+      <c r="B128">
+        <v>188.77</v>
+      </c>
+      <c r="C128">
+        <v>154.5</v>
+      </c>
+      <c r="D128">
+        <v>255</v>
+      </c>
+      <c r="E128">
+        <v>3640.801105527637</v>
+      </c>
+      <c r="F128">
+        <v>60.33905124815634</v>
+      </c>
+      <c r="G128">
+        <v>168</v>
+      </c>
+      <c r="H128">
+        <v>87</v>
+      </c>
+      <c r="I128">
+        <v>255</v>
+      </c>
+      <c r="J128">
+        <v>133</v>
+      </c>
+      <c r="K128">
+        <v>154.5</v>
+      </c>
+      <c r="L128">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>38134</v>
+      </c>
+      <c r="B129">
+        <v>190.67</v>
+      </c>
+      <c r="C129">
+        <v>160.5</v>
+      </c>
+      <c r="D129">
+        <v>255</v>
+      </c>
+      <c r="E129">
+        <v>3488.393065326628</v>
+      </c>
+      <c r="F129">
+        <v>59.06261986507734</v>
+      </c>
+      <c r="G129">
+        <v>142</v>
+      </c>
+      <c r="H129">
+        <v>113</v>
+      </c>
+      <c r="I129">
+        <v>255</v>
+      </c>
+      <c r="J129">
+        <v>136.75</v>
+      </c>
+      <c r="K129">
+        <v>160.5</v>
+      </c>
+      <c r="L129">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>38415</v>
+      </c>
+      <c r="B130">
+        <v>192.075</v>
+      </c>
+      <c r="C130">
+        <v>163</v>
+      </c>
+      <c r="D130">
+        <v>255</v>
+      </c>
+      <c r="E130">
+        <v>3373.446608040209</v>
+      </c>
+      <c r="F130">
+        <v>58.08137918507281</v>
+      </c>
+      <c r="G130">
+        <v>138</v>
+      </c>
+      <c r="H130">
+        <v>117</v>
+      </c>
+      <c r="I130">
+        <v>255</v>
+      </c>
+      <c r="J130">
+        <v>139</v>
+      </c>
+      <c r="K130">
+        <v>163</v>
+      </c>
+      <c r="L130">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>38717</v>
+      </c>
+      <c r="B131">
+        <v>193.585</v>
+      </c>
+      <c r="C131">
+        <v>164.5</v>
+      </c>
+      <c r="D131">
+        <v>255</v>
+      </c>
+      <c r="E131">
+        <v>3258.33444723618</v>
+      </c>
+      <c r="F131">
+        <v>57.08182238888471</v>
+      </c>
+      <c r="G131">
+        <v>137</v>
+      </c>
+      <c r="H131">
+        <v>118</v>
+      </c>
+      <c r="I131">
+        <v>255</v>
+      </c>
+      <c r="J131">
+        <v>140.75</v>
+      </c>
+      <c r="K131">
+        <v>164.5</v>
+      </c>
+      <c r="L131">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>39041</v>
+      </c>
+      <c r="B132">
+        <v>195.205</v>
+      </c>
+      <c r="C132">
+        <v>166.5</v>
+      </c>
+      <c r="D132">
+        <v>255</v>
+      </c>
+      <c r="E132">
+        <v>3142.505502512563</v>
+      </c>
+      <c r="F132">
+        <v>56.05805475141429</v>
+      </c>
+      <c r="G132">
+        <v>137</v>
+      </c>
+      <c r="H132">
+        <v>118</v>
+      </c>
+      <c r="I132">
+        <v>255</v>
+      </c>
+      <c r="J132">
+        <v>144</v>
+      </c>
+      <c r="K132">
+        <v>166.5</v>
+      </c>
+      <c r="L132">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>39196</v>
+      </c>
+      <c r="B133">
+        <v>195.98</v>
+      </c>
+      <c r="C133">
+        <v>168.5</v>
+      </c>
+      <c r="D133">
+        <v>255</v>
+      </c>
+      <c r="E133">
+        <v>3070.371457286434</v>
+      </c>
+      <c r="F133">
+        <v>55.41093265129575</v>
+      </c>
+      <c r="G133">
+        <v>135</v>
+      </c>
+      <c r="H133">
+        <v>120</v>
+      </c>
+      <c r="I133">
+        <v>255</v>
+      </c>
+      <c r="J133">
+        <v>145</v>
+      </c>
+      <c r="K133">
+        <v>168.5</v>
+      </c>
+      <c r="L133">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>39426</v>
+      </c>
+      <c r="B134">
+        <v>197.13</v>
+      </c>
+      <c r="C134">
+        <v>171</v>
+      </c>
+      <c r="D134">
+        <v>255</v>
+      </c>
+      <c r="E134">
+        <v>2987.701608040193</v>
+      </c>
+      <c r="F134">
+        <v>54.65987200899937</v>
+      </c>
+      <c r="G134">
+        <v>130</v>
+      </c>
+      <c r="H134">
+        <v>125</v>
+      </c>
+      <c r="I134">
+        <v>255</v>
+      </c>
+      <c r="J134">
+        <v>144</v>
+      </c>
+      <c r="K134">
+        <v>171</v>
+      </c>
+      <c r="L134">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>39685</v>
+      </c>
+      <c r="B135">
+        <v>198.425</v>
+      </c>
+      <c r="C135">
+        <v>175</v>
+      </c>
+      <c r="D135">
+        <v>255</v>
+      </c>
+      <c r="E135">
+        <v>2904.838567839198</v>
+      </c>
+      <c r="F135">
+        <v>53.89655432250932</v>
+      </c>
+      <c r="G135">
+        <v>127</v>
+      </c>
+      <c r="H135">
+        <v>128</v>
+      </c>
+      <c r="I135">
+        <v>255</v>
+      </c>
+      <c r="J135">
+        <v>144.75</v>
+      </c>
+      <c r="K135">
+        <v>175</v>
+      </c>
+      <c r="L135">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>39924</v>
+      </c>
+      <c r="B136">
+        <v>199.62</v>
+      </c>
+      <c r="C136">
+        <v>179</v>
+      </c>
+      <c r="D136">
+        <v>255</v>
+      </c>
+      <c r="E136">
+        <v>2819.623718592963</v>
+      </c>
+      <c r="F136">
+        <v>53.1001291768011</v>
+      </c>
+      <c r="G136">
+        <v>126</v>
+      </c>
+      <c r="H136">
+        <v>129</v>
+      </c>
+      <c r="I136">
+        <v>255</v>
+      </c>
+      <c r="J136">
+        <v>146.75</v>
+      </c>
+      <c r="K136">
+        <v>179</v>
+      </c>
+      <c r="L136">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>40096</v>
+      </c>
+      <c r="B137">
+        <v>200.48</v>
+      </c>
+      <c r="C137">
+        <v>181</v>
+      </c>
+      <c r="D137">
+        <v>255</v>
+      </c>
+      <c r="E137">
+        <v>2761.778492462311</v>
+      </c>
+      <c r="F137">
+        <v>52.55262593308075</v>
+      </c>
+      <c r="G137">
+        <v>126</v>
+      </c>
+      <c r="H137">
+        <v>129</v>
+      </c>
+      <c r="I137">
+        <v>255</v>
+      </c>
+      <c r="J137">
+        <v>147</v>
+      </c>
+      <c r="K137">
+        <v>181</v>
+      </c>
+      <c r="L137">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>40278</v>
+      </c>
+      <c r="B138">
+        <v>201.39</v>
+      </c>
+      <c r="C138">
+        <v>185.5</v>
+      </c>
+      <c r="D138">
+        <v>255</v>
+      </c>
+      <c r="E138">
+        <v>2706.952663316583</v>
+      </c>
+      <c r="F138">
+        <v>52.02838324719098</v>
+      </c>
+      <c r="G138">
+        <v>127</v>
+      </c>
+      <c r="H138">
+        <v>128</v>
+      </c>
+      <c r="I138">
+        <v>255</v>
+      </c>
+      <c r="J138">
+        <v>149</v>
+      </c>
+      <c r="K138">
+        <v>185.5</v>
+      </c>
+      <c r="L138">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>40468</v>
+      </c>
+      <c r="B139">
+        <v>202.34</v>
+      </c>
+      <c r="C139">
+        <v>186</v>
+      </c>
+      <c r="D139">
+        <v>255</v>
+      </c>
+      <c r="E139">
+        <v>2651.471758793965</v>
+      </c>
+      <c r="F139">
+        <v>51.49244370579013</v>
+      </c>
+      <c r="G139">
+        <v>128</v>
+      </c>
+      <c r="H139">
+        <v>127</v>
+      </c>
+      <c r="I139">
+        <v>255</v>
+      </c>
+      <c r="J139">
+        <v>150.75</v>
+      </c>
+      <c r="K139">
+        <v>186</v>
+      </c>
+      <c r="L139">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>40671</v>
+      </c>
+      <c r="B140">
+        <v>203.355</v>
+      </c>
+      <c r="C140">
+        <v>185.5</v>
+      </c>
+      <c r="D140">
+        <v>255</v>
+      </c>
+      <c r="E140">
+        <v>2585.38590452262</v>
+      </c>
+      <c r="F140">
+        <v>50.8466902022405</v>
+      </c>
+      <c r="G140">
+        <v>125</v>
+      </c>
+      <c r="H140">
+        <v>130</v>
+      </c>
+      <c r="I140">
+        <v>255</v>
+      </c>
+      <c r="J140">
+        <v>151</v>
+      </c>
+      <c r="K140">
+        <v>185.5</v>
+      </c>
+      <c r="L140">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>40779</v>
+      </c>
+      <c r="B141">
+        <v>203.895</v>
+      </c>
+      <c r="C141">
+        <v>186</v>
+      </c>
+      <c r="D141">
+        <v>255</v>
+      </c>
+      <c r="E141">
+        <v>2553.119572864314</v>
+      </c>
+      <c r="F141">
+        <v>50.52840362473679</v>
+      </c>
+      <c r="G141">
+        <v>121</v>
+      </c>
+      <c r="H141">
+        <v>134</v>
+      </c>
+      <c r="I141">
+        <v>255</v>
+      </c>
+      <c r="J141">
+        <v>151.75</v>
+      </c>
+      <c r="K141">
+        <v>186</v>
+      </c>
+      <c r="L141">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>40910</v>
+      </c>
+      <c r="B142">
+        <v>204.55</v>
+      </c>
+      <c r="C142">
+        <v>191.5</v>
+      </c>
+      <c r="D142">
+        <v>255</v>
+      </c>
+      <c r="E142">
+        <v>2512.309045226135</v>
+      </c>
+      <c r="F142">
+        <v>50.12293931151818</v>
+      </c>
+      <c r="G142">
+        <v>117</v>
+      </c>
+      <c r="H142">
+        <v>138</v>
+      </c>
+      <c r="I142">
+        <v>255</v>
+      </c>
+      <c r="J142">
+        <v>152</v>
+      </c>
+      <c r="K142">
+        <v>191.5</v>
+      </c>
+      <c r="L142">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>41103</v>
+      </c>
+      <c r="B143">
+        <v>205.515</v>
+      </c>
+      <c r="C143">
+        <v>201.5</v>
+      </c>
+      <c r="D143">
+        <v>255</v>
+      </c>
+      <c r="E143">
+        <v>2449.708316582909</v>
+      </c>
+      <c r="F143">
+        <v>49.4945281478964</v>
+      </c>
+      <c r="G143">
+        <v>119</v>
+      </c>
+      <c r="H143">
+        <v>136</v>
+      </c>
+      <c r="I143">
+        <v>255</v>
+      </c>
+      <c r="J143">
+        <v>153</v>
+      </c>
+      <c r="K143">
+        <v>201.5</v>
+      </c>
+      <c r="L143">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>41383</v>
+      </c>
+      <c r="B144">
+        <v>206.915</v>
+      </c>
+      <c r="C144">
+        <v>214</v>
+      </c>
+      <c r="D144">
+        <v>255</v>
+      </c>
+      <c r="E144">
+        <v>2339.344497487432</v>
+      </c>
+      <c r="F144">
+        <v>48.3667705918788</v>
+      </c>
+      <c r="G144">
+        <v>113</v>
+      </c>
+      <c r="H144">
+        <v>142</v>
+      </c>
+      <c r="I144">
+        <v>255</v>
+      </c>
+      <c r="J144">
+        <v>156</v>
+      </c>
+      <c r="K144">
+        <v>214</v>
+      </c>
+      <c r="L144">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145">
+        <v>41572</v>
+      </c>
+      <c r="B145">
+        <v>207.86</v>
+      </c>
+      <c r="C145">
+        <v>223.5</v>
+      </c>
+      <c r="D145">
+        <v>255</v>
+      </c>
+      <c r="E145">
+        <v>2278.020502512556</v>
+      </c>
+      <c r="F145">
+        <v>47.72861303780527</v>
+      </c>
+      <c r="G145">
+        <v>112</v>
+      </c>
+      <c r="H145">
+        <v>143</v>
+      </c>
+      <c r="I145">
+        <v>255</v>
+      </c>
+      <c r="J145">
+        <v>157</v>
+      </c>
+      <c r="K145">
+        <v>223.5</v>
+      </c>
+      <c r="L145">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146">
+        <v>41680</v>
+      </c>
+      <c r="B146">
+        <v>208.4</v>
+      </c>
+      <c r="C146">
+        <v>231.5</v>
+      </c>
+      <c r="D146">
+        <v>255</v>
+      </c>
+      <c r="E146">
+        <v>2251.959798994973</v>
+      </c>
+      <c r="F146">
+        <v>47.45481850133844</v>
+      </c>
+      <c r="G146">
+        <v>112</v>
+      </c>
+      <c r="H146">
+        <v>143</v>
+      </c>
+      <c r="I146">
+        <v>255</v>
+      </c>
+      <c r="J146">
+        <v>157</v>
+      </c>
+      <c r="K146">
+        <v>231.5</v>
+      </c>
+      <c r="L146">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147">
+        <v>41771</v>
+      </c>
+      <c r="B147">
+        <v>208.855</v>
+      </c>
+      <c r="C147">
+        <v>235.5</v>
+      </c>
+      <c r="D147">
+        <v>255</v>
+      </c>
+      <c r="E147">
+        <v>2234.667311557786</v>
+      </c>
+      <c r="F147">
+        <v>47.27226789099277</v>
+      </c>
+      <c r="G147">
+        <v>112</v>
+      </c>
+      <c r="H147">
+        <v>143</v>
+      </c>
+      <c r="I147">
+        <v>255</v>
+      </c>
+      <c r="J147">
+        <v>157.75</v>
+      </c>
+      <c r="K147">
+        <v>235.5</v>
+      </c>
+      <c r="L147">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148">
+        <v>41988</v>
+      </c>
+      <c r="B148">
+        <v>209.94</v>
+      </c>
+      <c r="C148">
+        <v>242</v>
+      </c>
+      <c r="D148">
+        <v>255</v>
+      </c>
+      <c r="E148">
+        <v>2166.689849246238</v>
+      </c>
+      <c r="F148">
+        <v>46.54771583274778</v>
+      </c>
+      <c r="G148">
+        <v>114</v>
+      </c>
+      <c r="H148">
+        <v>141</v>
+      </c>
+      <c r="I148">
+        <v>255</v>
+      </c>
+      <c r="J148">
+        <v>161</v>
+      </c>
+      <c r="K148">
+        <v>242</v>
+      </c>
+      <c r="L148">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149">
+        <v>42213</v>
+      </c>
+      <c r="B149">
+        <v>211.065</v>
+      </c>
+      <c r="C149">
+        <v>248.5</v>
+      </c>
+      <c r="D149">
+        <v>255</v>
+      </c>
+      <c r="E149">
+        <v>2097.860075376888</v>
+      </c>
+      <c r="F149">
+        <v>45.80240250660317</v>
+      </c>
+      <c r="G149">
+        <v>115</v>
+      </c>
+      <c r="H149">
+        <v>140</v>
+      </c>
+      <c r="I149">
+        <v>255</v>
+      </c>
+      <c r="J149">
+        <v>162.75</v>
+      </c>
+      <c r="K149">
+        <v>248.5</v>
+      </c>
+      <c r="L149">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150">
+        <v>42375</v>
+      </c>
+      <c r="B150">
+        <v>211.875</v>
+      </c>
+      <c r="C150">
+        <v>253</v>
+      </c>
+      <c r="D150">
+        <v>255</v>
+      </c>
+      <c r="E150">
+        <v>2061.034547738694</v>
+      </c>
+      <c r="F150">
+        <v>45.39861834614236</v>
+      </c>
+      <c r="G150">
+        <v>114</v>
+      </c>
+      <c r="H150">
+        <v>141</v>
+      </c>
+      <c r="I150">
+        <v>255</v>
+      </c>
+      <c r="J150">
+        <v>164.75</v>
+      </c>
+      <c r="K150">
+        <v>253</v>
+      </c>
+      <c r="L150">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151">
+        <v>42474</v>
+      </c>
+      <c r="B151">
+        <v>212.37</v>
+      </c>
+      <c r="C151">
+        <v>252</v>
+      </c>
+      <c r="D151">
+        <v>255</v>
+      </c>
+      <c r="E151">
+        <v>2038.073467336678</v>
+      </c>
+      <c r="F151">
+        <v>45.14502704990527</v>
+      </c>
+      <c r="G151">
+        <v>114</v>
+      </c>
+      <c r="H151">
+        <v>141</v>
+      </c>
+      <c r="I151">
+        <v>255</v>
+      </c>
+      <c r="J151">
+        <v>165.75</v>
+      </c>
+      <c r="K151">
+        <v>252</v>
+      </c>
+      <c r="L151">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152">
+        <v>42487</v>
+      </c>
+      <c r="B152">
+        <v>212.435</v>
+      </c>
+      <c r="C152">
+        <v>252</v>
+      </c>
+      <c r="D152">
+        <v>255</v>
+      </c>
+      <c r="E152">
+        <v>2046.448015075378</v>
+      </c>
+      <c r="F152">
+        <v>45.23768357327084</v>
+      </c>
+      <c r="G152">
+        <v>115</v>
+      </c>
+      <c r="H152">
+        <v>140</v>
+      </c>
+      <c r="I152">
+        <v>255</v>
+      </c>
+      <c r="J152">
+        <v>166.75</v>
+      </c>
+      <c r="K152">
+        <v>252</v>
+      </c>
+      <c r="L152">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153">
+        <v>42535</v>
+      </c>
+      <c r="B153">
+        <v>212.675</v>
+      </c>
+      <c r="C153">
+        <v>250.5</v>
+      </c>
+      <c r="D153">
+        <v>255</v>
+      </c>
+      <c r="E153">
+        <v>2035.396356783925</v>
+      </c>
+      <c r="F153">
+        <v>45.11536719105725</v>
+      </c>
+      <c r="G153">
+        <v>115</v>
+      </c>
+      <c r="H153">
+        <v>140</v>
+      </c>
+      <c r="I153">
+        <v>255</v>
+      </c>
+      <c r="J153">
+        <v>165</v>
+      </c>
+      <c r="K153">
+        <v>250.5</v>
+      </c>
+      <c r="L153">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154">
+        <v>42608</v>
+      </c>
+      <c r="B154">
+        <v>213.04</v>
+      </c>
+      <c r="C154">
+        <v>248.5</v>
+      </c>
+      <c r="D154">
+        <v>255</v>
+      </c>
+      <c r="E154">
+        <v>2028.159195979891</v>
+      </c>
+      <c r="F154">
+        <v>45.0350884975248</v>
+      </c>
+      <c r="G154">
+        <v>117</v>
+      </c>
+      <c r="H154">
+        <v>138</v>
+      </c>
+      <c r="I154">
+        <v>255</v>
+      </c>
+      <c r="J154">
+        <v>167</v>
+      </c>
+      <c r="K154">
+        <v>248.5</v>
+      </c>
+      <c r="L154">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155">
+        <v>42701</v>
+      </c>
+      <c r="B155">
+        <v>213.505</v>
+      </c>
+      <c r="C155">
+        <v>248.5</v>
+      </c>
+      <c r="D155">
+        <v>255</v>
+      </c>
+      <c r="E155">
+        <v>2026.512537688435</v>
+      </c>
+      <c r="F155">
+        <v>45.01680283725661</v>
+      </c>
+      <c r="G155">
+        <v>120</v>
+      </c>
+      <c r="H155">
+        <v>135</v>
+      </c>
+      <c r="I155">
+        <v>255</v>
+      </c>
+      <c r="J155">
+        <v>167.75</v>
+      </c>
+      <c r="K155">
+        <v>248.5</v>
+      </c>
+      <c r="L155">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156">
+        <v>42839</v>
+      </c>
+      <c r="B156">
+        <v>214.195</v>
+      </c>
+      <c r="C156">
+        <v>252</v>
+      </c>
+      <c r="D156">
+        <v>255</v>
+      </c>
+      <c r="E156">
+        <v>2040.549723618099</v>
+      </c>
+      <c r="F156">
+        <v>45.17244429536771</v>
+      </c>
+      <c r="G156">
+        <v>122</v>
+      </c>
+      <c r="H156">
+        <v>133</v>
+      </c>
+      <c r="I156">
+        <v>255</v>
+      </c>
+      <c r="J156">
+        <v>168.75</v>
+      </c>
+      <c r="K156">
+        <v>252</v>
+      </c>
+      <c r="L156">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157">
+        <v>42921</v>
+      </c>
+      <c r="B157">
+        <v>214.605</v>
+      </c>
+      <c r="C157">
+        <v>253.5</v>
+      </c>
+      <c r="D157">
+        <v>255</v>
+      </c>
+      <c r="E157">
+        <v>2044.622085427139</v>
+      </c>
+      <c r="F157">
+        <v>45.21749755821455</v>
+      </c>
+      <c r="G157">
+        <v>120</v>
+      </c>
+      <c r="H157">
+        <v>135</v>
+      </c>
+      <c r="I157">
+        <v>255</v>
+      </c>
+      <c r="J157">
+        <v>169</v>
+      </c>
+      <c r="K157">
+        <v>253.5</v>
+      </c>
+      <c r="L157">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158">
+        <v>43009</v>
+      </c>
+      <c r="B158">
+        <v>215.045</v>
+      </c>
+      <c r="C158">
+        <v>254</v>
+      </c>
+      <c r="D158">
+        <v>255</v>
+      </c>
+      <c r="E158">
+        <v>2031.58087939699</v>
+      </c>
+      <c r="F158">
+        <v>45.07306157115345</v>
+      </c>
+      <c r="G158">
+        <v>121</v>
+      </c>
+      <c r="H158">
+        <v>134</v>
+      </c>
+      <c r="I158">
+        <v>255</v>
+      </c>
+      <c r="J158">
+        <v>171</v>
+      </c>
+      <c r="K158">
+        <v>254</v>
+      </c>
+      <c r="L158">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159">
+        <v>43136</v>
+      </c>
+      <c r="B159">
+        <v>215.68</v>
+      </c>
+      <c r="C159">
+        <v>253.5</v>
+      </c>
+      <c r="D159">
+        <v>255</v>
+      </c>
+      <c r="E159">
+        <v>1996.238793969849</v>
+      </c>
+      <c r="F159">
+        <v>44.67928819900613</v>
+      </c>
+      <c r="G159">
+        <v>122</v>
+      </c>
+      <c r="H159">
+        <v>133</v>
+      </c>
+      <c r="I159">
+        <v>255</v>
+      </c>
+      <c r="J159">
+        <v>174.75</v>
+      </c>
+      <c r="K159">
+        <v>253.5</v>
+      </c>
+      <c r="L159">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160">
+        <v>43316</v>
+      </c>
+      <c r="B160">
+        <v>216.58</v>
+      </c>
+      <c r="C160">
+        <v>253</v>
+      </c>
+      <c r="D160">
+        <v>255</v>
+      </c>
+      <c r="E160">
+        <v>1950.305125628135</v>
+      </c>
+      <c r="F160">
+        <v>44.16225906391266</v>
+      </c>
+      <c r="G160">
+        <v>125</v>
+      </c>
+      <c r="H160">
+        <v>130</v>
+      </c>
+      <c r="I160">
+        <v>255</v>
+      </c>
+      <c r="J160">
+        <v>174.75</v>
+      </c>
+      <c r="K160">
+        <v>253</v>
+      </c>
+      <c r="L160">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161">
+        <v>43444</v>
+      </c>
+      <c r="B161">
+        <v>217.22</v>
+      </c>
+      <c r="C161">
+        <v>253</v>
+      </c>
+      <c r="D161">
+        <v>255</v>
+      </c>
+      <c r="E161">
+        <v>1936.403618090451</v>
+      </c>
+      <c r="F161">
+        <v>44.00458633018212</v>
+      </c>
+      <c r="G161">
+        <v>128</v>
+      </c>
+      <c r="H161">
+        <v>127</v>
+      </c>
+      <c r="I161">
+        <v>255</v>
+      </c>
+      <c r="J161">
+        <v>174.75</v>
+      </c>
+      <c r="K161">
+        <v>253</v>
+      </c>
+      <c r="L161">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162">
+        <v>43489</v>
+      </c>
+      <c r="B162">
+        <v>217.445</v>
+      </c>
+      <c r="C162">
+        <v>252.5</v>
+      </c>
+      <c r="D162">
+        <v>255</v>
+      </c>
+      <c r="E162">
+        <v>1957.424095477382</v>
+      </c>
+      <c r="F162">
+        <v>44.24278580149969</v>
+      </c>
+      <c r="G162">
+        <v>131</v>
+      </c>
+      <c r="H162">
+        <v>124</v>
+      </c>
+      <c r="I162">
+        <v>255</v>
+      </c>
+      <c r="J162">
+        <v>175.75</v>
+      </c>
+      <c r="K162">
+        <v>252.5</v>
+      </c>
+      <c r="L162">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163">
+        <v>43437</v>
+      </c>
+      <c r="B163">
+        <v>217.185</v>
+      </c>
+      <c r="C163">
+        <v>252.5</v>
+      </c>
+      <c r="D163">
+        <v>255</v>
+      </c>
+      <c r="E163">
+        <v>2015.106306532668</v>
+      </c>
+      <c r="F163">
+        <v>44.88993547035536</v>
+      </c>
+      <c r="G163">
+        <v>133</v>
+      </c>
+      <c r="H163">
+        <v>122</v>
+      </c>
+      <c r="I163">
+        <v>255</v>
+      </c>
+      <c r="J163">
+        <v>179.75</v>
+      </c>
+      <c r="K163">
+        <v>252.5</v>
+      </c>
+      <c r="L163">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164">
+        <v>43560</v>
+      </c>
+      <c r="B164">
+        <v>217.8</v>
+      </c>
+      <c r="C164">
+        <v>252</v>
+      </c>
+      <c r="D164">
+        <v>255</v>
+      </c>
+      <c r="E164">
+        <v>1998.683417085436</v>
+      </c>
+      <c r="F164">
+        <v>44.70663728223624</v>
+      </c>
+      <c r="G164">
+        <v>141</v>
+      </c>
+      <c r="H164">
+        <v>114</v>
+      </c>
+      <c r="I164">
+        <v>255</v>
+      </c>
+      <c r="J164">
+        <v>177.25</v>
+      </c>
+      <c r="K164">
+        <v>252</v>
+      </c>
+      <c r="L164">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165">
+        <v>43565</v>
+      </c>
+      <c r="B165">
+        <v>217.825</v>
+      </c>
+      <c r="C165">
+        <v>252</v>
+      </c>
+      <c r="D165">
+        <v>255</v>
+      </c>
+      <c r="E165">
+        <v>2009.733040201014</v>
+      </c>
+      <c r="F165">
+        <v>44.83004617665494</v>
+      </c>
+      <c r="G165">
+        <v>144</v>
+      </c>
+      <c r="H165">
+        <v>111</v>
+      </c>
+      <c r="I165">
+        <v>255</v>
+      </c>
+      <c r="J165">
+        <v>177.75</v>
+      </c>
+      <c r="K165">
+        <v>252</v>
+      </c>
+      <c r="L165">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166">
+        <v>43509</v>
+      </c>
+      <c r="B166">
+        <v>217.545</v>
+      </c>
+      <c r="C166">
+        <v>251.5</v>
+      </c>
+      <c r="D166">
+        <v>255</v>
+      </c>
+      <c r="E166">
+        <v>2043.616055276379</v>
+      </c>
+      <c r="F166">
+        <v>45.20637184376091</v>
+      </c>
+      <c r="G166">
+        <v>144</v>
+      </c>
+      <c r="H166">
+        <v>111</v>
+      </c>
+      <c r="I166">
+        <v>255</v>
+      </c>
+      <c r="J166">
+        <v>177</v>
+      </c>
+      <c r="K166">
+        <v>251.5</v>
+      </c>
+      <c r="L166">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167">
+        <v>43424</v>
+      </c>
+      <c r="B167">
+        <v>217.12</v>
+      </c>
+      <c r="C167">
+        <v>251.5</v>
+      </c>
+      <c r="D167">
+        <v>255</v>
+      </c>
+      <c r="E167">
+        <v>2103.282010050247</v>
+      </c>
+      <c r="F167">
+        <v>45.86155263453525</v>
+      </c>
+      <c r="G167">
+        <v>147</v>
+      </c>
+      <c r="H167">
+        <v>108</v>
+      </c>
+      <c r="I167">
+        <v>255</v>
+      </c>
+      <c r="J167">
+        <v>178</v>
+      </c>
+      <c r="K167">
+        <v>251.5</v>
+      </c>
+      <c r="L167">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168">
+        <v>43393</v>
+      </c>
+      <c r="B168">
+        <v>216.965</v>
+      </c>
+      <c r="C168">
+        <v>251</v>
+      </c>
+      <c r="D168">
+        <v>255</v>
+      </c>
+      <c r="E168">
+        <v>2133.229924623111</v>
+      </c>
+      <c r="F168">
+        <v>46.18690208947891</v>
+      </c>
+      <c r="G168">
+        <v>156</v>
+      </c>
+      <c r="H168">
+        <v>99</v>
+      </c>
+      <c r="I168">
+        <v>255</v>
+      </c>
+      <c r="J168">
+        <v>177.75</v>
+      </c>
+      <c r="K168">
+        <v>251</v>
+      </c>
+      <c r="L168">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169">
+        <v>43449</v>
+      </c>
+      <c r="B169">
+        <v>217.245</v>
+      </c>
+      <c r="C169">
         <v>250</v>
       </c>
-      <c r="K101">
-        <v>255</v>
-      </c>
-      <c r="L101">
+      <c r="D169">
+        <v>255</v>
+      </c>
+      <c r="E169">
+        <v>2143.48238693468</v>
+      </c>
+      <c r="F169">
+        <v>46.29775790397068</v>
+      </c>
+      <c r="G169">
+        <v>161</v>
+      </c>
+      <c r="H169">
+        <v>94</v>
+      </c>
+      <c r="I169">
+        <v>255</v>
+      </c>
+      <c r="J169">
+        <v>179</v>
+      </c>
+      <c r="K169">
+        <v>250</v>
+      </c>
+      <c r="L169">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170">
+        <v>43501</v>
+      </c>
+      <c r="B170">
+        <v>217.505</v>
+      </c>
+      <c r="C170">
+        <v>248</v>
+      </c>
+      <c r="D170">
+        <v>255</v>
+      </c>
+      <c r="E170">
+        <v>2170.733643216086</v>
+      </c>
+      <c r="F170">
+        <v>46.59113266723708</v>
+      </c>
+      <c r="G170">
+        <v>164</v>
+      </c>
+      <c r="H170">
+        <v>91</v>
+      </c>
+      <c r="I170">
+        <v>255</v>
+      </c>
+      <c r="J170">
+        <v>181.75</v>
+      </c>
+      <c r="K170">
+        <v>248</v>
+      </c>
+      <c r="L170">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171">
+        <v>43418</v>
+      </c>
+      <c r="B171">
+        <v>217.09</v>
+      </c>
+      <c r="C171">
+        <v>247.5</v>
+      </c>
+      <c r="D171">
+        <v>255</v>
+      </c>
+      <c r="E171">
+        <v>2225.318492462315</v>
+      </c>
+      <c r="F171">
+        <v>47.17328155282728</v>
+      </c>
+      <c r="G171">
+        <v>166</v>
+      </c>
+      <c r="H171">
+        <v>89</v>
+      </c>
+      <c r="I171">
+        <v>255</v>
+      </c>
+      <c r="J171">
+        <v>180.75</v>
+      </c>
+      <c r="K171">
+        <v>247.5</v>
+      </c>
+      <c r="L171">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172">
+        <v>43256</v>
+      </c>
+      <c r="B172">
+        <v>216.28</v>
+      </c>
+      <c r="C172">
+        <v>247</v>
+      </c>
+      <c r="D172">
+        <v>255</v>
+      </c>
+      <c r="E172">
+        <v>2290.17246231155</v>
+      </c>
+      <c r="F172">
+        <v>47.85574638757137</v>
+      </c>
+      <c r="G172">
+        <v>167</v>
+      </c>
+      <c r="H172">
+        <v>88</v>
+      </c>
+      <c r="I172">
+        <v>255</v>
+      </c>
+      <c r="J172">
+        <v>179</v>
+      </c>
+      <c r="K172">
+        <v>247</v>
+      </c>
+      <c r="L172">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173">
+        <v>43102</v>
+      </c>
+      <c r="B173">
+        <v>215.51</v>
+      </c>
+      <c r="C173">
+        <v>247</v>
+      </c>
+      <c r="D173">
+        <v>255</v>
+      </c>
+      <c r="E173">
+        <v>2384.210954773876</v>
+      </c>
+      <c r="F173">
+        <v>48.82838267620459</v>
+      </c>
+      <c r="G173">
+        <v>162</v>
+      </c>
+      <c r="H173">
+        <v>93</v>
+      </c>
+      <c r="I173">
+        <v>255</v>
+      </c>
+      <c r="J173">
+        <v>175</v>
+      </c>
+      <c r="K173">
+        <v>247</v>
+      </c>
+      <c r="L173">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174">
+        <v>42939</v>
+      </c>
+      <c r="B174">
+        <v>214.695</v>
+      </c>
+      <c r="C174">
+        <v>247</v>
+      </c>
+      <c r="D174">
+        <v>255</v>
+      </c>
+      <c r="E174">
+        <v>2510.28339195979</v>
+      </c>
+      <c r="F174">
+        <v>50.10272838838011</v>
+      </c>
+      <c r="G174">
+        <v>164</v>
+      </c>
+      <c r="H174">
+        <v>91</v>
+      </c>
+      <c r="I174">
+        <v>255</v>
+      </c>
+      <c r="J174">
+        <v>170.75</v>
+      </c>
+      <c r="K174">
+        <v>247</v>
+      </c>
+      <c r="L174">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175">
+        <v>42708</v>
+      </c>
+      <c r="B175">
+        <v>213.54</v>
+      </c>
+      <c r="C175">
+        <v>245.5</v>
+      </c>
+      <c r="D175">
+        <v>255</v>
+      </c>
+      <c r="E175">
+        <v>2657.716984924625</v>
+      </c>
+      <c r="F175">
+        <v>51.55305020000878</v>
+      </c>
+      <c r="G175">
+        <v>166</v>
+      </c>
+      <c r="H175">
+        <v>89</v>
+      </c>
+      <c r="I175">
+        <v>255</v>
+      </c>
+      <c r="J175">
+        <v>170.75</v>
+      </c>
+      <c r="K175">
+        <v>245.5</v>
+      </c>
+      <c r="L175">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176">
+        <v>42505</v>
+      </c>
+      <c r="B176">
+        <v>212.525</v>
+      </c>
+      <c r="C176">
+        <v>245.5</v>
+      </c>
+      <c r="D176">
+        <v>255</v>
+      </c>
+      <c r="E176">
+        <v>2811.215452261301</v>
+      </c>
+      <c r="F176">
+        <v>53.02089637361199</v>
+      </c>
+      <c r="G176">
+        <v>170</v>
+      </c>
+      <c r="H176">
+        <v>85</v>
+      </c>
+      <c r="I176">
+        <v>255</v>
+      </c>
+      <c r="J176">
+        <v>170.25</v>
+      </c>
+      <c r="K176">
+        <v>245.5</v>
+      </c>
+      <c r="L176">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177">
+        <v>42284</v>
+      </c>
+      <c r="B177">
+        <v>211.42</v>
+      </c>
+      <c r="C177">
+        <v>245.5</v>
+      </c>
+      <c r="D177">
+        <v>255</v>
+      </c>
+      <c r="E177">
+        <v>2961.430753768846</v>
+      </c>
+      <c r="F177">
+        <v>54.41902933504829</v>
+      </c>
+      <c r="G177">
+        <v>173</v>
+      </c>
+      <c r="H177">
+        <v>82</v>
+      </c>
+      <c r="I177">
+        <v>255</v>
+      </c>
+      <c r="J177">
+        <v>171.75</v>
+      </c>
+      <c r="K177">
+        <v>245.5</v>
+      </c>
+      <c r="L177">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178">
+        <v>42034</v>
+      </c>
+      <c r="B178">
+        <v>210.17</v>
+      </c>
+      <c r="C178">
+        <v>245</v>
+      </c>
+      <c r="D178">
+        <v>255</v>
+      </c>
+      <c r="E178">
+        <v>3116.322713567835</v>
+      </c>
+      <c r="F178">
+        <v>55.82403347634274</v>
+      </c>
+      <c r="G178">
+        <v>176</v>
+      </c>
+      <c r="H178">
+        <v>79</v>
+      </c>
+      <c r="I178">
+        <v>255</v>
+      </c>
+      <c r="J178">
+        <v>173.5</v>
+      </c>
+      <c r="K178">
+        <v>245</v>
+      </c>
+      <c r="L178">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179">
+        <v>41689</v>
+      </c>
+      <c r="B179">
+        <v>208.445</v>
+      </c>
+      <c r="C179">
+        <v>245.5</v>
+      </c>
+      <c r="D179">
+        <v>255</v>
+      </c>
+      <c r="E179">
+        <v>3301.956758793962</v>
+      </c>
+      <c r="F179">
+        <v>57.46265534061198</v>
+      </c>
+      <c r="G179">
+        <v>179</v>
+      </c>
+      <c r="H179">
+        <v>76</v>
+      </c>
+      <c r="I179">
+        <v>255</v>
+      </c>
+      <c r="J179">
+        <v>171.75</v>
+      </c>
+      <c r="K179">
+        <v>245.5</v>
+      </c>
+      <c r="L179">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180">
+        <v>41290</v>
+      </c>
+      <c r="B180">
+        <v>206.45</v>
+      </c>
+      <c r="C180">
+        <v>246.5</v>
+      </c>
+      <c r="D180">
+        <v>255</v>
+      </c>
+      <c r="E180">
+        <v>3515.977386934682</v>
+      </c>
+      <c r="F180">
+        <v>59.29567764124702</v>
+      </c>
+      <c r="G180">
+        <v>181</v>
+      </c>
+      <c r="H180">
+        <v>74</v>
+      </c>
+      <c r="I180">
+        <v>255</v>
+      </c>
+      <c r="J180">
+        <v>169</v>
+      </c>
+      <c r="K180">
+        <v>246.5</v>
+      </c>
+      <c r="L180">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181">
+        <v>40908</v>
+      </c>
+      <c r="B181">
+        <v>204.54</v>
+      </c>
+      <c r="C181">
+        <v>247</v>
+      </c>
+      <c r="D181">
+        <v>255</v>
+      </c>
+      <c r="E181">
+        <v>3753.425527638204</v>
+      </c>
+      <c r="F181">
+        <v>61.26520650122877</v>
+      </c>
+      <c r="G181">
+        <v>183</v>
+      </c>
+      <c r="H181">
+        <v>72</v>
+      </c>
+      <c r="I181">
+        <v>255</v>
+      </c>
+      <c r="J181">
+        <v>166.75</v>
+      </c>
+      <c r="K181">
+        <v>247</v>
+      </c>
+      <c r="L181">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182">
+        <v>40600</v>
+      </c>
+      <c r="B182">
+        <v>203</v>
+      </c>
+      <c r="C182">
+        <v>248</v>
+      </c>
+      <c r="D182">
+        <v>255</v>
+      </c>
+      <c r="E182">
+        <v>3978.180904522613</v>
+      </c>
+      <c r="F182">
+        <v>63.07282223368964</v>
+      </c>
+      <c r="G182">
+        <v>185</v>
+      </c>
+      <c r="H182">
+        <v>70</v>
+      </c>
+      <c r="I182">
+        <v>255</v>
+      </c>
+      <c r="J182">
+        <v>161.75</v>
+      </c>
+      <c r="K182">
+        <v>248</v>
+      </c>
+      <c r="L182">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183">
+        <v>40385</v>
+      </c>
+      <c r="B183">
+        <v>201.925</v>
+      </c>
+      <c r="C183">
+        <v>249.5</v>
+      </c>
+      <c r="D183">
+        <v>255</v>
+      </c>
+      <c r="E183">
+        <v>4139.185301507518</v>
+      </c>
+      <c r="F183">
+        <v>64.33650053824437</v>
+      </c>
+      <c r="G183">
+        <v>184</v>
+      </c>
+      <c r="H183">
+        <v>71</v>
+      </c>
+      <c r="I183">
+        <v>255</v>
+      </c>
+      <c r="J183">
+        <v>163.5</v>
+      </c>
+      <c r="K183">
+        <v>249.5</v>
+      </c>
+      <c r="L183">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184">
+        <v>40186</v>
+      </c>
+      <c r="B184">
+        <v>200.93</v>
+      </c>
+      <c r="C184">
+        <v>251.5</v>
+      </c>
+      <c r="D184">
+        <v>255</v>
+      </c>
+      <c r="E184">
+        <v>4295.794070351759</v>
+      </c>
+      <c r="F184">
+        <v>65.54230748418733</v>
+      </c>
+      <c r="G184">
+        <v>183</v>
+      </c>
+      <c r="H184">
+        <v>72</v>
+      </c>
+      <c r="I184">
+        <v>255</v>
+      </c>
+      <c r="J184">
+        <v>152.5</v>
+      </c>
+      <c r="K184">
+        <v>251.5</v>
+      </c>
+      <c r="L184">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185">
+        <v>40008</v>
+      </c>
+      <c r="B185">
+        <v>200.04</v>
+      </c>
+      <c r="C185">
+        <v>252</v>
+      </c>
+      <c r="D185">
+        <v>255</v>
+      </c>
+      <c r="E185">
+        <v>4462.601407035192</v>
+      </c>
+      <c r="F185">
+        <v>66.80270508770728</v>
+      </c>
+      <c r="G185">
+        <v>183</v>
+      </c>
+      <c r="H185">
+        <v>72</v>
+      </c>
+      <c r="I185">
+        <v>255</v>
+      </c>
+      <c r="J185">
+        <v>146.75</v>
+      </c>
+      <c r="K185">
+        <v>252</v>
+      </c>
+      <c r="L185">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186">
+        <v>39865</v>
+      </c>
+      <c r="B186">
+        <v>199.325</v>
+      </c>
+      <c r="C186">
+        <v>252.5</v>
+      </c>
+      <c r="D186">
+        <v>255</v>
+      </c>
+      <c r="E186">
+        <v>4661.356155778873</v>
+      </c>
+      <c r="F186">
+        <v>68.27412508248548</v>
+      </c>
+      <c r="G186">
+        <v>186</v>
+      </c>
+      <c r="H186">
+        <v>69</v>
+      </c>
+      <c r="I186">
+        <v>255</v>
+      </c>
+      <c r="J186">
+        <v>134</v>
+      </c>
+      <c r="K186">
+        <v>252.5</v>
+      </c>
+      <c r="L186">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187">
+        <v>39861</v>
+      </c>
+      <c r="B187">
+        <v>199.305</v>
+      </c>
+      <c r="C187">
+        <v>252</v>
+      </c>
+      <c r="D187">
+        <v>255</v>
+      </c>
+      <c r="E187">
+        <v>4688.594949748757</v>
+      </c>
+      <c r="F187">
+        <v>68.47331560358938</v>
+      </c>
+      <c r="G187">
+        <v>181</v>
+      </c>
+      <c r="H187">
+        <v>74</v>
+      </c>
+      <c r="I187">
+        <v>255</v>
+      </c>
+      <c r="J187">
+        <v>128.5</v>
+      </c>
+      <c r="K187">
+        <v>252</v>
+      </c>
+      <c r="L187">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188">
+        <v>39799</v>
+      </c>
+      <c r="B188">
+        <v>198.995</v>
+      </c>
+      <c r="C188">
+        <v>252.5</v>
+      </c>
+      <c r="D188">
+        <v>255</v>
+      </c>
+      <c r="E188">
+        <v>4867.030125628144</v>
+      </c>
+      <c r="F188">
+        <v>69.7641034173603</v>
+      </c>
+      <c r="G188">
+        <v>181</v>
+      </c>
+      <c r="H188">
+        <v>74</v>
+      </c>
+      <c r="I188">
+        <v>255</v>
+      </c>
+      <c r="J188">
+        <v>121</v>
+      </c>
+      <c r="K188">
+        <v>252.5</v>
+      </c>
+      <c r="L188">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189">
+        <v>39864</v>
+      </c>
+      <c r="B189">
+        <v>199.32</v>
+      </c>
+      <c r="C189">
+        <v>253.5</v>
+      </c>
+      <c r="D189">
+        <v>255</v>
+      </c>
+      <c r="E189">
+        <v>5054.65085427136</v>
+      </c>
+      <c r="F189">
+        <v>71.09606778346718</v>
+      </c>
+      <c r="G189">
+        <v>180</v>
+      </c>
+      <c r="H189">
+        <v>75</v>
+      </c>
+      <c r="I189">
+        <v>255</v>
+      </c>
+      <c r="J189">
+        <v>112.25</v>
+      </c>
+      <c r="K189">
+        <v>253.5</v>
+      </c>
+      <c r="L189">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190">
+        <v>40185</v>
+      </c>
+      <c r="B190">
+        <v>200.925</v>
+      </c>
+      <c r="C190">
+        <v>254</v>
+      </c>
+      <c r="D190">
+        <v>255</v>
+      </c>
+      <c r="E190">
+        <v>5076.893844221093</v>
+      </c>
+      <c r="F190">
+        <v>71.25232518466392</v>
+      </c>
+      <c r="G190">
+        <v>181</v>
+      </c>
+      <c r="H190">
+        <v>74</v>
+      </c>
+      <c r="I190">
+        <v>255</v>
+      </c>
+      <c r="J190">
+        <v>108</v>
+      </c>
+      <c r="K190">
+        <v>254</v>
+      </c>
+      <c r="L190">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191">
+        <v>40964</v>
+      </c>
+      <c r="B191">
+        <v>204.82</v>
+      </c>
+      <c r="C191">
+        <v>254</v>
+      </c>
+      <c r="D191">
+        <v>255</v>
+      </c>
+      <c r="E191">
+        <v>4689.77648241207</v>
+      </c>
+      <c r="F191">
+        <v>68.4819427470634</v>
+      </c>
+      <c r="G191">
+        <v>179</v>
+      </c>
+      <c r="H191">
+        <v>76</v>
+      </c>
+      <c r="I191">
+        <v>255</v>
+      </c>
+      <c r="J191">
+        <v>128.5</v>
+      </c>
+      <c r="K191">
+        <v>254</v>
+      </c>
+      <c r="L191">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192">
+        <v>41704</v>
+      </c>
+      <c r="B192">
+        <v>208.52</v>
+      </c>
+      <c r="C192">
+        <v>254</v>
+      </c>
+      <c r="D192">
+        <v>255</v>
+      </c>
+      <c r="E192">
+        <v>4339.798592964833</v>
+      </c>
+      <c r="F192">
+        <v>65.87714772942763</v>
+      </c>
+      <c r="G192">
+        <v>175</v>
+      </c>
+      <c r="H192">
+        <v>80</v>
+      </c>
+      <c r="I192">
+        <v>255</v>
+      </c>
+      <c r="J192">
+        <v>145.5</v>
+      </c>
+      <c r="K192">
+        <v>254</v>
+      </c>
+      <c r="L192">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193">
+        <v>42464</v>
+      </c>
+      <c r="B193">
+        <v>212.32</v>
+      </c>
+      <c r="C193">
+        <v>254</v>
+      </c>
+      <c r="D193">
+        <v>255</v>
+      </c>
+      <c r="E193">
+        <v>3968.419698492446</v>
+      </c>
+      <c r="F193">
+        <v>62.99539426412415</v>
+      </c>
+      <c r="G193">
+        <v>170</v>
+      </c>
+      <c r="H193">
+        <v>85</v>
+      </c>
+      <c r="I193">
+        <v>255</v>
+      </c>
+      <c r="J193">
+        <v>167.25</v>
+      </c>
+      <c r="K193">
+        <v>254</v>
+      </c>
+      <c r="L193">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194">
+        <v>43366</v>
+      </c>
+      <c r="B194">
+        <v>216.83</v>
+      </c>
+      <c r="C194">
+        <v>254</v>
+      </c>
+      <c r="D194">
+        <v>255</v>
+      </c>
+      <c r="E194">
+        <v>3451.93075376883</v>
+      </c>
+      <c r="F194">
+        <v>58.7531339910377</v>
+      </c>
+      <c r="G194">
+        <v>169</v>
+      </c>
+      <c r="H194">
+        <v>86</v>
+      </c>
+      <c r="I194">
+        <v>255</v>
+      </c>
+      <c r="J194">
+        <v>185</v>
+      </c>
+      <c r="K194">
+        <v>254</v>
+      </c>
+      <c r="L194">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195">
+        <v>44356</v>
+      </c>
+      <c r="B195">
+        <v>221.78</v>
+      </c>
+      <c r="C195">
+        <v>254</v>
+      </c>
+      <c r="D195">
+        <v>255</v>
+      </c>
+      <c r="E195">
+        <v>2885.529246231152</v>
+      </c>
+      <c r="F195">
+        <v>53.717122467898</v>
+      </c>
+      <c r="G195">
+        <v>164</v>
+      </c>
+      <c r="H195">
+        <v>91</v>
+      </c>
+      <c r="I195">
+        <v>255</v>
+      </c>
+      <c r="J195">
+        <v>202.75</v>
+      </c>
+      <c r="K195">
+        <v>254</v>
+      </c>
+      <c r="L195">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196">
+        <v>45777</v>
+      </c>
+      <c r="B196">
+        <v>228.885</v>
+      </c>
+      <c r="C196">
+        <v>254</v>
+      </c>
+      <c r="D196">
+        <v>255</v>
+      </c>
+      <c r="E196">
+        <v>1924.454045226125</v>
+      </c>
+      <c r="F196">
+        <v>43.86859976368205</v>
+      </c>
+      <c r="G196">
+        <v>144</v>
+      </c>
+      <c r="H196">
+        <v>111</v>
+      </c>
+      <c r="I196">
+        <v>255</v>
+      </c>
+      <c r="J196">
+        <v>218.75</v>
+      </c>
+      <c r="K196">
+        <v>254</v>
+      </c>
+      <c r="L196">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197">
+        <v>47347</v>
+      </c>
+      <c r="B197">
+        <v>236.735</v>
+      </c>
+      <c r="C197">
+        <v>255</v>
+      </c>
+      <c r="D197">
+        <v>255</v>
+      </c>
+      <c r="E197">
+        <v>1004.768618090457</v>
+      </c>
+      <c r="F197">
+        <v>31.69808540102158</v>
+      </c>
+      <c r="G197">
+        <v>109</v>
+      </c>
+      <c r="H197">
+        <v>146</v>
+      </c>
+      <c r="I197">
+        <v>255</v>
+      </c>
+      <c r="J197">
+        <v>235.75</v>
+      </c>
+      <c r="K197">
+        <v>255</v>
+      </c>
+      <c r="L197">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198">
+        <v>48404</v>
+      </c>
+      <c r="B198">
+        <v>242.02</v>
+      </c>
+      <c r="C198">
+        <v>255</v>
+      </c>
+      <c r="D198">
+        <v>255</v>
+      </c>
+      <c r="E198">
+        <v>504.5523618090453</v>
+      </c>
+      <c r="F198">
+        <v>22.46224302711208</v>
+      </c>
+      <c r="G198">
+        <v>70</v>
+      </c>
+      <c r="H198">
+        <v>185</v>
+      </c>
+      <c r="I198">
+        <v>255</v>
+      </c>
+      <c r="J198">
+        <v>240</v>
+      </c>
+      <c r="K198">
+        <v>255</v>
+      </c>
+      <c r="L198">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199">
+        <v>49307</v>
+      </c>
+      <c r="B199">
+        <v>246.535</v>
+      </c>
+      <c r="C199">
+        <v>255</v>
+      </c>
+      <c r="D199">
+        <v>255</v>
+      </c>
+      <c r="E199">
+        <v>226.7223869346729</v>
+      </c>
+      <c r="F199">
+        <v>15.05730344167484</v>
+      </c>
+      <c r="G199">
+        <v>50</v>
+      </c>
+      <c r="H199">
+        <v>205</v>
+      </c>
+      <c r="I199">
+        <v>255</v>
+      </c>
+      <c r="J199">
+        <v>246</v>
+      </c>
+      <c r="K199">
+        <v>255</v>
+      </c>
+      <c r="L199">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200">
+        <v>49896</v>
+      </c>
+      <c r="B200">
+        <v>249.48</v>
+      </c>
+      <c r="C200">
+        <v>255</v>
+      </c>
+      <c r="D200">
+        <v>255</v>
+      </c>
+      <c r="E200">
+        <v>108.1101507537682</v>
+      </c>
+      <c r="F200">
+        <v>10.39760312542117</v>
+      </c>
+      <c r="G200">
+        <v>38</v>
+      </c>
+      <c r="H200">
+        <v>217</v>
+      </c>
+      <c r="I200">
+        <v>255</v>
+      </c>
+      <c r="J200">
+        <v>249</v>
+      </c>
+      <c r="K200">
+        <v>255</v>
+      </c>
+      <c r="L200">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201">
+        <v>50147</v>
+      </c>
+      <c r="B201">
+        <v>250.735</v>
+      </c>
+      <c r="C201">
+        <v>255</v>
+      </c>
+      <c r="D201">
+        <v>255</v>
+      </c>
+      <c r="E201">
+        <v>68.31635678391976</v>
+      </c>
+      <c r="F201">
+        <v>8.265370940491405</v>
+      </c>
+      <c r="G201">
+        <v>31</v>
+      </c>
+      <c r="H201">
+        <v>224</v>
+      </c>
+      <c r="I201">
+        <v>255</v>
+      </c>
+      <c r="J201">
+        <v>251</v>
+      </c>
+      <c r="K201">
+        <v>255</v>
+      </c>
+      <c r="L201">
         <v>255</v>
       </c>
     </row>
